--- a/raw-data-prep/raw_data/Note_sheet_TG.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TG.xlsx
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>RA</t>
-  </si>
-  <si>
-    <t>Good Session</t>
-  </si>
-  <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 6</t>
   </si>
   <si>
     <t>JC</t>
@@ -429,16 +417,28 @@
     <t>felt that essay exchange may be fake but not certain</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 5</t>
-  </si>
-  <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>Good.Session</t>
   </si>
 </sst>
 </file>
@@ -862,9 +862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -894,28 +894,28 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="N1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -926,7 +926,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>191</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -970,7 +970,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>192</v>
@@ -1000,10 +1000,10 @@
         <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1014,7 +1014,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>193</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1058,7 +1058,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>194</v>
@@ -1088,10 +1088,10 @@
         <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1102,7 +1102,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>195</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1146,7 +1146,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>196</v>
@@ -1176,10 +1176,10 @@
         <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="47.25" customHeight="1">
@@ -1190,7 +1190,7 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>197</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30">
@@ -1234,7 +1234,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>198</v>
@@ -1264,10 +1264,10 @@
         <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60">
@@ -1278,7 +1278,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>199</v>
@@ -1308,10 +1308,10 @@
         <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30">
@@ -1322,7 +1322,7 @@
         <v>0.625</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -1352,10 +1352,10 @@
         <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1363,10 +1363,10 @@
         <v>41702</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>201</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1407,7 +1407,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>202</v>
@@ -1437,10 +1437,10 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1451,7 +1451,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>203</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1495,7 +1495,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>204</v>
@@ -1525,10 +1525,10 @@
         <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1539,7 +1539,7 @@
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>205</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1583,7 +1583,7 @@
         <v>0.625</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>206</v>
@@ -1613,10 +1613,10 @@
         <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1627,7 +1627,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>207</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1671,7 +1671,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>209</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1715,7 +1715,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>210</v>
@@ -1745,10 +1745,10 @@
         <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1759,7 +1759,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>211</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1803,7 +1803,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>212</v>
@@ -1833,10 +1833,10 @@
         <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="45">
@@ -1847,7 +1847,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>213</v>
@@ -1877,10 +1877,10 @@
         <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1891,7 +1891,7 @@
         <v>0.625</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>214</v>
@@ -1921,7 +1921,7 @@
         <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1932,7 +1932,7 @@
         <v>0.625</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>215</v>
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>216</v>
@@ -1986,10 +1986,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2000,7 +2000,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>217</v>
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2044,7 +2044,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>218</v>
@@ -2074,7 +2074,7 @@
         <v>93</v>
       </c>
       <c r="M28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2085,7 +2085,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>219</v>
@@ -2115,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2129,7 +2129,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>220</v>
@@ -2159,10 +2159,10 @@
         <v>104</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2173,7 +2173,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>221</v>
@@ -2201,10 +2201,10 @@
       </c>
       <c r="L31" s="6"/>
       <c r="M31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2215,7 +2215,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>222</v>
@@ -2245,7 +2245,7 @@
         <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2256,7 +2256,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>223</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>224</v>
@@ -2336,7 +2336,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>225</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2380,7 +2380,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>226</v>
@@ -2410,10 +2410,10 @@
         <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2424,7 +2424,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>227</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2468,7 +2468,7 @@
         <v>0.625</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>228</v>
@@ -2498,10 +2498,10 @@
         <v>77</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30">
@@ -2512,7 +2512,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>229</v>
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30">
@@ -2556,7 +2556,7 @@
         <v>0.5</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>230</v>
@@ -2586,10 +2586,10 @@
         <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30">
@@ -2600,7 +2600,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>231</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30">
@@ -2644,7 +2644,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>232</v>
@@ -2674,10 +2674,10 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2688,7 +2688,7 @@
         <v>0.625</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>233</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2732,7 +2732,7 @@
         <v>0.625</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D44">
         <v>234</v>
@@ -2762,7 +2762,7 @@
         <v>67</v>
       </c>
       <c r="M44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2773,7 +2773,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45">
         <v>235</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2814,7 +2814,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>236</v>
@@ -2844,7 +2844,7 @@
         <v>107</v>
       </c>
       <c r="M46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2855,7 +2855,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>237</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2899,7 +2899,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>238</v>
@@ -2929,10 +2929,10 @@
         <v>71</v>
       </c>
       <c r="M48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2943,7 +2943,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>239</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2987,7 +2987,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>240</v>
@@ -3017,10 +3017,10 @@
         <v>67</v>
       </c>
       <c r="M50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="30">
@@ -3031,7 +3031,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <v>241</v>
@@ -3061,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3075,7 +3075,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>242</v>
@@ -3105,10 +3105,10 @@
         <v>52</v>
       </c>
       <c r="M52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3119,7 +3119,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>243</v>
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N53" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3163,7 +3163,7 @@
         <v>0.625</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>244</v>
@@ -3193,7 +3193,7 @@
         <v>199</v>
       </c>
       <c r="M54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3204,7 +3204,7 @@
         <v>0.625</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>245</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3245,7 +3245,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>246</v>
@@ -3275,10 +3275,10 @@
         <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3289,7 +3289,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>247</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3333,7 +3333,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>248</v>
@@ -3363,10 +3363,10 @@
         <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3377,7 +3377,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>249</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3421,7 +3421,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -3451,10 +3451,10 @@
         <v>127</v>
       </c>
       <c r="M60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3465,7 +3465,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>251</v>
@@ -3495,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3509,7 +3509,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D62">
         <v>252</v>
@@ -3539,7 +3539,7 @@
         <v>87</v>
       </c>
       <c r="M62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30">
@@ -3550,7 +3550,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>253</v>
@@ -3580,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3594,7 +3594,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>254</v>
@@ -3624,10 +3624,10 @@
         <v>58</v>
       </c>
       <c r="M64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="30">
@@ -3638,7 +3638,7 @@
         <v>0.5</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D65">
         <v>255</v>
@@ -3668,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3682,7 +3682,7 @@
         <v>0.625</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D66">
         <v>256</v>
@@ -3712,10 +3712,10 @@
         <v>35</v>
       </c>
       <c r="M66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="30">
@@ -3726,7 +3726,7 @@
         <v>0.625</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>257</v>
@@ -3756,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="30">
@@ -3770,7 +3770,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>258</v>
@@ -3800,10 +3800,10 @@
         <v>110</v>
       </c>
       <c r="M68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3814,7 +3814,7 @@
         <v>0.625</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D69" s="3">
         <v>259</v>
@@ -3844,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3858,7 +3858,7 @@
         <v>0.625</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3">
         <v>260</v>
@@ -3888,10 +3888,10 @@
         <v>88</v>
       </c>
       <c r="M70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3902,7 +3902,7 @@
         <v>0.625</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D71" s="3">
         <v>261</v>
@@ -3932,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3946,7 +3946,7 @@
         <v>0.625</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D72" s="3">
         <v>262</v>
@@ -3976,10 +3976,10 @@
         <v>124</v>
       </c>
       <c r="M72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="30">
@@ -3990,7 +3990,7 @@
         <v>0.625</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D73" s="3">
         <v>263</v>
@@ -4020,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4034,7 +4034,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D74" s="3">
         <v>264</v>
@@ -4064,10 +4064,10 @@
         <v>96</v>
       </c>
       <c r="M74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4078,7 +4078,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D75" s="3">
         <v>265</v>
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4122,7 +4122,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D76" s="3">
         <v>266</v>
@@ -4152,10 +4152,10 @@
         <v>79</v>
       </c>
       <c r="M76" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="30">
@@ -4166,7 +4166,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D77" s="3">
         <v>267</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4210,7 +4210,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D78" s="3">
         <v>268</v>
@@ -4240,10 +4240,10 @@
         <v>118</v>
       </c>
       <c r="M78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4254,7 +4254,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D79" s="3">
         <v>269</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4295,7 +4295,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D80" s="3">
         <v>270</v>
@@ -4325,10 +4325,10 @@
         <v>107</v>
       </c>
       <c r="M80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="30">
@@ -4339,7 +4339,7 @@
         <v>0.5</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D81" s="3">
         <v>271</v>
@@ -4369,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4383,7 +4383,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D82" s="3">
         <v>272</v>
@@ -4413,10 +4413,10 @@
         <v>76</v>
       </c>
       <c r="M82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4427,7 +4427,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="3">
         <v>273</v>
@@ -4457,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="30">
@@ -4471,7 +4471,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3">
         <v>274</v>
@@ -4501,10 +4501,10 @@
         <v>61</v>
       </c>
       <c r="M84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4515,7 +4515,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3">
         <v>275</v>
@@ -4545,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4559,7 +4559,7 @@
         <v>0.625</v>
       </c>
       <c r="C86" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D86" s="3">
         <v>276</v>
@@ -4589,10 +4589,10 @@
         <v>65</v>
       </c>
       <c r="M86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4603,7 +4603,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="3">
         <v>277</v>
@@ -4633,10 +4633,10 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4647,7 +4647,7 @@
         <v>0.625</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D88" s="3">
         <v>278</v>
@@ -4677,10 +4677,10 @@
         <v>73</v>
       </c>
       <c r="M88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4691,7 +4691,7 @@
         <v>0.625</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D89" s="3">
         <v>279</v>
@@ -4721,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4735,7 +4735,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D90" s="3">
         <v>280</v>
@@ -4747,10 +4747,10 @@
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4761,7 +4761,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D91" s="3">
         <v>281</v>
@@ -4791,10 +4791,10 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4805,7 +4805,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D92" s="3">
         <v>282</v>
@@ -4835,7 +4835,7 @@
         <v>58</v>
       </c>
       <c r="M92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4846,7 +4846,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D93" s="3">
         <v>283</v>
@@ -4876,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4890,7 +4890,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D94" s="3">
         <v>284</v>
@@ -4920,10 +4920,10 @@
         <v>36</v>
       </c>
       <c r="M94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4934,7 +4934,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D95" s="3">
         <v>285</v>
@@ -4964,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4978,7 +4978,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D96" s="3">
         <v>286</v>
@@ -5008,10 +5008,10 @@
         <v>86</v>
       </c>
       <c r="M96" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5022,7 +5022,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D97" s="3">
         <v>287</v>
@@ -5052,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="30">
@@ -5066,7 +5066,7 @@
         <v>0.5</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D98" s="3">
         <v>288</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="30">
@@ -5108,7 +5108,7 @@
         <v>0.5</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D99" s="3">
         <v>289</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="30">
@@ -5152,7 +5152,7 @@
         <v>0.625</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3">
         <v>290</v>
@@ -5182,10 +5182,10 @@
         <v>71</v>
       </c>
       <c r="M100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5196,7 +5196,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D101" s="3">
         <v>291</v>
@@ -5226,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="30">
@@ -5240,7 +5240,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="3">
         <v>292</v>
@@ -5270,10 +5270,10 @@
         <v>90</v>
       </c>
       <c r="M102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5284,7 +5284,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D103" s="3">
         <v>293</v>
@@ -5314,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="30">
@@ -5328,7 +5328,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="3">
         <v>294</v>
@@ -5358,10 +5358,10 @@
         <v>56</v>
       </c>
       <c r="M104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5372,7 +5372,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C105" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D105" s="3">
         <v>295</v>
@@ -5402,10 +5402,10 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5416,7 +5416,7 @@
         <v>0.625</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D106" s="3">
         <v>296</v>
@@ -5446,10 +5446,10 @@
         <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5460,7 +5460,7 @@
         <v>0.625</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D107" s="3">
         <v>297</v>
@@ -5490,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5504,7 +5504,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D108" s="3">
         <v>298</v>
@@ -5534,7 +5534,7 @@
         <v>80</v>
       </c>
       <c r="M108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5545,7 +5545,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D109" s="3">
         <v>299</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5586,7 +5586,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D110" s="3">
         <v>300</v>
@@ -5616,10 +5616,10 @@
         <v>37</v>
       </c>
       <c r="M110" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5630,7 +5630,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D111" s="3">
         <v>301</v>
@@ -5660,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5674,7 +5674,7 @@
         <v>0.46111111111111108</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D112" s="3">
         <v>302</v>
@@ -5704,10 +5704,10 @@
         <v>62</v>
       </c>
       <c r="M112" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5718,7 +5718,7 @@
         <v>0.5</v>
       </c>
       <c r="C113" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D113" s="3">
         <v>303</v>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="M113" s="11"/>
       <c r="N113" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5760,7 +5760,7 @@
         <v>0.5</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D114" s="3">
         <v>304</v>
@@ -5790,10 +5790,10 @@
         <v>80</v>
       </c>
       <c r="M114" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5804,7 +5804,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="3">
         <v>305</v>
@@ -5834,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5848,7 +5848,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D116" s="3">
         <v>306</v>
@@ -5878,10 +5878,10 @@
         <v>95</v>
       </c>
       <c r="M116" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="30">
@@ -5892,7 +5892,7 @@
         <v>0.625</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="3">
         <v>307</v>
@@ -5922,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5936,7 +5936,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C118" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D118" s="3">
         <v>308</v>
@@ -5966,10 +5966,10 @@
         <v>57</v>
       </c>
       <c r="M118" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Note_sheet_TG.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="183">
   <si>
     <t>Subject</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>RA</t>
+  </si>
+  <si>
+    <t>Good Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game 1 </t>
+  </si>
+  <si>
+    <t>Game 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game 3 </t>
+  </si>
+  <si>
+    <t>Game 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game 5 </t>
+  </si>
+  <si>
+    <t>Game 6</t>
   </si>
   <si>
     <t>JC</t>
@@ -417,35 +441,185 @@
     <t>felt that essay exchange may be fake but not certain</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Game.1</t>
-  </si>
-  <si>
-    <t>Game.2</t>
-  </si>
-  <si>
-    <t>Game.3</t>
-  </si>
-  <si>
-    <t>Game.4</t>
-  </si>
-  <si>
-    <t>Game.5</t>
-  </si>
-  <si>
-    <t>Game.6</t>
-  </si>
-  <si>
-    <t>Good.Session</t>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Nothing seemed off</t>
+  </si>
+  <si>
+    <t>Partner evaluation wasn't helpful, seemed personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did take note of starting late, felt like he were rushed </t>
+  </si>
+  <si>
+    <t>Seemed good</t>
+  </si>
+  <si>
+    <t>Participant was very cojncerned about the writing exercise, as English is his second language and he was worried about the other participant not being able to understand his essay. It seemed unethical to give hime the insult, so he was debriefed and dismissed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ran out of time so I didn't have time to ask what he thought of the experiment, if he thought anything was off, etc. </t>
+  </si>
+  <si>
+    <t>Said "nothing specifically" was weird about the study</t>
+  </si>
+  <si>
+    <t>Unable to record numbers. I believe I may have hit ESC more than once. But the game returned to the title screen before I could collect the data</t>
+  </si>
+  <si>
+    <t>Subject was wearing a ROTC uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerned when we skiipped the "distraction" task, felt evaluation of essay was fake </t>
+  </si>
+  <si>
+    <t>Ehrn asked said nothing seemed suspicious or abnormal about the study. After debreifing was surprised that there was never an insult from another partner</t>
+  </si>
+  <si>
+    <t>Was a little suspicious about the essay evaluation</t>
+  </si>
+  <si>
+    <t>Nothing was suspicious, didn’t suspect anything</t>
+  </si>
+  <si>
+    <t>After debriefing, participant said he did feel fustraited by the fake insult and that he had no idea it wasn’t real</t>
+  </si>
+  <si>
+    <t>Nothing seemed suspicious, he was completely fooled</t>
+  </si>
+  <si>
+    <t>Participant said he didn’t suspect the insult was fake, but thought his "partner" wrote it out of spite and made him angry</t>
+  </si>
+  <si>
+    <t>Noth sure if response was from the other participant or if it was faked</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/28/2014</t>
+  </si>
+  <si>
+    <t>Asked about distraction assignment and saud "ha, that's a long time"</t>
+  </si>
+  <si>
+    <t>Felt awkward about running into other participant when leaving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant said the hand scan was the only thing that see,ed off </t>
+  </si>
+  <si>
+    <t>Did not have tume to ask if he thought anything was weird, but it seemed like a good session</t>
+  </si>
+  <si>
+    <t>One of the participants smelled like weed while walking to the rooms from the waiting area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant asked what "distraction music" was while reading the  consent form </t>
+  </si>
+  <si>
+    <t>Did not read consent</t>
+  </si>
+  <si>
+    <t>When asked if anything seemed was weird about the study, he asked if his partner's evaluation was actually his evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suspected the participants knew eacthother previously because the showed up around the same time and were chatting immediately, but my participant seemed thrown by the insult </t>
+  </si>
+  <si>
+    <t>Weather outside was in high 30's, room was over 80 degrees and participant was in a sweater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS </t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>DO NOT USE!!!</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>RA's 1st subject</t>
+  </si>
+  <si>
+    <t>Van and I started about 45 sec appart (I before him) on the 15 min video fame taks. We went for the approiate timer legnths and I held up for the next bit</t>
+  </si>
+  <si>
+    <t>When asked if anything about the study was weird, he said "not really"</t>
+  </si>
+  <si>
+    <t>Laughed when read the insult. Filled out distraction assignment quickly before I even read the last paragraph</t>
+  </si>
+  <si>
+    <t>Participant speaks broken english. I also had to explain what abortion was and the difference between pro life and pro-choice. Participant had a hard time translating words into english, reading the essay that was given to him, and the back story of the game, also, I had to walk him through the controls of the game , I had to explain the distraction sheet as well  as the questionaires. The participant tried to partcipate to the best of his abitlity, but language differences resulted in issues durring the experiment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject was talkative </t>
+  </si>
+  <si>
+    <t>Subject notwed that the handscan seemed "off" when asked of anything was weird</t>
+  </si>
+  <si>
+    <t>Only one participant, didn’t notice anything strange when asked</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/1/2014</t>
+  </si>
+  <si>
+    <t>using the distraction- if judgement was harsh, tue judged person would not want nore aggression. Was very butter upon finding out he was tricked, cheerful up to that point</t>
+  </si>
+  <si>
+    <t>One subject study, prob did not see van. Nothing was off. Though skipping the distrsction was weird. "oh they wouldn’t run out of time what?"</t>
+  </si>
+  <si>
+    <t>When asked if anything was weird about the study, said "not really" and then acted like he was about to say something, but then said not really again</t>
+  </si>
+  <si>
+    <t>Didn’t say anything waqs weird when asked</t>
+  </si>
+  <si>
+    <t>Only one participant, had to say hand scan of other was done when participant was in the bathroom. Never saw another player/ confidant</t>
+  </si>
+  <si>
+    <t>Skipped over consent. When handed packet, said he'd played Doom before. Killed &lt;50% of enimies during 1st level, reminded him to eliminate all of them</t>
+  </si>
+  <si>
+    <t>Participant had already heard about study</t>
+  </si>
+  <si>
+    <t>Subject did not appear to be fooled, I mistakenly gave the subject the debreifing sheet before the debreifing questionaire</t>
+  </si>
+  <si>
+    <t>"nothing was weird"</t>
+  </si>
+  <si>
+    <t>Thought the response was a bit off</t>
+  </si>
+  <si>
+    <t>He was shocked by everything and completely fooled by the insult. He even told be in depth how twerrible it was he could judge his paper so harshly</t>
+  </si>
+  <si>
+    <t>Subject was familiar with Doom and sped through the first an presumably the rest of the levels/ Subject stated "he's seen this before" when giving him the distraction assignment form. When asked, he saw the study in Psych 1000, where they switch the evaluation forms or something and they recieve a huge insult instead</t>
+  </si>
+  <si>
+    <t>"The harshness of my reviewer was really strange- was that actually him that said that?"</t>
+  </si>
+  <si>
+    <t>Partner participant showed up right after I'd scanned my partner RA's hands, he ran the other guy anyway, I told my subject that Van had shown up for the wrong study and the partner changed. "Nothing seemed weird about the study"</t>
+  </si>
+  <si>
+    <t>Arived 10 min late, didn’t see other participant get his hands scanned. Subject was surprised when 5 minutes of easay writing was up, saying he was only able to write an introduction/ He seemed to really believe the other person inslted him, though he did suspect the study of being on about video game violence during the post-questionaire.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,7 +714,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -559,6 +733,8 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -650,6 +826,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -684,6 +861,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,22 +1037,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="131.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -894,31 +1072,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41695</v>
       </c>
@@ -926,7 +1104,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>191</v>
@@ -956,13 +1134,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41695</v>
       </c>
@@ -970,7 +1148,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>192</v>
@@ -1000,13 +1178,13 @@
         <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41695</v>
       </c>
@@ -1014,7 +1192,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>193</v>
@@ -1044,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41695</v>
       </c>
@@ -1058,7 +1236,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>194</v>
@@ -1088,13 +1266,13 @@
         <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41695</v>
       </c>
@@ -1102,7 +1280,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>195</v>
@@ -1132,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41696</v>
       </c>
@@ -1146,7 +1324,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>196</v>
@@ -1176,13 +1354,13 @@
         <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="47.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41701</v>
       </c>
@@ -1190,7 +1368,7 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>197</v>
@@ -1220,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41701</v>
       </c>
@@ -1234,7 +1412,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>198</v>
@@ -1264,13 +1442,13 @@
         <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41701</v>
       </c>
@@ -1278,7 +1456,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>199</v>
@@ -1308,13 +1486,13 @@
         <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41702</v>
       </c>
@@ -1322,7 +1500,7 @@
         <v>0.625</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -1352,21 +1530,21 @@
         <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41702</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>201</v>
@@ -1396,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41702</v>
       </c>
@@ -1407,7 +1585,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>202</v>
@@ -1437,13 +1615,13 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41702</v>
       </c>
@@ -1451,7 +1629,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>203</v>
@@ -1481,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41703</v>
       </c>
@@ -1495,7 +1673,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>204</v>
@@ -1525,13 +1703,13 @@
         <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41709</v>
       </c>
@@ -1539,7 +1717,7 @@
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>205</v>
@@ -1569,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41709</v>
       </c>
@@ -1583,7 +1761,7 @@
         <v>0.625</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>206</v>
@@ -1613,13 +1791,13 @@
         <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41709</v>
       </c>
@@ -1627,7 +1805,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>207</v>
@@ -1657,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41709</v>
       </c>
@@ -1671,7 +1849,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>209</v>
@@ -1701,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41709</v>
       </c>
@@ -1715,7 +1893,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>210</v>
@@ -1745,13 +1923,13 @@
         <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41710</v>
       </c>
@@ -1759,7 +1937,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>211</v>
@@ -1789,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41710</v>
       </c>
@@ -1803,7 +1981,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>212</v>
@@ -1833,13 +2011,13 @@
         <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41715</v>
       </c>
@@ -1847,7 +2025,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>213</v>
@@ -1877,13 +2055,13 @@
         <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41716</v>
       </c>
@@ -1891,7 +2069,7 @@
         <v>0.625</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>214</v>
@@ -1921,10 +2099,10 @@
         <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41716</v>
       </c>
@@ -1932,7 +2110,7 @@
         <v>0.625</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>215</v>
@@ -1962,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41716</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>216</v>
@@ -1986,13 +2164,13 @@
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41716</v>
       </c>
@@ -2000,7 +2178,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>217</v>
@@ -2030,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41716</v>
       </c>
@@ -2044,7 +2222,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>218</v>
@@ -2074,10 +2252,10 @@
         <v>93</v>
       </c>
       <c r="M28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41716</v>
       </c>
@@ -2085,7 +2263,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>219</v>
@@ -2115,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41716</v>
       </c>
@@ -2129,7 +2307,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>220</v>
@@ -2159,13 +2337,13 @@
         <v>104</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41716</v>
       </c>
@@ -2173,7 +2351,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>221</v>
@@ -2201,13 +2379,13 @@
       </c>
       <c r="L31" s="6"/>
       <c r="M31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41717</v>
       </c>
@@ -2215,7 +2393,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D32">
         <v>222</v>
@@ -2245,10 +2423,10 @@
         <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41717</v>
       </c>
@@ -2256,7 +2434,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>223</v>
@@ -2286,19 +2464,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41717</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>224</v>
@@ -2328,7 +2506,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41717</v>
       </c>
@@ -2336,7 +2514,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>225</v>
@@ -2366,13 +2544,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41729</v>
       </c>
@@ -2380,7 +2558,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>226</v>
@@ -2410,13 +2588,13 @@
         <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41730</v>
       </c>
@@ -2424,7 +2602,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>227</v>
@@ -2454,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41730</v>
       </c>
@@ -2468,7 +2646,7 @@
         <v>0.625</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>228</v>
@@ -2498,13 +2676,13 @@
         <v>77</v>
       </c>
       <c r="M38" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="30">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41736</v>
       </c>
@@ -2512,7 +2690,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>229</v>
@@ -2542,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>41736</v>
       </c>
@@ -2556,7 +2734,7 @@
         <v>0.5</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>230</v>
@@ -2586,13 +2764,13 @@
         <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41736</v>
       </c>
@@ -2600,7 +2778,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>231</v>
@@ -2630,13 +2808,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>41736</v>
       </c>
@@ -2644,7 +2822,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>232</v>
@@ -2674,13 +2852,13 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41737</v>
       </c>
@@ -2688,7 +2866,7 @@
         <v>0.625</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>233</v>
@@ -2718,13 +2896,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41737</v>
       </c>
@@ -2732,7 +2910,7 @@
         <v>0.625</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>234</v>
@@ -2762,10 +2940,10 @@
         <v>67</v>
       </c>
       <c r="M44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41737</v>
       </c>
@@ -2773,7 +2951,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D45">
         <v>235</v>
@@ -2803,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41737</v>
       </c>
@@ -2814,7 +2992,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>236</v>
@@ -2844,10 +3022,10 @@
         <v>107</v>
       </c>
       <c r="M46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41737</v>
       </c>
@@ -2855,7 +3033,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>237</v>
@@ -2885,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41737</v>
       </c>
@@ -2899,7 +3077,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D48">
         <v>238</v>
@@ -2929,13 +3107,13 @@
         <v>71</v>
       </c>
       <c r="M48" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41737</v>
       </c>
@@ -2943,7 +3121,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D49">
         <v>239</v>
@@ -2973,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41737</v>
       </c>
@@ -2987,7 +3165,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>240</v>
@@ -3017,13 +3195,13 @@
         <v>67</v>
       </c>
       <c r="M50" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41738</v>
       </c>
@@ -3031,7 +3209,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D51">
         <v>241</v>
@@ -3061,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41738</v>
       </c>
@@ -3075,7 +3253,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D52">
         <v>242</v>
@@ -3105,13 +3283,13 @@
         <v>52</v>
       </c>
       <c r="M52" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41743</v>
       </c>
@@ -3119,7 +3297,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>243</v>
@@ -3149,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41743</v>
       </c>
@@ -3163,7 +3341,7 @@
         <v>0.625</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D54">
         <v>244</v>
@@ -3193,10 +3371,10 @@
         <v>199</v>
       </c>
       <c r="M54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41744</v>
       </c>
@@ -3204,7 +3382,7 @@
         <v>0.625</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D55">
         <v>245</v>
@@ -3234,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41744</v>
       </c>
@@ -3245,7 +3423,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>246</v>
@@ -3275,13 +3453,13 @@
         <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41744</v>
       </c>
@@ -3289,7 +3467,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>247</v>
@@ -3319,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41744</v>
       </c>
@@ -3333,7 +3511,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>248</v>
@@ -3363,13 +3541,13 @@
         <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41744</v>
       </c>
@@ -3377,7 +3555,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D59">
         <v>249</v>
@@ -3407,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41744</v>
       </c>
@@ -3421,7 +3599,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -3451,13 +3629,13 @@
         <v>127</v>
       </c>
       <c r="M60" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41745</v>
       </c>
@@ -3465,7 +3643,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>251</v>
@@ -3495,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41745</v>
       </c>
@@ -3509,7 +3687,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D62">
         <v>252</v>
@@ -3539,10 +3717,10 @@
         <v>87</v>
       </c>
       <c r="M62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41745</v>
       </c>
@@ -3550,7 +3728,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>253</v>
@@ -3580,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41745</v>
       </c>
@@ -3594,7 +3772,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D64">
         <v>254</v>
@@ -3624,13 +3802,13 @@
         <v>58</v>
       </c>
       <c r="M64" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41745</v>
       </c>
@@ -3638,7 +3816,7 @@
         <v>0.5</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>255</v>
@@ -3668,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41745</v>
       </c>
@@ -3682,7 +3860,7 @@
         <v>0.625</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D66">
         <v>256</v>
@@ -3712,13 +3890,13 @@
         <v>35</v>
       </c>
       <c r="M66" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41745</v>
       </c>
@@ -3726,7 +3904,7 @@
         <v>0.625</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>257</v>
@@ -3756,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41750</v>
       </c>
@@ -3770,7 +3948,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>258</v>
@@ -3800,13 +3978,13 @@
         <v>110</v>
       </c>
       <c r="M68" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41750</v>
       </c>
@@ -3814,7 +3992,7 @@
         <v>0.625</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D69" s="3">
         <v>259</v>
@@ -3844,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41750</v>
       </c>
@@ -3858,7 +4036,7 @@
         <v>0.625</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="3">
         <v>260</v>
@@ -3888,13 +4066,13 @@
         <v>88</v>
       </c>
       <c r="M70" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41750</v>
       </c>
@@ -3902,7 +4080,7 @@
         <v>0.625</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D71" s="3">
         <v>261</v>
@@ -3932,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41751</v>
       </c>
@@ -3946,7 +4124,7 @@
         <v>0.625</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D72" s="3">
         <v>262</v>
@@ -3976,13 +4154,13 @@
         <v>124</v>
       </c>
       <c r="M72" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41751</v>
       </c>
@@ -3990,7 +4168,7 @@
         <v>0.625</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D73" s="3">
         <v>263</v>
@@ -4020,13 +4198,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41751</v>
       </c>
@@ -4034,7 +4212,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D74" s="3">
         <v>264</v>
@@ -4064,13 +4242,13 @@
         <v>96</v>
       </c>
       <c r="M74" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41751</v>
       </c>
@@ -4078,7 +4256,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D75" s="3">
         <v>265</v>
@@ -4108,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41751</v>
       </c>
@@ -4122,7 +4300,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D76" s="3">
         <v>266</v>
@@ -4152,13 +4330,13 @@
         <v>79</v>
       </c>
       <c r="M76" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="30">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41751</v>
       </c>
@@ -4166,7 +4344,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D77" s="3">
         <v>267</v>
@@ -4196,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41751</v>
       </c>
@@ -4210,7 +4388,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D78" s="3">
         <v>268</v>
@@ -4240,13 +4418,13 @@
         <v>118</v>
       </c>
       <c r="M78" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41752</v>
       </c>
@@ -4254,7 +4432,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D79" s="3">
         <v>269</v>
@@ -4284,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41752</v>
       </c>
@@ -4295,7 +4473,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D80" s="3">
         <v>270</v>
@@ -4325,13 +4503,13 @@
         <v>107</v>
       </c>
       <c r="M80" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41752</v>
       </c>
@@ -4339,7 +4517,7 @@
         <v>0.5</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D81" s="3">
         <v>271</v>
@@ -4369,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41752</v>
       </c>
@@ -4383,7 +4561,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D82" s="3">
         <v>272</v>
@@ -4413,13 +4591,13 @@
         <v>76</v>
       </c>
       <c r="M82" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41752</v>
       </c>
@@ -4427,7 +4605,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="3">
         <v>273</v>
@@ -4457,13 +4635,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41752</v>
       </c>
@@ -4471,7 +4649,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="3">
         <v>274</v>
@@ -4501,13 +4679,13 @@
         <v>61</v>
       </c>
       <c r="M84" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41752</v>
       </c>
@@ -4515,7 +4693,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="3">
         <v>275</v>
@@ -4545,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41757</v>
       </c>
@@ -4559,7 +4737,7 @@
         <v>0.625</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D86" s="3">
         <v>276</v>
@@ -4589,13 +4767,13 @@
         <v>65</v>
       </c>
       <c r="M86" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41757</v>
       </c>
@@ -4603,7 +4781,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="3">
         <v>277</v>
@@ -4633,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41757</v>
       </c>
@@ -4647,7 +4825,7 @@
         <v>0.625</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D88" s="3">
         <v>278</v>
@@ -4677,13 +4855,13 @@
         <v>73</v>
       </c>
       <c r="M88" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41758</v>
       </c>
@@ -4691,7 +4869,7 @@
         <v>0.625</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D89" s="3">
         <v>279</v>
@@ -4721,13 +4899,13 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41758</v>
       </c>
@@ -4735,7 +4913,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D90" s="3">
         <v>280</v>
@@ -4747,13 +4925,13 @@
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41758</v>
       </c>
@@ -4761,7 +4939,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D91" s="3">
         <v>281</v>
@@ -4791,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41758</v>
       </c>
@@ -4805,7 +4983,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D92" s="3">
         <v>282</v>
@@ -4835,10 +5013,10 @@
         <v>58</v>
       </c>
       <c r="M92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41758</v>
       </c>
@@ -4846,7 +5024,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D93" s="3">
         <v>283</v>
@@ -4876,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41758</v>
       </c>
@@ -4890,7 +5068,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D94" s="3">
         <v>284</v>
@@ -4920,13 +5098,13 @@
         <v>36</v>
       </c>
       <c r="M94" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41758</v>
       </c>
@@ -4934,7 +5112,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D95" s="3">
         <v>285</v>
@@ -4964,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41759</v>
       </c>
@@ -4978,7 +5156,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D96" s="3">
         <v>286</v>
@@ -5008,13 +5186,13 @@
         <v>86</v>
       </c>
       <c r="M96" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41759</v>
       </c>
@@ -5022,7 +5200,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D97" s="3">
         <v>287</v>
@@ -5052,13 +5230,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="30">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41759</v>
       </c>
@@ -5066,7 +5244,7 @@
         <v>0.5</v>
       </c>
       <c r="C98" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D98" s="3">
         <v>288</v>
@@ -5097,10 +5275,10 @@
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="30">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41759</v>
       </c>
@@ -5108,7 +5286,7 @@
         <v>0.5</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D99" s="3">
         <v>289</v>
@@ -5138,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41759</v>
       </c>
@@ -5152,7 +5330,7 @@
         <v>0.625</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="3">
         <v>290</v>
@@ -5182,13 +5360,13 @@
         <v>71</v>
       </c>
       <c r="M100" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41759</v>
       </c>
@@ -5196,7 +5374,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D101" s="3">
         <v>291</v>
@@ -5226,13 +5404,13 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41764</v>
       </c>
@@ -5240,7 +5418,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="3">
         <v>292</v>
@@ -5270,13 +5448,13 @@
         <v>90</v>
       </c>
       <c r="M102" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41764</v>
       </c>
@@ -5284,7 +5462,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D103" s="3">
         <v>293</v>
@@ -5314,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41764</v>
       </c>
@@ -5328,7 +5506,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="3">
         <v>294</v>
@@ -5358,13 +5536,13 @@
         <v>56</v>
       </c>
       <c r="M104" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41764</v>
       </c>
@@ -5372,7 +5550,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D105" s="3">
         <v>295</v>
@@ -5402,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41765</v>
       </c>
@@ -5416,7 +5594,7 @@
         <v>0.625</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D106" s="3">
         <v>296</v>
@@ -5446,13 +5624,13 @@
         <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41765</v>
       </c>
@@ -5460,7 +5638,7 @@
         <v>0.625</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D107" s="3">
         <v>297</v>
@@ -5490,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41765</v>
       </c>
@@ -5504,7 +5682,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D108" s="3">
         <v>298</v>
@@ -5534,10 +5712,10 @@
         <v>80</v>
       </c>
       <c r="M108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>41765</v>
       </c>
@@ -5545,7 +5723,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D109" s="3">
         <v>299</v>
@@ -5575,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>41765</v>
       </c>
@@ -5586,7 +5764,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D110" s="3">
         <v>300</v>
@@ -5616,13 +5794,13 @@
         <v>37</v>
       </c>
       <c r="M110" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41766</v>
       </c>
@@ -5630,7 +5808,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D111" s="3">
         <v>301</v>
@@ -5660,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>41766</v>
       </c>
@@ -5674,7 +5852,7 @@
         <v>0.46111111111111108</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D112" s="3">
         <v>302</v>
@@ -5704,13 +5882,13 @@
         <v>62</v>
       </c>
       <c r="M112" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>41766</v>
       </c>
@@ -5718,7 +5896,7 @@
         <v>0.5</v>
       </c>
       <c r="C113" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D113" s="3">
         <v>303</v>
@@ -5749,10 +5927,10 @@
       </c>
       <c r="M113" s="11"/>
       <c r="N113" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41766</v>
       </c>
@@ -5760,7 +5938,7 @@
         <v>0.5</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D114" s="3">
         <v>304</v>
@@ -5790,13 +5968,13 @@
         <v>80</v>
       </c>
       <c r="M114" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>41766</v>
       </c>
@@ -5804,7 +5982,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="3">
         <v>305</v>
@@ -5834,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>41766</v>
       </c>
@@ -5848,7 +6026,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D116" s="3">
         <v>306</v>
@@ -5878,13 +6056,13 @@
         <v>95</v>
       </c>
       <c r="M116" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>41766</v>
       </c>
@@ -5892,7 +6070,7 @@
         <v>0.625</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="3">
         <v>307</v>
@@ -5922,13 +6100,13 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>41766</v>
       </c>
@@ -5936,7 +6114,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D118" s="3">
         <v>308</v>
@@ -5966,10 +6144,3118 @@
         <v>57</v>
       </c>
       <c r="M118" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N118" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
+        <v>41926</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="3">
+        <v>309</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>222</v>
+      </c>
+      <c r="I119">
+        <v>22</v>
+      </c>
+      <c r="J119">
+        <v>1845</v>
+      </c>
+      <c r="K119">
+        <v>33</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
+        <v>41926</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" s="3">
+        <v>310</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>235</v>
+      </c>
+      <c r="I120">
+        <v>9</v>
+      </c>
+      <c r="J120">
+        <v>1089</v>
+      </c>
+      <c r="K120">
+        <v>62</v>
+      </c>
+      <c r="L120">
+        <v>45</v>
+      </c>
+      <c r="M120" t="s">
+        <v>15</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <v>41926</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="3">
+        <v>311</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>535</v>
+      </c>
+      <c r="I121">
+        <v>17</v>
+      </c>
+      <c r="J121">
+        <v>170</v>
+      </c>
+      <c r="K121">
+        <v>414</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="12">
+        <v>41926</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" s="3">
+        <v>312</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>240</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122">
+        <v>806</v>
+      </c>
+      <c r="K122">
+        <v>107</v>
+      </c>
+      <c r="L122">
+        <v>59</v>
+      </c>
+      <c r="M122" t="s">
+        <v>15</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
+        <v>41926</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="C123" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="3">
+        <v>313</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>430</v>
+      </c>
+      <c r="I123">
+        <v>14</v>
+      </c>
+      <c r="J123">
+        <v>487</v>
+      </c>
+      <c r="K123">
+        <v>265</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>15</v>
+      </c>
+      <c r="N123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="12">
+        <v>41928</v>
+      </c>
+      <c r="B124" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C124" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" s="3">
+        <v>314</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+      <c r="H124">
+        <v>373</v>
+      </c>
+      <c r="I124">
+        <v>9</v>
+      </c>
+      <c r="J124">
+        <v>1143</v>
+      </c>
+      <c r="K124">
+        <v>148</v>
+      </c>
+      <c r="L124">
+        <v>109</v>
+      </c>
+      <c r="M124" t="s">
+        <v>15</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="12">
+        <v>41928</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="3">
+        <v>315</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
+        <v>41933</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="3">
+        <v>316</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>6</v>
+      </c>
+      <c r="H126">
+        <v>369</v>
+      </c>
+      <c r="I126">
+        <v>19</v>
+      </c>
+      <c r="J126">
+        <v>1410</v>
+      </c>
+      <c r="K126">
+        <v>62</v>
+      </c>
+      <c r="L126">
+        <v>138</v>
+      </c>
+      <c r="M126" t="s">
+        <v>15</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
+        <v>41933</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C127" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="3">
+        <v>317</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>584</v>
+      </c>
+      <c r="I127">
+        <v>29</v>
+      </c>
+      <c r="J127">
+        <v>171</v>
+      </c>
+      <c r="K127">
+        <v>397</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>15</v>
+      </c>
+      <c r="N127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="12">
+        <v>41933</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C128" t="s">
+        <v>126</v>
+      </c>
+      <c r="D128" s="3">
+        <v>318</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
+        <v>41933</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C129" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="3">
+        <v>319</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>458</v>
+      </c>
+      <c r="I129">
+        <v>15</v>
+      </c>
+      <c r="J129">
+        <v>334</v>
+      </c>
+      <c r="K129">
+        <v>358</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>15</v>
+      </c>
+      <c r="N129" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
+        <v>41933</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130" t="s">
+        <v>126</v>
+      </c>
+      <c r="D130" s="3">
+        <v>320</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>14</v>
+      </c>
+      <c r="H130">
+        <v>276</v>
+      </c>
+      <c r="I130">
+        <v>7</v>
+      </c>
+      <c r="J130">
+        <v>1554</v>
+      </c>
+      <c r="K130">
+        <v>24</v>
+      </c>
+      <c r="L130">
+        <v>167</v>
+      </c>
+      <c r="M130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>41933</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C131" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131" s="3">
+        <v>321</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>379</v>
+      </c>
+      <c r="I131" s="3">
+        <v>13</v>
+      </c>
+      <c r="J131" s="3">
+        <v>577</v>
+      </c>
+      <c r="K131" s="3">
+        <v>233</v>
+      </c>
+      <c r="L131" s="3">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>15</v>
+      </c>
+      <c r="N131" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <v>41935</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="3">
+        <v>322</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>305</v>
+      </c>
+      <c r="I132" s="3">
+        <v>10</v>
+      </c>
+      <c r="J132" s="3">
+        <v>1123</v>
+      </c>
+      <c r="K132" s="3">
+        <v>80</v>
+      </c>
+      <c r="L132" s="3">
+        <v>48</v>
+      </c>
+      <c r="M132" t="s">
+        <v>15</v>
+      </c>
+      <c r="N132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>41935</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="3">
+        <v>323</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" s="3">
+        <v>3</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>422</v>
+      </c>
+      <c r="I133" s="3">
+        <v>14</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>393</v>
+      </c>
+      <c r="L133" s="3">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>23</v>
+      </c>
+      <c r="N133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C134" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="3">
+        <v>324</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" s="3">
+        <v>4</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3">
+        <v>227</v>
+      </c>
+      <c r="I134" s="3">
+        <v>4</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1075</v>
+      </c>
+      <c r="K134" s="3">
+        <v>83</v>
+      </c>
+      <c r="L134" s="3">
+        <v>48</v>
+      </c>
+      <c r="M134" t="s">
+        <v>15</v>
+      </c>
+      <c r="N134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="3">
+        <v>325</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>516</v>
+      </c>
+      <c r="I135" s="3">
+        <v>18</v>
+      </c>
+      <c r="J135" s="3">
+        <v>2364</v>
+      </c>
+      <c r="K135" s="3">
+        <v>99</v>
+      </c>
+      <c r="L135" s="3">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>15</v>
+      </c>
+      <c r="N135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="3">
+        <v>326</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" s="3">
+        <v>2</v>
+      </c>
+      <c r="G136" s="3">
+        <v>2</v>
+      </c>
+      <c r="H136" s="3">
+        <v>418</v>
+      </c>
+      <c r="I136" s="3">
+        <v>11</v>
+      </c>
+      <c r="J136" s="3">
+        <v>1674</v>
+      </c>
+      <c r="K136" s="3">
+        <v>104</v>
+      </c>
+      <c r="L136" s="3">
+        <v>92</v>
+      </c>
+      <c r="M136" t="s">
+        <v>15</v>
+      </c>
+      <c r="N136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="3">
+        <v>327</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" s="3">
+        <v>3</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>78</v>
+      </c>
+      <c r="I137" s="3">
+        <v>14</v>
+      </c>
+      <c r="J137" s="3">
+        <v>211</v>
+      </c>
+      <c r="K137" s="3">
+        <v>21</v>
+      </c>
+      <c r="L137" s="3">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>15</v>
+      </c>
+      <c r="N137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C138" t="s">
+        <v>126</v>
+      </c>
+      <c r="D138" s="3">
+        <v>328</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>4</v>
+      </c>
+      <c r="G138" s="3">
+        <v>3</v>
+      </c>
+      <c r="H138" s="3">
+        <v>325</v>
+      </c>
+      <c r="I138" s="3">
+        <v>6</v>
+      </c>
+      <c r="J138" s="3">
+        <v>853</v>
+      </c>
+      <c r="K138" s="3">
+        <v>162</v>
+      </c>
+      <c r="L138" s="3">
+        <v>90</v>
+      </c>
+      <c r="M138" t="s">
+        <v>15</v>
+      </c>
+      <c r="N138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C139" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139">
+        <v>329</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>567</v>
+      </c>
+      <c r="I139" s="3">
+        <v>19</v>
+      </c>
+      <c r="J139" s="3">
+        <v>243</v>
+      </c>
+      <c r="K139" s="3">
+        <v>343</v>
+      </c>
+      <c r="L139" s="3">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>15</v>
+      </c>
+      <c r="N139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C140" t="s">
+        <v>126</v>
+      </c>
+      <c r="D140">
+        <v>330</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>2</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+      <c r="H140" s="3">
+        <v>189</v>
+      </c>
+      <c r="I140" s="3">
+        <v>4</v>
+      </c>
+      <c r="J140" s="3">
+        <v>105</v>
+      </c>
+      <c r="K140" s="3">
+        <v>68</v>
+      </c>
+      <c r="L140" s="3">
+        <v>53</v>
+      </c>
+      <c r="M140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C141" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141">
+        <v>331</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141" s="3">
+        <v>3</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>462</v>
+      </c>
+      <c r="I141" s="3">
+        <v>15</v>
+      </c>
+      <c r="J141" s="3">
+        <v>115</v>
+      </c>
+      <c r="K141" s="3">
+        <v>225</v>
+      </c>
+      <c r="L141" s="3">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
+        <v>41940</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C142" t="s">
+        <v>126</v>
+      </c>
+      <c r="D142">
+        <v>332</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>4</v>
+      </c>
+      <c r="G142" s="3">
+        <v>3</v>
+      </c>
+      <c r="H142" s="3">
+        <v>285</v>
+      </c>
+      <c r="I142" s="3">
+        <v>3</v>
+      </c>
+      <c r="J142" s="3">
+        <v>953</v>
+      </c>
+      <c r="K142" s="3">
+        <v>93</v>
+      </c>
+      <c r="L142" s="3">
+        <v>99</v>
+      </c>
+      <c r="M142" s="11"/>
+      <c r="N142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143">
+        <v>333</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>469</v>
+      </c>
+      <c r="I143" s="3">
+        <v>16</v>
+      </c>
+      <c r="J143" s="3">
+        <v>627</v>
+      </c>
+      <c r="K143" s="3">
+        <v>284</v>
+      </c>
+      <c r="L143" s="3">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>15</v>
+      </c>
+      <c r="N143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C144" t="s">
+        <v>125</v>
+      </c>
+      <c r="D144">
+        <v>334</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <v>2</v>
+      </c>
+      <c r="G144" s="3">
+        <v>5</v>
+      </c>
+      <c r="H144" s="3">
+        <v>300</v>
+      </c>
+      <c r="I144" s="3">
+        <v>4</v>
+      </c>
+      <c r="J144" s="3">
+        <v>1063</v>
+      </c>
+      <c r="K144" s="3">
+        <v>100</v>
+      </c>
+      <c r="L144" s="3">
+        <v>124</v>
+      </c>
+      <c r="M144" t="s">
+        <v>15</v>
+      </c>
+      <c r="N144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C145" t="s">
+        <v>126</v>
+      </c>
+      <c r="D145">
+        <v>335</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3">
+        <v>3</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>434</v>
+      </c>
+      <c r="I145" s="3">
+        <v>14</v>
+      </c>
+      <c r="J145" s="3">
+        <v>1547</v>
+      </c>
+      <c r="K145" s="3">
+        <v>144</v>
+      </c>
+      <c r="L145" s="3">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
+        <v>15</v>
+      </c>
+      <c r="N145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C146" t="s">
+        <v>125</v>
+      </c>
+      <c r="D146">
+        <v>336</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146" s="3">
+        <v>4</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="3">
+        <v>380</v>
+      </c>
+      <c r="I146" s="3">
+        <v>12</v>
+      </c>
+      <c r="J146" s="3">
+        <v>1502</v>
+      </c>
+      <c r="K146" s="3">
+        <v>113</v>
+      </c>
+      <c r="L146" s="3">
+        <v>73</v>
+      </c>
+      <c r="M146" t="s">
+        <v>15</v>
+      </c>
+      <c r="N146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C147" t="s">
+        <v>126</v>
+      </c>
+      <c r="D147">
+        <v>337</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3">
+        <v>338</v>
+      </c>
+      <c r="I147" s="3">
+        <v>17</v>
+      </c>
+      <c r="J147" s="3">
+        <v>629</v>
+      </c>
+      <c r="K147" s="3">
+        <v>202</v>
+      </c>
+      <c r="L147" s="3">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C148" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148">
+        <v>338</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148" s="3">
+        <v>2</v>
+      </c>
+      <c r="G148" s="3">
+        <v>3</v>
+      </c>
+      <c r="H148" s="3">
+        <v>363</v>
+      </c>
+      <c r="I148" s="3">
+        <v>6</v>
+      </c>
+      <c r="J148" s="3">
+        <v>1113</v>
+      </c>
+      <c r="K148" s="3">
+        <v>127</v>
+      </c>
+      <c r="L148" s="3">
+        <v>110</v>
+      </c>
+      <c r="M148" t="s">
+        <v>15</v>
+      </c>
+      <c r="N148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C149" t="s">
+        <v>126</v>
+      </c>
+      <c r="D149">
+        <v>339</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3">
+        <v>3</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>443</v>
+      </c>
+      <c r="I149" s="3">
+        <v>17</v>
+      </c>
+      <c r="J149" s="3">
+        <v>1443</v>
+      </c>
+      <c r="K149" s="3">
+        <v>181</v>
+      </c>
+      <c r="L149" s="3">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
+        <v>41947</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C150" t="s">
+        <v>125</v>
+      </c>
+      <c r="D150">
+        <v>340</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150" s="3">
+        <v>4</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>456</v>
+      </c>
+      <c r="I150" s="3">
+        <v>14</v>
+      </c>
+      <c r="J150" s="3">
+        <v>1774</v>
+      </c>
+      <c r="K150" s="3">
+        <v>133</v>
+      </c>
+      <c r="L150" s="3">
+        <v>36</v>
+      </c>
+      <c r="M150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <v>41954</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151">
+        <v>341</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
+        <v>507</v>
+      </c>
+      <c r="I151" s="3">
+        <v>22</v>
+      </c>
+      <c r="J151" s="3">
+        <v>1372</v>
+      </c>
+      <c r="K151" s="3">
+        <v>191</v>
+      </c>
+      <c r="L151" s="3">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <v>41954</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C152" t="s">
+        <v>125</v>
+      </c>
+      <c r="D152">
+        <v>342</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152" s="3">
+        <v>2</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <v>336</v>
+      </c>
+      <c r="I152" s="3">
+        <v>10</v>
+      </c>
+      <c r="J152" s="3">
+        <v>1268</v>
+      </c>
+      <c r="K152" s="3">
+        <v>84</v>
+      </c>
+      <c r="L152" s="3">
+        <v>63</v>
+      </c>
+      <c r="M152" t="s">
+        <v>23</v>
+      </c>
+      <c r="N152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>41954</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153">
+        <v>343</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
+        <v>3</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>526</v>
+      </c>
+      <c r="I153" s="3">
+        <v>17</v>
+      </c>
+      <c r="J153" s="3">
+        <v>1510</v>
+      </c>
+      <c r="K153" s="3">
+        <v>258</v>
+      </c>
+      <c r="L153" s="3">
+        <v>0</v>
+      </c>
+      <c r="M153" t="s">
+        <v>23</v>
+      </c>
+      <c r="N153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>41954</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C154" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154">
+        <v>344</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154" s="3">
+        <v>4</v>
+      </c>
+      <c r="G154" s="3">
+        <v>4</v>
+      </c>
+      <c r="H154" s="3">
+        <v>338</v>
+      </c>
+      <c r="I154" s="3">
+        <v>4</v>
+      </c>
+      <c r="J154" s="3">
+        <v>1239</v>
+      </c>
+      <c r="K154" s="3">
+        <v>68</v>
+      </c>
+      <c r="L154" s="3">
+        <v>105</v>
+      </c>
+      <c r="M154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
+        <v>41954</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C155" t="s">
+        <v>126</v>
+      </c>
+      <c r="D155">
+        <v>345</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>525</v>
+      </c>
+      <c r="I155" s="3">
+        <v>16</v>
+      </c>
+      <c r="J155" s="3">
+        <v>575</v>
+      </c>
+      <c r="K155" s="3">
+        <v>263</v>
+      </c>
+      <c r="L155" s="3">
+        <v>0</v>
+      </c>
+      <c r="M155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <v>41954</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C156" t="s">
+        <v>125</v>
+      </c>
+      <c r="D156">
+        <v>346</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+      <c r="F156" s="3">
+        <v>2</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>345</v>
+      </c>
+      <c r="I156" s="3">
+        <v>11</v>
+      </c>
+      <c r="J156" s="3">
+        <v>1361</v>
+      </c>
+      <c r="K156" s="3">
+        <v>103</v>
+      </c>
+      <c r="L156" s="3">
+        <v>30</v>
+      </c>
+      <c r="M156" s="11"/>
+      <c r="N156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
+        <v>41954</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C157" t="s">
+        <v>155</v>
+      </c>
+      <c r="D157">
+        <v>347</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3">
+        <v>3</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>460</v>
+      </c>
+      <c r="I157" s="3">
+        <v>16</v>
+      </c>
+      <c r="J157" s="3">
+        <v>0</v>
+      </c>
+      <c r="K157" s="3">
+        <v>457</v>
+      </c>
+      <c r="L157" s="3">
+        <v>0</v>
+      </c>
+      <c r="M157" s="11"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <v>41957</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C158" t="s">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <v>348</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158" s="3">
+        <v>4</v>
+      </c>
+      <c r="G158" s="3">
+        <v>3</v>
+      </c>
+      <c r="H158" s="3">
+        <v>265</v>
+      </c>
+      <c r="I158" s="3">
+        <v>5</v>
+      </c>
+      <c r="J158" s="3">
+        <v>843</v>
+      </c>
+      <c r="K158" s="3">
+        <v>126</v>
+      </c>
+      <c r="L158" s="3">
+        <v>84</v>
+      </c>
+      <c r="M158" t="s">
+        <v>25</v>
+      </c>
+      <c r="N158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <v>41957</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C159" t="s">
+        <v>158</v>
+      </c>
+      <c r="D159">
+        <v>349</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>401</v>
+      </c>
+      <c r="I159" s="3">
+        <v>13</v>
+      </c>
+      <c r="J159" s="3">
+        <v>1702</v>
+      </c>
+      <c r="K159" s="3">
+        <v>147</v>
+      </c>
+      <c r="L159" s="3">
+        <v>0</v>
+      </c>
+      <c r="M159" s="11"/>
+      <c r="N159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
+        <v>41957</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C160" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160">
+        <v>350</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
+        <v>2</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3">
+        <v>238</v>
+      </c>
+      <c r="I160" s="3">
+        <v>6</v>
+      </c>
+      <c r="J160" s="3">
+        <v>366</v>
+      </c>
+      <c r="K160" s="3">
+        <v>100</v>
+      </c>
+      <c r="L160" s="3">
+        <v>88</v>
+      </c>
+      <c r="M160" t="s">
+        <v>15</v>
+      </c>
+      <c r="N160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <v>41961</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161">
+        <v>351</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <v>3</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>424</v>
+      </c>
+      <c r="I161" s="3">
+        <v>14</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0</v>
+      </c>
+      <c r="K161" s="3">
+        <v>428</v>
+      </c>
+      <c r="L161" s="3">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
+        <v>41961</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C162" t="s">
+        <v>125</v>
+      </c>
+      <c r="D162">
+        <v>352</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162" s="3">
+        <v>4</v>
+      </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3">
+        <v>295</v>
+      </c>
+      <c r="I162" s="3">
+        <v>7</v>
+      </c>
+      <c r="J162" s="3">
+        <v>1427</v>
+      </c>
+      <c r="K162" s="3">
+        <v>77</v>
+      </c>
+      <c r="L162" s="3">
+        <v>70</v>
+      </c>
+      <c r="M162" t="s">
+        <v>15</v>
+      </c>
+      <c r="N162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>41961</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163">
+        <v>353</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>427</v>
+      </c>
+      <c r="I163" s="3">
+        <v>14</v>
+      </c>
+      <c r="J163" s="3">
+        <v>376</v>
+      </c>
+      <c r="K163" s="3">
+        <v>239</v>
+      </c>
+      <c r="L163" s="3">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
+        <v>41961</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C164" t="s">
+        <v>126</v>
+      </c>
+      <c r="D164">
+        <v>354</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>2</v>
+      </c>
+      <c r="G164" s="3">
+        <v>4</v>
+      </c>
+      <c r="H164" s="3">
+        <v>309</v>
+      </c>
+      <c r="I164" s="3">
+        <v>7</v>
+      </c>
+      <c r="J164" s="3">
+        <v>1309</v>
+      </c>
+      <c r="K164" s="3">
+        <v>99</v>
+      </c>
+      <c r="L164" s="3">
+        <v>88</v>
+      </c>
+      <c r="M164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
+        <v>41961</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C165" t="s">
+        <v>126</v>
+      </c>
+      <c r="D165">
+        <v>355</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <v>3</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3">
+        <v>436</v>
+      </c>
+      <c r="I165" s="3">
+        <v>15</v>
+      </c>
+      <c r="J165" s="3">
+        <v>2241</v>
+      </c>
+      <c r="K165" s="3">
+        <v>43</v>
+      </c>
+      <c r="L165" s="3">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <v>41961</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C166" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166">
+        <v>356</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166" s="3">
+        <v>4</v>
+      </c>
+      <c r="G166" s="3">
+        <v>5</v>
+      </c>
+      <c r="H166" s="3">
+        <v>344</v>
+      </c>
+      <c r="I166" s="3">
+        <v>4</v>
+      </c>
+      <c r="J166" s="3">
+        <v>1217</v>
+      </c>
+      <c r="K166" s="3">
+        <v>112</v>
+      </c>
+      <c r="L166" s="3">
+        <v>112</v>
+      </c>
+      <c r="M166" t="s">
+        <v>15</v>
+      </c>
+      <c r="N166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>41961</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C167" t="s">
+        <v>126</v>
+      </c>
+      <c r="D167">
+        <v>357</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>177</v>
+      </c>
+      <c r="I167" s="3">
+        <v>6</v>
+      </c>
+      <c r="J167" s="3">
+        <v>0</v>
+      </c>
+      <c r="K167" s="3">
+        <v>154</v>
+      </c>
+      <c r="L167" s="3">
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>25</v>
+      </c>
+      <c r="N167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>41962</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C168" t="s">
+        <v>158</v>
+      </c>
+      <c r="D168">
+        <v>358</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168" s="3">
+        <v>2</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>387</v>
+      </c>
+      <c r="I168" s="3">
+        <v>13</v>
+      </c>
+      <c r="J168" s="3">
+        <v>1327</v>
+      </c>
+      <c r="K168" s="3">
+        <v>89</v>
+      </c>
+      <c r="L168" s="3">
+        <v>53</v>
+      </c>
+      <c r="M168" s="11"/>
+      <c r="N168" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <v>41971</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C169" t="s">
+        <v>156</v>
+      </c>
+      <c r="D169">
+        <v>359</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <v>3</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>564</v>
+      </c>
+      <c r="I169" s="3">
+        <v>13</v>
+      </c>
+      <c r="J169" s="3">
+        <v>2411</v>
+      </c>
+      <c r="K169" s="3">
+        <v>132</v>
+      </c>
+      <c r="L169" s="3">
+        <v>0</v>
+      </c>
+      <c r="M169" t="s">
+        <v>15</v>
+      </c>
+      <c r="N169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <v>41971</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C170" t="s">
+        <v>156</v>
+      </c>
+      <c r="D170">
+        <v>360</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>4</v>
+      </c>
+      <c r="G170" s="3">
+        <v>6</v>
+      </c>
+      <c r="H170" s="3">
+        <v>343</v>
+      </c>
+      <c r="I170" s="3">
+        <v>7</v>
+      </c>
+      <c r="J170" s="3">
+        <v>1202</v>
+      </c>
+      <c r="K170" s="3">
+        <v>147</v>
+      </c>
+      <c r="L170" s="3">
+        <v>107</v>
+      </c>
+      <c r="M170" t="s">
+        <v>15</v>
+      </c>
+      <c r="N170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C171" t="s">
+        <v>158</v>
+      </c>
+      <c r="D171">
+        <v>361</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171" s="3">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
+        <v>511</v>
+      </c>
+      <c r="I171" s="3">
+        <v>17</v>
+      </c>
+      <c r="J171" s="3">
+        <v>993</v>
+      </c>
+      <c r="K171" s="3">
+        <v>228</v>
+      </c>
+      <c r="L171" s="3">
+        <v>0</v>
+      </c>
+      <c r="M171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>41972</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C172" t="s">
+        <v>156</v>
+      </c>
+      <c r="D172">
+        <v>362</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>2</v>
+      </c>
+      <c r="G172" s="3">
+        <v>1</v>
+      </c>
+      <c r="H172" s="3">
+        <v>300</v>
+      </c>
+      <c r="I172" s="3">
+        <v>7</v>
+      </c>
+      <c r="J172" s="3">
+        <v>1314</v>
+      </c>
+      <c r="K172" s="3">
+        <v>83</v>
+      </c>
+      <c r="L172" s="3">
+        <v>70</v>
+      </c>
+      <c r="M172" t="s">
+        <v>15</v>
+      </c>
+      <c r="N172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>41972</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C173" t="s">
+        <v>156</v>
+      </c>
+      <c r="D173">
+        <v>363</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>3</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="3">
+        <v>365</v>
+      </c>
+      <c r="I173" s="3">
+        <v>12</v>
+      </c>
+      <c r="J173" s="3">
+        <v>415</v>
+      </c>
+      <c r="K173" s="3">
+        <v>244</v>
+      </c>
+      <c r="L173" s="3">
+        <v>0</v>
+      </c>
+      <c r="M173" t="s">
+        <v>15</v>
+      </c>
+      <c r="N173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C174" t="s">
+        <v>125</v>
+      </c>
+      <c r="D174">
+        <v>364</v>
+      </c>
+      <c r="E174">
+        <v>4</v>
+      </c>
+      <c r="F174" s="3">
+        <v>4</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>298</v>
+      </c>
+      <c r="I174" s="3">
+        <v>10</v>
+      </c>
+      <c r="J174" s="3">
+        <v>847</v>
+      </c>
+      <c r="K174" s="3">
+        <v>150</v>
+      </c>
+      <c r="L174" s="3">
+        <v>65</v>
+      </c>
+      <c r="M174" t="s">
+        <v>15</v>
+      </c>
+      <c r="N174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175">
+        <v>365</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>388</v>
+      </c>
+      <c r="I175" s="3">
+        <v>16</v>
+      </c>
+      <c r="J175" s="3">
+        <v>504</v>
+      </c>
+      <c r="K175" s="3">
+        <v>226</v>
+      </c>
+      <c r="L175" s="3">
+        <v>0</v>
+      </c>
+      <c r="M175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C176" t="s">
+        <v>125</v>
+      </c>
+      <c r="D176">
+        <v>366</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176" s="3">
+        <v>2</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>457</v>
+      </c>
+      <c r="I176" s="3">
+        <v>14</v>
+      </c>
+      <c r="J176" s="3">
+        <v>1813</v>
+      </c>
+      <c r="K176" s="3">
+        <v>130</v>
+      </c>
+      <c r="L176" s="3">
+        <v>60</v>
+      </c>
+      <c r="M176" t="s">
+        <v>15</v>
+      </c>
+      <c r="N176" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C177" t="s">
+        <v>125</v>
+      </c>
+      <c r="D177">
+        <v>367</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177" s="3">
+        <v>3</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>368</v>
+      </c>
+      <c r="I177" s="3">
+        <v>22</v>
+      </c>
+      <c r="J177" s="3">
+        <v>1261</v>
+      </c>
+      <c r="K177" s="3">
+        <v>181</v>
+      </c>
+      <c r="L177" s="3">
+        <v>0</v>
+      </c>
+      <c r="M177" t="s">
+        <v>23</v>
+      </c>
+      <c r="N177" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C178" t="s">
+        <v>126</v>
+      </c>
+      <c r="D178">
+        <v>368</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>4</v>
+      </c>
+      <c r="G178" s="3">
+        <v>3</v>
+      </c>
+      <c r="H178" s="3">
+        <v>474</v>
+      </c>
+      <c r="I178" s="3">
+        <v>11</v>
+      </c>
+      <c r="J178" s="3">
+        <v>1531</v>
+      </c>
+      <c r="K178" s="3">
+        <v>139</v>
+      </c>
+      <c r="L178" s="3">
+        <v>110</v>
+      </c>
+      <c r="M178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C179" t="s">
+        <v>125</v>
+      </c>
+      <c r="D179">
+        <v>369</v>
+      </c>
+      <c r="E179">
+        <v>4</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="3">
+        <v>428</v>
+      </c>
+      <c r="I179" s="3">
+        <v>15</v>
+      </c>
+      <c r="J179" s="3">
+        <v>0</v>
+      </c>
+      <c r="K179" s="3">
+        <v>363</v>
+      </c>
+      <c r="L179" s="3">
+        <v>0</v>
+      </c>
+      <c r="M179" s="11"/>
+      <c r="N179" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C180" t="s">
+        <v>126</v>
+      </c>
+      <c r="D180">
+        <v>370</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3">
+        <v>2</v>
+      </c>
+      <c r="G180" s="3">
+        <v>4</v>
+      </c>
+      <c r="H180" s="3">
+        <v>443</v>
+      </c>
+      <c r="I180" s="3">
+        <v>11</v>
+      </c>
+      <c r="J180" s="3">
+        <v>1473</v>
+      </c>
+      <c r="K180" s="3">
+        <v>154</v>
+      </c>
+      <c r="L180" s="3">
         <v>116</v>
+      </c>
+      <c r="M180" s="11"/>
+      <c r="N180" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
+        <v>41975</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C181" t="s">
+        <v>125</v>
+      </c>
+      <c r="D181">
+        <v>371</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181" s="3">
+        <v>3</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>513</v>
+      </c>
+      <c r="I181" s="3">
+        <v>18</v>
+      </c>
+      <c r="J181" s="3">
+        <v>1322</v>
+      </c>
+      <c r="K181" s="3">
+        <v>232</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <v>41976</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C182" t="s">
+        <v>158</v>
+      </c>
+      <c r="D182">
+        <v>372</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182" s="3">
+        <v>4</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>344</v>
+      </c>
+      <c r="I182" s="3">
+        <v>11</v>
+      </c>
+      <c r="J182" s="3">
+        <v>110</v>
+      </c>
+      <c r="K182" s="3">
+        <v>112</v>
+      </c>
+      <c r="L182" s="3">
+        <v>28</v>
+      </c>
+      <c r="M182" t="s">
+        <v>15</v>
+      </c>
+      <c r="N182" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
+        <v>41976</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C183" t="s">
+        <v>156</v>
+      </c>
+      <c r="D183">
+        <v>373</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>428</v>
+      </c>
+      <c r="I183" s="3">
+        <v>13</v>
+      </c>
+      <c r="J183" s="3">
+        <v>1265</v>
+      </c>
+      <c r="K183" s="3">
+        <v>135</v>
+      </c>
+      <c r="L183" s="3">
+        <v>0</v>
+      </c>
+      <c r="M183" t="s">
+        <v>15</v>
+      </c>
+      <c r="N183" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>41976</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C184" t="s">
+        <v>158</v>
+      </c>
+      <c r="D184">
+        <v>374</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184" s="3">
+        <v>2</v>
+      </c>
+      <c r="G184" s="3">
+        <v>5</v>
+      </c>
+      <c r="H184" s="3">
+        <v>336</v>
+      </c>
+      <c r="I184" s="3">
+        <v>7</v>
+      </c>
+      <c r="J184" s="3">
+        <v>1447</v>
+      </c>
+      <c r="K184" s="3">
+        <v>99</v>
+      </c>
+      <c r="L184" s="3">
+        <v>99</v>
+      </c>
+      <c r="M184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>41976</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C185" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185">
+        <v>375</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" s="3">
+        <v>3</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>565</v>
+      </c>
+      <c r="I185" s="3">
+        <v>13</v>
+      </c>
+      <c r="J185" s="3">
+        <v>2111</v>
+      </c>
+      <c r="K185" s="3">
+        <v>168</v>
+      </c>
+      <c r="L185" s="3">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
+        <v>15</v>
+      </c>
+      <c r="N185" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>74854</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186">
+        <v>376</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3">
+        <v>4</v>
+      </c>
+      <c r="G186" s="3">
+        <v>1</v>
+      </c>
+      <c r="H186" s="3">
+        <v>183</v>
+      </c>
+      <c r="I186" s="3">
+        <v>5</v>
+      </c>
+      <c r="J186" s="3">
+        <v>718</v>
+      </c>
+      <c r="K186" s="3">
+        <v>55</v>
+      </c>
+      <c r="L186" s="3">
+        <v>54</v>
+      </c>
+      <c r="M186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>41982</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187">
+        <v>377</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="3">
+        <v>385</v>
+      </c>
+      <c r="I187" s="3">
+        <v>13</v>
+      </c>
+      <c r="J187" s="3">
+        <v>2262</v>
+      </c>
+      <c r="K187" s="3">
+        <v>2</v>
+      </c>
+      <c r="L187" s="3">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
+        <v>15</v>
+      </c>
+      <c r="N187" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <v>41983</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C188" t="s">
+        <v>158</v>
+      </c>
+      <c r="D188">
+        <v>378</v>
+      </c>
+      <c r="E188">
+        <v>4</v>
+      </c>
+      <c r="F188" s="3">
+        <v>2</v>
+      </c>
+      <c r="G188" s="3">
+        <v>6</v>
+      </c>
+      <c r="H188" s="3">
+        <v>609</v>
+      </c>
+      <c r="I188" s="3">
+        <v>22</v>
+      </c>
+      <c r="J188" s="3">
+        <v>750</v>
+      </c>
+      <c r="K188" s="3">
+        <v>239</v>
+      </c>
+      <c r="L188" s="3">
+        <v>238</v>
+      </c>
+      <c r="M188" t="s">
+        <v>25</v>
+      </c>
+      <c r="N188" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
+        <v>41983</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C189" t="s">
+        <v>156</v>
+      </c>
+      <c r="D189">
+        <v>379</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" s="3">
+        <v>3</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>373</v>
+      </c>
+      <c r="I189" s="3">
+        <v>13</v>
+      </c>
+      <c r="J189" s="3">
+        <v>373</v>
+      </c>
+      <c r="K189" s="3">
+        <v>167</v>
+      </c>
+      <c r="L189" s="3">
+        <v>0</v>
+      </c>
+      <c r="M189" t="s">
+        <v>15</v>
+      </c>
+      <c r="N189" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
+        <v>41983</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C190" t="s">
+        <v>156</v>
+      </c>
+      <c r="D190">
+        <v>380</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3">
+        <v>4</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1</v>
+      </c>
+      <c r="H190" s="3">
+        <v>407</v>
+      </c>
+      <c r="I190" s="3">
+        <v>13</v>
+      </c>
+      <c r="J190" s="3">
+        <v>1713</v>
+      </c>
+      <c r="K190" s="3">
+        <v>133</v>
+      </c>
+      <c r="L190" s="3">
+        <v>77</v>
+      </c>
+      <c r="M190" t="s">
+        <v>15</v>
+      </c>
+      <c r="N190" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
+        <v>41983</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C191" t="s">
+        <v>158</v>
+      </c>
+      <c r="D191">
+        <v>381</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+      <c r="F191" s="3">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="3">
+        <v>464</v>
+      </c>
+      <c r="I191" s="3">
+        <v>15</v>
+      </c>
+      <c r="J191" s="3">
+        <v>807</v>
+      </c>
+      <c r="K191" s="3">
+        <v>211</v>
+      </c>
+      <c r="L191" s="3">
+        <v>0</v>
+      </c>
+      <c r="M191" t="s">
+        <v>15</v>
+      </c>
+      <c r="N191" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5979,24 +9265,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_TG.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TG.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,6 @@
   </si>
   <si>
     <t>RA</t>
-  </si>
-  <si>
-    <t>Good Session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game 1 </t>
-  </si>
-  <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game 3 </t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game 5 </t>
-  </si>
-  <si>
-    <t>Game 6</t>
   </si>
   <si>
     <t>JC</t>
@@ -613,6 +589,30 @@
   </si>
   <si>
     <t>Arived 10 min late, didn’t see other participant get his hands scanned. Subject was surprised when 5 minutes of easay writing was up, saying he was only able to write an introduction/ He seemed to really believe the other person inslted him, though he did suspect the study of being on about video game violence during the post-questionaire.</t>
+  </si>
+  <si>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>Good.Session</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -747,6 +747,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -794,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,7 +832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,9 +1043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,28 +1075,28 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1104,7 +1107,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>191</v>
@@ -1134,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1148,7 +1151,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>192</v>
@@ -1178,10 +1181,10 @@
         <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1192,7 +1195,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>193</v>
@@ -1222,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1236,7 +1239,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>194</v>
@@ -1266,10 +1269,10 @@
         <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1280,7 +1283,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>195</v>
@@ -1310,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1324,7 +1327,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>196</v>
@@ -1354,10 +1357,10 @@
         <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1371,7 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>197</v>
@@ -1398,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1412,7 +1415,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>198</v>
@@ -1442,10 +1445,10 @@
         <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -1456,7 +1459,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>199</v>
@@ -1486,10 +1489,10 @@
         <v>62</v>
       </c>
       <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1500,7 +1503,7 @@
         <v>0.625</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -1530,10 +1533,10 @@
         <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1541,10 +1544,10 @@
         <v>41702</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>201</v>
@@ -1574,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1585,7 +1588,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>202</v>
@@ -1615,10 +1618,10 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1629,7 +1632,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>203</v>
@@ -1659,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1673,7 +1676,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>204</v>
@@ -1703,10 +1706,10 @@
         <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1717,7 +1720,7 @@
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>205</v>
@@ -1747,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1761,7 +1764,7 @@
         <v>0.625</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>206</v>
@@ -1791,10 +1794,10 @@
         <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1805,7 +1808,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>207</v>
@@ -1835,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1849,7 +1852,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>209</v>
@@ -1879,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1893,7 +1896,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>210</v>
@@ -1923,10 +1926,10 @@
         <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1937,7 +1940,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>211</v>
@@ -1967,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1981,7 +1984,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>212</v>
@@ -2011,10 +2014,10 @@
         <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2025,7 +2028,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>213</v>
@@ -2055,10 +2058,10 @@
         <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2069,7 +2072,7 @@
         <v>0.625</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>214</v>
@@ -2099,7 +2102,7 @@
         <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2110,7 +2113,7 @@
         <v>0.625</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>215</v>
@@ -2140,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2152,7 +2155,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>216</v>
@@ -2164,10 +2167,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2178,7 +2181,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>217</v>
@@ -2208,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2222,7 +2225,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>218</v>
@@ -2252,7 +2255,7 @@
         <v>93</v>
       </c>
       <c r="M28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2263,7 +2266,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>219</v>
@@ -2293,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2307,7 +2310,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>220</v>
@@ -2337,10 +2340,10 @@
         <v>104</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2351,7 +2354,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>221</v>
@@ -2379,10 +2382,10 @@
       </c>
       <c r="L31" s="6"/>
       <c r="M31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2393,7 +2396,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>222</v>
@@ -2423,7 +2426,7 @@
         <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2434,7 +2437,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>223</v>
@@ -2464,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2476,7 +2479,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>224</v>
@@ -2514,7 +2517,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>225</v>
@@ -2544,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2558,7 +2561,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>226</v>
@@ -2588,10 +2591,10 @@
         <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2602,7 +2605,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>227</v>
@@ -2632,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2646,7 +2649,7 @@
         <v>0.625</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>228</v>
@@ -2676,10 +2679,10 @@
         <v>77</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2690,7 +2693,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>229</v>
@@ -2720,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2734,7 +2737,7 @@
         <v>0.5</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>230</v>
@@ -2764,10 +2767,10 @@
         <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2778,7 +2781,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>231</v>
@@ -2808,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2822,7 +2825,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>232</v>
@@ -2852,10 +2855,10 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2866,7 +2869,7 @@
         <v>0.625</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>233</v>
@@ -2896,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2910,7 +2913,7 @@
         <v>0.625</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D44">
         <v>234</v>
@@ -2940,7 +2943,7 @@
         <v>67</v>
       </c>
       <c r="M44" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2951,7 +2954,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D45">
         <v>235</v>
@@ -2981,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2992,7 +2995,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>236</v>
@@ -3022,7 +3025,7 @@
         <v>107</v>
       </c>
       <c r="M46" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3033,7 +3036,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>237</v>
@@ -3063,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N47" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3077,7 +3080,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>238</v>
@@ -3107,10 +3110,10 @@
         <v>71</v>
       </c>
       <c r="M48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3121,7 +3124,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>239</v>
@@ -3151,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3165,7 +3168,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>240</v>
@@ -3195,10 +3198,10 @@
         <v>67</v>
       </c>
       <c r="M50" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N50" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3209,7 +3212,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <v>241</v>
@@ -3239,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3253,7 +3256,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>242</v>
@@ -3283,10 +3286,10 @@
         <v>52</v>
       </c>
       <c r="M52" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3297,7 +3300,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>243</v>
@@ -3327,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3341,7 +3344,7 @@
         <v>0.625</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>244</v>
@@ -3371,7 +3374,7 @@
         <v>199</v>
       </c>
       <c r="M54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3382,7 +3385,7 @@
         <v>0.625</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>245</v>
@@ -3412,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3423,7 +3426,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>246</v>
@@ -3453,10 +3456,10 @@
         <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N56" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3467,7 +3470,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>247</v>
@@ -3497,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N57" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3511,7 +3514,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>248</v>
@@ -3541,10 +3544,10 @@
         <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N58" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3555,7 +3558,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>249</v>
@@ -3585,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3599,7 +3602,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -3629,10 +3632,10 @@
         <v>127</v>
       </c>
       <c r="M60" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N60" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3643,7 +3646,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>251</v>
@@ -3673,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3687,7 +3690,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D62">
         <v>252</v>
@@ -3717,7 +3720,7 @@
         <v>87</v>
       </c>
       <c r="M62" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3728,7 +3731,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>253</v>
@@ -3758,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3772,7 +3775,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>254</v>
@@ -3802,10 +3805,10 @@
         <v>58</v>
       </c>
       <c r="M64" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N64" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3816,7 +3819,7 @@
         <v>0.5</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D65">
         <v>255</v>
@@ -3846,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3860,7 +3863,7 @@
         <v>0.625</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D66">
         <v>256</v>
@@ -3890,10 +3893,10 @@
         <v>35</v>
       </c>
       <c r="M66" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N66" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3904,7 +3907,7 @@
         <v>0.625</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>257</v>
@@ -3934,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3948,7 +3951,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>258</v>
@@ -3978,10 +3981,10 @@
         <v>110</v>
       </c>
       <c r="M68" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3992,7 +3995,7 @@
         <v>0.625</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D69" s="3">
         <v>259</v>
@@ -4022,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4036,7 +4039,7 @@
         <v>0.625</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3">
         <v>260</v>
@@ -4066,10 +4069,10 @@
         <v>88</v>
       </c>
       <c r="M70" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4080,7 +4083,7 @@
         <v>0.625</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D71" s="3">
         <v>261</v>
@@ -4110,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4124,7 +4127,7 @@
         <v>0.625</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D72" s="3">
         <v>262</v>
@@ -4154,10 +4157,10 @@
         <v>124</v>
       </c>
       <c r="M72" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4168,7 +4171,7 @@
         <v>0.625</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D73" s="3">
         <v>263</v>
@@ -4198,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4212,7 +4215,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D74" s="3">
         <v>264</v>
@@ -4242,10 +4245,10 @@
         <v>96</v>
       </c>
       <c r="M74" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4256,7 +4259,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D75" s="3">
         <v>265</v>
@@ -4286,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4300,7 +4303,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D76" s="3">
         <v>266</v>
@@ -4330,10 +4333,10 @@
         <v>79</v>
       </c>
       <c r="M76" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4344,7 +4347,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D77" s="3">
         <v>267</v>
@@ -4374,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4388,7 +4391,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D78" s="3">
         <v>268</v>
@@ -4418,10 +4421,10 @@
         <v>118</v>
       </c>
       <c r="M78" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4432,7 +4435,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D79" s="3">
         <v>269</v>
@@ -4462,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4473,7 +4476,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D80" s="3">
         <v>270</v>
@@ -4503,10 +4506,10 @@
         <v>107</v>
       </c>
       <c r="M80" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4517,7 +4520,7 @@
         <v>0.5</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D81" s="3">
         <v>271</v>
@@ -4547,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4561,7 +4564,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D82" s="3">
         <v>272</v>
@@ -4591,10 +4594,10 @@
         <v>76</v>
       </c>
       <c r="M82" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4605,7 +4608,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="3">
         <v>273</v>
@@ -4635,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4649,7 +4652,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3">
         <v>274</v>
@@ -4679,10 +4682,10 @@
         <v>61</v>
       </c>
       <c r="M84" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4693,7 +4696,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3">
         <v>275</v>
@@ -4723,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -4737,7 +4740,7 @@
         <v>0.625</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D86" s="3">
         <v>276</v>
@@ -4767,10 +4770,10 @@
         <v>65</v>
       </c>
       <c r="M86" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4781,7 +4784,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="3">
         <v>277</v>
@@ -4811,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -4825,7 +4828,7 @@
         <v>0.625</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D88" s="3">
         <v>278</v>
@@ -4855,10 +4858,10 @@
         <v>73</v>
       </c>
       <c r="M88" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4869,7 +4872,7 @@
         <v>0.625</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D89" s="3">
         <v>279</v>
@@ -4899,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N89" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -4913,7 +4916,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D90" s="3">
         <v>280</v>
@@ -4925,10 +4928,10 @@
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -4939,7 +4942,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D91" s="3">
         <v>281</v>
@@ -4969,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -4983,7 +4986,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D92" s="3">
         <v>282</v>
@@ -5013,7 +5016,7 @@
         <v>58</v>
       </c>
       <c r="M92" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5024,7 +5027,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D93" s="3">
         <v>283</v>
@@ -5054,10 +5057,10 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5068,7 +5071,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D94" s="3">
         <v>284</v>
@@ -5098,10 +5101,10 @@
         <v>36</v>
       </c>
       <c r="M94" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5112,7 +5115,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D95" s="3">
         <v>285</v>
@@ -5142,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -5156,7 +5159,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D96" s="3">
         <v>286</v>
@@ -5186,10 +5189,10 @@
         <v>86</v>
       </c>
       <c r="M96" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5200,7 +5203,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D97" s="3">
         <v>287</v>
@@ -5230,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5244,7 +5247,7 @@
         <v>0.5</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D98" s="3">
         <v>288</v>
@@ -5275,7 +5278,7 @@
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5286,7 +5289,7 @@
         <v>0.5</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D99" s="3">
         <v>289</v>
@@ -5316,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5330,7 +5333,7 @@
         <v>0.625</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3">
         <v>290</v>
@@ -5360,10 +5363,10 @@
         <v>71</v>
       </c>
       <c r="M100" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5374,7 +5377,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D101" s="3">
         <v>291</v>
@@ -5404,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5418,7 +5421,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="3">
         <v>292</v>
@@ -5448,10 +5451,10 @@
         <v>90</v>
       </c>
       <c r="M102" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5462,7 +5465,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D103" s="3">
         <v>293</v>
@@ -5492,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5506,7 +5509,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="3">
         <v>294</v>
@@ -5536,10 +5539,10 @@
         <v>56</v>
       </c>
       <c r="M104" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5550,7 +5553,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D105" s="3">
         <v>295</v>
@@ -5580,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -5594,7 +5597,7 @@
         <v>0.625</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D106" s="3">
         <v>296</v>
@@ -5624,10 +5627,10 @@
         <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -5638,7 +5641,7 @@
         <v>0.625</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D107" s="3">
         <v>297</v>
@@ -5668,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -5682,7 +5685,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D108" s="3">
         <v>298</v>
@@ -5712,7 +5715,7 @@
         <v>80</v>
       </c>
       <c r="M108" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -5723,7 +5726,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D109" s="3">
         <v>299</v>
@@ -5753,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5764,7 +5767,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D110" s="3">
         <v>300</v>
@@ -5794,10 +5797,10 @@
         <v>37</v>
       </c>
       <c r="M110" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5808,7 +5811,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D111" s="3">
         <v>301</v>
@@ -5838,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5852,7 +5855,7 @@
         <v>0.46111111111111108</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D112" s="3">
         <v>302</v>
@@ -5882,10 +5885,10 @@
         <v>62</v>
       </c>
       <c r="M112" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -5896,7 +5899,7 @@
         <v>0.5</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D113" s="3">
         <v>303</v>
@@ -5927,7 +5930,7 @@
       </c>
       <c r="M113" s="11"/>
       <c r="N113" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -5938,7 +5941,7 @@
         <v>0.5</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D114" s="3">
         <v>304</v>
@@ -5968,10 +5971,10 @@
         <v>80</v>
       </c>
       <c r="M114" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5982,7 +5985,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="3">
         <v>305</v>
@@ -6012,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6026,7 +6029,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D116" s="3">
         <v>306</v>
@@ -6056,10 +6059,10 @@
         <v>95</v>
       </c>
       <c r="M116" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6070,7 +6073,7 @@
         <v>0.625</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="3">
         <v>307</v>
@@ -6100,10 +6103,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6114,7 +6117,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D118" s="3">
         <v>308</v>
@@ -6144,10 +6147,10 @@
         <v>57</v>
       </c>
       <c r="M118" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6158,7 +6161,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C119" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D119" s="3">
         <v>309</v>
@@ -6188,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6199,7 +6202,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D120" s="3">
         <v>310</v>
@@ -6229,10 +6232,10 @@
         <v>45</v>
       </c>
       <c r="M120" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6243,7 +6246,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C121" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D121" s="3">
         <v>311</v>
@@ -6273,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6284,7 +6287,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C122" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D122" s="3">
         <v>312</v>
@@ -6314,10 +6317,10 @@
         <v>59</v>
       </c>
       <c r="M122" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6328,7 +6331,7 @@
         <v>0.62986111111111109</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D123" s="3">
         <v>313</v>
@@ -6358,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N123" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6372,7 +6375,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D124" s="3">
         <v>314</v>
@@ -6402,10 +6405,10 @@
         <v>109</v>
       </c>
       <c r="M124" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6416,7 +6419,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="3">
         <v>315</v>
@@ -6434,10 +6437,10 @@
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
       <c r="M125" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N125" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6448,7 +6451,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="3">
         <v>316</v>
@@ -6478,10 +6481,10 @@
         <v>138</v>
       </c>
       <c r="M126" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6492,7 +6495,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D127" s="3">
         <v>317</v>
@@ -6522,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N127" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6536,7 +6539,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D128" s="3">
         <v>318</v>
@@ -6554,10 +6557,10 @@
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
       <c r="M128" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6568,7 +6571,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D129" s="3">
         <v>319</v>
@@ -6598,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N129" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6612,7 +6615,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C130" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D130" s="3">
         <v>320</v>
@@ -6642,7 +6645,7 @@
         <v>167</v>
       </c>
       <c r="M130" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6653,7 +6656,7 @@
         <v>0.625</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D131" s="3">
         <v>321</v>
@@ -6683,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N131" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6697,7 +6700,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D132" s="3">
         <v>322</v>
@@ -6727,10 +6730,10 @@
         <v>48</v>
       </c>
       <c r="M132" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N132" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6741,7 +6744,7 @@
         <v>0.75</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D133" s="3">
         <v>323</v>
@@ -6771,10 +6774,10 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N133" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6785,7 +6788,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D134" s="3">
         <v>324</v>
@@ -6815,10 +6818,10 @@
         <v>48</v>
       </c>
       <c r="M134" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N134" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6829,7 +6832,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="3">
         <v>325</v>
@@ -6859,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N135" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -6873,7 +6876,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D136" s="3">
         <v>326</v>
@@ -6903,10 +6906,10 @@
         <v>92</v>
       </c>
       <c r="M136" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N136" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -6917,7 +6920,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="3">
         <v>327</v>
@@ -6947,21 +6950,21 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N137" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="C138" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D138" s="3">
         <v>328</v>
@@ -6991,10 +6994,10 @@
         <v>90</v>
       </c>
       <c r="M138" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N138" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -7005,7 +7008,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C139" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D139">
         <v>329</v>
@@ -7035,10 +7038,10 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N139" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -7049,7 +7052,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C140" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D140">
         <v>330</v>
@@ -7079,7 +7082,7 @@
         <v>53</v>
       </c>
       <c r="M140" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7090,7 +7093,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C141" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D141">
         <v>331</v>
@@ -7120,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -7131,7 +7134,7 @@
         <v>0.625</v>
       </c>
       <c r="C142" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D142">
         <v>332</v>
@@ -7162,7 +7165,7 @@
       </c>
       <c r="M142" s="11"/>
       <c r="N142" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -7173,7 +7176,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143">
         <v>333</v>
@@ -7203,10 +7206,10 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N143" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -7217,7 +7220,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C144" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D144">
         <v>334</v>
@@ -7247,10 +7250,10 @@
         <v>124</v>
       </c>
       <c r="M144" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N144" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -7261,7 +7264,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C145" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D145">
         <v>335</v>
@@ -7291,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N145" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -7305,7 +7308,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C146" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D146">
         <v>336</v>
@@ -7335,10 +7338,10 @@
         <v>73</v>
       </c>
       <c r="M146" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N146" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -7349,7 +7352,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C147" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D147">
         <v>337</v>
@@ -7379,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -7390,7 +7393,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C148" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D148">
         <v>338</v>
@@ -7420,10 +7423,10 @@
         <v>110</v>
       </c>
       <c r="M148" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N148" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -7434,7 +7437,7 @@
         <v>0.625</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D149">
         <v>339</v>
@@ -7464,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -7475,7 +7478,7 @@
         <v>0.625</v>
       </c>
       <c r="C150" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D150">
         <v>340</v>
@@ -7505,7 +7508,7 @@
         <v>36</v>
       </c>
       <c r="M150" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -7516,7 +7519,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151">
         <v>341</v>
@@ -7546,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -7557,7 +7560,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C152" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D152">
         <v>342</v>
@@ -7587,10 +7590,10 @@
         <v>63</v>
       </c>
       <c r="M152" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N152" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -7601,7 +7604,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153">
         <v>343</v>
@@ -7631,10 +7634,10 @@
         <v>0</v>
       </c>
       <c r="M153" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N153" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -7645,7 +7648,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C154" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D154">
         <v>344</v>
@@ -7675,7 +7678,7 @@
         <v>105</v>
       </c>
       <c r="M154" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -7686,7 +7689,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C155" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D155">
         <v>345</v>
@@ -7716,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -7727,7 +7730,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C156" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D156">
         <v>346</v>
@@ -7758,7 +7761,7 @@
       </c>
       <c r="M156" s="11"/>
       <c r="N156" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -7769,7 +7772,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C157" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D157">
         <v>347</v>
@@ -7808,7 +7811,7 @@
         <v>0.625</v>
       </c>
       <c r="C158" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D158">
         <v>348</v>
@@ -7838,10 +7841,10 @@
         <v>84</v>
       </c>
       <c r="M158" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N158" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -7852,7 +7855,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D159">
         <v>349</v>
@@ -7883,7 +7886,7 @@
       </c>
       <c r="M159" s="11"/>
       <c r="N159" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -7894,7 +7897,7 @@
         <v>0.625</v>
       </c>
       <c r="C160" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D160">
         <v>350</v>
@@ -7924,10 +7927,10 @@
         <v>88</v>
       </c>
       <c r="M160" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N160" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -7938,7 +7941,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161">
         <v>351</v>
@@ -7968,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -7979,7 +7982,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C162" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D162">
         <v>352</v>
@@ -8009,10 +8012,10 @@
         <v>70</v>
       </c>
       <c r="M162" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N162" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -8023,7 +8026,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163">
         <v>353</v>
@@ -8053,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -8064,7 +8067,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C164" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D164">
         <v>354</v>
@@ -8094,7 +8097,7 @@
         <v>88</v>
       </c>
       <c r="M164" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -8105,7 +8108,7 @@
         <v>0.625</v>
       </c>
       <c r="C165" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D165">
         <v>355</v>
@@ -8135,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="M165" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -8146,7 +8149,7 @@
         <v>0.625</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D166">
         <v>356</v>
@@ -8176,10 +8179,10 @@
         <v>112</v>
       </c>
       <c r="M166" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N166" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -8190,7 +8193,7 @@
         <v>0.625</v>
       </c>
       <c r="C167" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D167">
         <v>357</v>
@@ -8220,10 +8223,10 @@
         <v>0</v>
       </c>
       <c r="M167" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N167" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -8234,7 +8237,7 @@
         <v>0.625</v>
       </c>
       <c r="C168" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D168">
         <v>358</v>
@@ -8265,7 +8268,7 @@
       </c>
       <c r="M168" s="11"/>
       <c r="N168" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -8276,7 +8279,7 @@
         <v>0.625</v>
       </c>
       <c r="C169" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D169">
         <v>359</v>
@@ -8306,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="M169" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N169" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -8320,7 +8323,7 @@
         <v>0.625</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D170">
         <v>360</v>
@@ -8350,21 +8353,21 @@
         <v>107</v>
       </c>
       <c r="M170" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N170" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B171" s="2">
         <v>0.625</v>
       </c>
       <c r="C171" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D171">
         <v>361</v>
@@ -8394,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -8405,7 +8408,7 @@
         <v>0.625</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D172">
         <v>362</v>
@@ -8435,10 +8438,10 @@
         <v>70</v>
       </c>
       <c r="M172" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N172" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -8449,7 +8452,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D173">
         <v>363</v>
@@ -8479,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="M173" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N173" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -8493,7 +8496,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C174" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D174">
         <v>364</v>
@@ -8523,10 +8526,10 @@
         <v>65</v>
       </c>
       <c r="M174" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N174" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -8537,7 +8540,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>365</v>
@@ -8567,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="M175" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -8578,7 +8581,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C176" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D176">
         <v>366</v>
@@ -8608,10 +8611,10 @@
         <v>60</v>
       </c>
       <c r="M176" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N176" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -8622,7 +8625,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C177" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D177">
         <v>367</v>
@@ -8652,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="M177" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N177" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -8666,7 +8669,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C178" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D178">
         <v>368</v>
@@ -8696,7 +8699,7 @@
         <v>110</v>
       </c>
       <c r="M178" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -8707,7 +8710,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C179" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D179">
         <v>369</v>
@@ -8738,7 +8741,7 @@
       </c>
       <c r="M179" s="11"/>
       <c r="N179" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -8749,7 +8752,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C180" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D180">
         <v>370</v>
@@ -8780,7 +8783,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -8791,7 +8794,7 @@
         <v>0.625</v>
       </c>
       <c r="C181" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D181">
         <v>371</v>
@@ -8821,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="M181" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -8832,7 +8835,7 @@
         <v>0.625</v>
       </c>
       <c r="C182" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D182">
         <v>372</v>
@@ -8862,10 +8865,10 @@
         <v>28</v>
       </c>
       <c r="M182" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N182" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -8876,7 +8879,7 @@
         <v>0.625</v>
       </c>
       <c r="C183" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D183">
         <v>373</v>
@@ -8906,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="M183" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N183" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -8920,7 +8923,7 @@
         <v>0.625</v>
       </c>
       <c r="C184" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D184">
         <v>374</v>
@@ -8950,7 +8953,7 @@
         <v>99</v>
       </c>
       <c r="M184" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -8961,7 +8964,7 @@
         <v>0.625</v>
       </c>
       <c r="C185" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D185">
         <v>375</v>
@@ -8991,10 +8994,10 @@
         <v>0</v>
       </c>
       <c r="M185" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N185" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -9005,7 +9008,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186">
         <v>376</v>
@@ -9035,7 +9038,7 @@
         <v>54</v>
       </c>
       <c r="M186" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -9046,7 +9049,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D187">
         <v>377</v>
@@ -9076,10 +9079,10 @@
         <v>0</v>
       </c>
       <c r="M187" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N187" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -9090,7 +9093,7 @@
         <v>0.625</v>
       </c>
       <c r="C188" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D188">
         <v>378</v>
@@ -9120,10 +9123,10 @@
         <v>238</v>
       </c>
       <c r="M188" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N188" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -9134,7 +9137,7 @@
         <v>0.625</v>
       </c>
       <c r="C189" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D189">
         <v>379</v>
@@ -9164,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="M189" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N189" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -9178,7 +9181,7 @@
         <v>0.625</v>
       </c>
       <c r="C190" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D190">
         <v>380</v>
@@ -9208,10 +9211,10 @@
         <v>77</v>
       </c>
       <c r="M190" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N190" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -9222,7 +9225,7 @@
         <v>0.625</v>
       </c>
       <c r="C191" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D191">
         <v>381</v>
@@ -9252,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="M191" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N191" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Note_sheet_TG.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TG.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$191</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -39,22 +42,10 @@
     <t>Good Session</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game 1 </t>
-  </si>
-  <si>
     <t>Game 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Game 3 </t>
-  </si>
-  <si>
     <t>Game 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game 5 </t>
   </si>
   <si>
     <t>Game 6</t>
@@ -613,6 +604,18 @@
   </si>
   <si>
     <t>Arived 10 min late, didn’t see other participant get his hands scanned. Subject was surprised when 5 minutes of easay writing was up, saying he was only able to write an introduction/ He seemed to really believe the other person inslted him, though he did suspect the study of being on about video game violence during the post-questionaire.</t>
+  </si>
+  <si>
+    <t>Notes_t</t>
+  </si>
+  <si>
+    <t>Game 1</t>
+  </si>
+  <si>
+    <t>Game 3</t>
+  </si>
+  <si>
+    <t>Game 5</t>
   </si>
 </sst>
 </file>
@@ -714,9 +717,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -730,7 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1041,8 +1042,8 @@
   <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,39 +1073,39 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="10">
         <v>41695</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>191</v>
@@ -1134,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="10">
         <v>41695</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>192</v>
@@ -1178,21 +1179,21 @@
         <v>73</v>
       </c>
       <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>41695</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>41695</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>193</v>
@@ -1222,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>41695</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.80208333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>194</v>
@@ -1266,21 +1267,21 @@
         <v>107</v>
       </c>
       <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>41695</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>41695</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6">
         <v>195</v>
@@ -1310,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="10">
         <v>41696</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>196</v>
@@ -1354,21 +1355,21 @@
         <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="10">
         <v>41701</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.50347222222222221</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>197</v>
@@ -1398,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="10">
         <v>41701</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.54513888888888895</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>198</v>
@@ -1442,21 +1443,21 @@
         <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="10">
         <v>41701</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.54513888888888895</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>199</v>
@@ -1464,7 +1465,7 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10">
@@ -1486,21 +1487,21 @@
         <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="10">
         <v>41702</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.625</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -1530,21 +1531,21 @@
         <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="10">
         <v>41702</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>201</v>
@@ -1574,18 +1575,18 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="10">
         <v>41702</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>202</v>
@@ -1615,21 +1616,21 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="10">
         <v>41702</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>203</v>
@@ -1659,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="10">
         <v>41703</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>204</v>
@@ -1703,21 +1704,21 @@
         <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="10">
         <v>41709</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>205</v>
@@ -1747,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="10">
         <v>41709</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.625</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>206</v>
@@ -1791,21 +1792,21 @@
         <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="10">
         <v>41709</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>207</v>
@@ -1835,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="10">
         <v>41709</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>209</v>
@@ -1879,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="10">
         <v>41709</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>210</v>
@@ -1923,21 +1924,21 @@
         <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="10">
         <v>41710</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>211</v>
@@ -1967,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="10">
         <v>41710</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>212</v>
@@ -2011,21 +2012,21 @@
         <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="10">
         <v>41715</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.54861111111111105</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>213</v>
@@ -2055,21 +2056,21 @@
         <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="10">
         <v>41716</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.625</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>214</v>
@@ -2099,18 +2100,18 @@
         <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="10">
         <v>41716</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.625</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>215</v>
@@ -2140,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="10">
         <v>41716</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>216</v>
@@ -2164,21 +2165,21 @@
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="10">
         <v>41716</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>217</v>
@@ -2208,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="10">
         <v>41716</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.76041666666666663</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>218</v>
@@ -2239,7 +2240,7 @@
       <c r="H28">
         <v>460</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>15</v>
       </c>
       <c r="J28">
@@ -2252,18 +2253,18 @@
         <v>93</v>
       </c>
       <c r="M28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>41716</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C29" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>41716</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
       </c>
       <c r="D29">
         <v>219</v>
@@ -2293,21 +2294,21 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="10">
         <v>41716</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>220</v>
@@ -2337,21 +2338,21 @@
         <v>104</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="10">
         <v>41716</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>221</v>
@@ -2377,23 +2378,23 @@
       <c r="K31">
         <v>200</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="5"/>
       <c r="M31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="10">
         <v>41717</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>222</v>
@@ -2423,18 +2424,18 @@
         <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="10">
         <v>41717</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>223</v>
@@ -2464,19 +2465,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>15</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="10">
         <v>41717</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>224</v>
@@ -2507,14 +2508,14 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="10">
         <v>41717</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>225</v>
@@ -2544,21 +2545,21 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="10">
         <v>41729</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>0.625</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>226</v>
@@ -2588,21 +2589,21 @@
         <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="10">
         <v>41730</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>0.70833333333333337</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>227</v>
@@ -2632,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="10">
         <v>41730</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>0.625</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>228</v>
@@ -2676,21 +2677,21 @@
         <v>77</v>
       </c>
       <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>41736</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="C39" t="s">
         <v>23</v>
-      </c>
-      <c r="N38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>41736</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
       </c>
       <c r="D39">
         <v>229</v>
@@ -2720,21 +2721,21 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>41736</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>0.5</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>230</v>
@@ -2764,21 +2765,21 @@
         <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>15</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="10">
         <v>41736</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>0.54861111111111105</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D41">
         <v>231</v>
@@ -2808,21 +2809,21 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>15</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="8">
         <v>41736</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>0.54861111111111105</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>232</v>
@@ -2852,21 +2853,21 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>15</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="10">
         <v>41737</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>0.625</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>233</v>
@@ -2896,21 +2897,21 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="10">
         <v>41737</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>0.625</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>234</v>
@@ -2940,18 +2941,18 @@
         <v>67</v>
       </c>
       <c r="M44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="10">
         <v>41737</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>235</v>
@@ -2981,18 +2982,18 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="10">
         <v>41737</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>236</v>
@@ -3022,18 +3023,18 @@
         <v>107</v>
       </c>
       <c r="M46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>41737</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C47" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>41737</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
       </c>
       <c r="D47">
         <v>237</v>
@@ -3063,21 +3064,21 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="10">
         <v>41737</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>0.76041666666666663</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>238</v>
@@ -3107,21 +3108,21 @@
         <v>71</v>
       </c>
       <c r="M48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="10">
         <v>41737</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>239</v>
@@ -3151,21 +3152,21 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="10">
         <v>41737</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>240</v>
@@ -3195,21 +3196,21 @@
         <v>67</v>
       </c>
       <c r="M50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="10">
         <v>41738</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>241</v>
@@ -3239,21 +3240,21 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="10">
         <v>41738</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>242</v>
@@ -3283,21 +3284,21 @@
         <v>52</v>
       </c>
       <c r="M52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="10">
         <v>41743</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>0.62916666666666665</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>243</v>
@@ -3327,21 +3328,21 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="10">
         <v>41743</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>0.625</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <v>244</v>
@@ -3371,18 +3372,18 @@
         <v>199</v>
       </c>
       <c r="M54" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="10">
         <v>41744</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>0.625</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D55">
         <v>245</v>
@@ -3412,18 +3413,18 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="10">
         <v>41744</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D56">
         <v>246</v>
@@ -3453,21 +3454,21 @@
         <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="10">
         <v>41744</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>247</v>
@@ -3497,21 +3498,21 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
+        <v>11</v>
+      </c>
+      <c r="N57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>41744</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C58" t="s">
         <v>15</v>
-      </c>
-      <c r="N57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>41744</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
       </c>
       <c r="D58">
         <v>248</v>
@@ -3541,21 +3542,21 @@
         <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="10">
         <v>41744</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D59">
         <v>249</v>
@@ -3585,21 +3586,21 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>41744</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C60" t="s">
         <v>15</v>
-      </c>
-      <c r="N59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>41744</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -3629,21 +3630,21 @@
         <v>127</v>
       </c>
       <c r="M60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="10">
         <v>41745</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>251</v>
@@ -3673,21 +3674,21 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="10">
         <v>41745</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D62">
         <v>252</v>
@@ -3717,18 +3718,18 @@
         <v>87</v>
       </c>
       <c r="M62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="10">
         <v>41745</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>253</v>
@@ -3758,21 +3759,21 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>23</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="10">
         <v>41745</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <v>254</v>
@@ -3802,21 +3803,21 @@
         <v>58</v>
       </c>
       <c r="M64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65" s="10">
         <v>41745</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>0.5</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D65">
         <v>255</v>
@@ -3846,21 +3847,21 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>15</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>77</v>
+        <v>11</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="10">
         <v>41745</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>0.625</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <v>256</v>
@@ -3890,21 +3891,21 @@
         <v>35</v>
       </c>
       <c r="M66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N66" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67" s="10">
         <v>41745</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>0.625</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>257</v>
@@ -3934,21 +3935,21 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>15</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68" s="10">
         <v>41750</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>258</v>
@@ -3978,23 +3979,23 @@
         <v>110</v>
       </c>
       <c r="M68" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69" s="10">
         <v>41750</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>0.625</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="3">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2">
         <v>259</v>
       </c>
       <c r="E69">
@@ -4022,23 +4023,23 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>15</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70" s="10">
         <v>41750</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>0.625</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="3">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
         <v>260</v>
       </c>
       <c r="E70">
@@ -4066,23 +4067,23 @@
         <v>88</v>
       </c>
       <c r="M70" t="s">
-        <v>15</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>83</v>
+        <v>11</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71" s="10">
         <v>41750</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>0.625</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="3">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2">
         <v>261</v>
       </c>
       <c r="E71">
@@ -4110,23 +4111,23 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>84</v>
+        <v>11</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72" s="10">
         <v>41751</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>0.625</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="3">
+        <v>30</v>
+      </c>
+      <c r="D72" s="2">
         <v>262</v>
       </c>
       <c r="E72">
@@ -4154,23 +4155,23 @@
         <v>124</v>
       </c>
       <c r="M72" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73" s="10">
         <v>41751</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>0.625</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="3">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2">
         <v>263</v>
       </c>
       <c r="E73">
@@ -4198,23 +4199,23 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>23</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74" s="10">
         <v>41751</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="3">
+        <v>30</v>
+      </c>
+      <c r="D74" s="2">
         <v>264</v>
       </c>
       <c r="E74">
@@ -4242,23 +4243,23 @@
         <v>96</v>
       </c>
       <c r="M74" t="s">
-        <v>23</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75" s="10">
         <v>41751</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="3">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
         <v>265</v>
       </c>
       <c r="E75">
@@ -4286,23 +4287,23 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>23</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76" s="10">
         <v>41751</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>0.76041666666666663</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="3">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2">
         <v>266</v>
       </c>
       <c r="E76">
@@ -4330,23 +4331,23 @@
         <v>79</v>
       </c>
       <c r="M76" t="s">
-        <v>15</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>89</v>
+        <v>11</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="A77" s="10">
         <v>41751</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="3">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2">
         <v>267</v>
       </c>
       <c r="E77">
@@ -4374,23 +4375,23 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>90</v>
+        <v>21</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78" s="10">
         <v>41751</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="3">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2">
         <v>268</v>
       </c>
       <c r="E78">
@@ -4418,23 +4419,23 @@
         <v>118</v>
       </c>
       <c r="M78" t="s">
-        <v>15</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79" s="10">
         <v>41752</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>0.4201388888888889</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="3">
+        <v>30</v>
+      </c>
+      <c r="D79" s="2">
         <v>269</v>
       </c>
       <c r="E79">
@@ -4462,20 +4463,20 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="A80" s="10">
         <v>41752</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>0.46180555555555558</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" s="3">
+        <v>30</v>
+      </c>
+      <c r="D80" s="2">
         <v>270</v>
       </c>
       <c r="E80">
@@ -4503,23 +4504,23 @@
         <v>107</v>
       </c>
       <c r="M80" t="s">
-        <v>25</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>91</v>
+        <v>21</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="A81" s="10">
         <v>41752</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>0.5</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="3">
+        <v>88</v>
+      </c>
+      <c r="D81" s="2">
         <v>271</v>
       </c>
       <c r="E81">
@@ -4547,23 +4548,23 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>23</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82" s="10">
         <v>41752</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="3">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2">
         <v>272</v>
       </c>
       <c r="E82">
@@ -4591,23 +4592,23 @@
         <v>76</v>
       </c>
       <c r="M82" t="s">
-        <v>15</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>94</v>
+        <v>11</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="A83" s="10">
         <v>41752</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>0.59027777777777779</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="3">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2">
         <v>273</v>
       </c>
       <c r="E83">
@@ -4635,23 +4636,23 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>15</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="A84" s="10">
         <v>41752</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>0.59027777777777779</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="3">
+        <v>13</v>
+      </c>
+      <c r="D84" s="2">
         <v>274</v>
       </c>
       <c r="E84">
@@ -4679,23 +4680,23 @@
         <v>61</v>
       </c>
       <c r="M84" t="s">
-        <v>15</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>96</v>
+        <v>11</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="A85" s="10">
         <v>41752</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>0.59027777777777779</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="3">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2">
         <v>275</v>
       </c>
       <c r="E85">
@@ -4723,23 +4724,23 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>15</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>97</v>
+        <v>11</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="A86" s="10">
         <v>41757</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>0.625</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" s="3">
+        <v>63</v>
+      </c>
+      <c r="D86" s="2">
         <v>276</v>
       </c>
       <c r="E86">
@@ -4767,23 +4768,23 @@
         <v>65</v>
       </c>
       <c r="M86" t="s">
-        <v>15</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>98</v>
+        <v>11</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="A87" s="10">
         <v>41757</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>0.63194444444444442</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="3">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2">
         <v>277</v>
       </c>
       <c r="E87">
@@ -4811,23 +4812,23 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>15</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>99</v>
+        <v>11</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88" s="10">
         <v>41757</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>0.625</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="3">
+        <v>63</v>
+      </c>
+      <c r="D88" s="2">
         <v>278</v>
       </c>
       <c r="E88">
@@ -4855,23 +4856,23 @@
         <v>73</v>
       </c>
       <c r="M88" t="s">
-        <v>15</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89" s="10">
         <v>41758</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>0.625</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="3">
+        <v>30</v>
+      </c>
+      <c r="D89" s="2">
         <v>279</v>
       </c>
       <c r="E89">
@@ -4899,23 +4900,23 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N89" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90" s="10">
         <v>41758</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="3">
+        <v>30</v>
+      </c>
+      <c r="D90" s="2">
         <v>280</v>
       </c>
       <c r="E90">
@@ -4925,23 +4926,23 @@
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>102</v>
+        <v>21</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91" s="10">
         <v>41758</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="3">
+        <v>10</v>
+      </c>
+      <c r="D91" s="2">
         <v>281</v>
       </c>
       <c r="E91">
@@ -4969,23 +4970,23 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>15</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92" s="10">
         <v>41758</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>0.76041666666666663</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D92" s="3">
+        <v>67</v>
+      </c>
+      <c r="D92" s="2">
         <v>282</v>
       </c>
       <c r="E92">
@@ -5013,20 +5014,20 @@
         <v>58</v>
       </c>
       <c r="M92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>41758</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C93" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>41758</v>
-      </c>
-      <c r="B93" s="2">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>283</v>
       </c>
       <c r="E93">
@@ -5054,23 +5055,23 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
+        <v>11</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>41758</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C94" t="s">
         <v>15</v>
       </c>
-      <c r="N93" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>41758</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>284</v>
       </c>
       <c r="E94">
@@ -5098,23 +5099,23 @@
         <v>36</v>
       </c>
       <c r="M94" t="s">
-        <v>15</v>
-      </c>
-      <c r="N94" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95" s="10">
         <v>41758</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>0.80208333333333337</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="3">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2">
         <v>285</v>
       </c>
       <c r="E95">
@@ -5142,23 +5143,23 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>15</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>104</v>
+        <v>11</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96" s="10">
         <v>41759</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" s="3">
+        <v>30</v>
+      </c>
+      <c r="D96" s="2">
         <v>286</v>
       </c>
       <c r="E96">
@@ -5186,23 +5187,23 @@
         <v>86</v>
       </c>
       <c r="M96" t="s">
-        <v>15</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>106</v>
+        <v>11</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97" s="10">
         <v>41759</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="3">
+        <v>56</v>
+      </c>
+      <c r="D97" s="2">
         <v>287</v>
       </c>
       <c r="E97">
@@ -5230,23 +5231,23 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>25</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98" s="10">
         <v>41759</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>0.5</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="3">
+        <v>88</v>
+      </c>
+      <c r="D98" s="2">
         <v>288</v>
       </c>
       <c r="E98">
@@ -5273,22 +5274,22 @@
       <c r="L98">
         <v>131</v>
       </c>
-      <c r="M98" s="11"/>
-      <c r="N98" s="5" t="s">
-        <v>107</v>
+      <c r="M98" s="9"/>
+      <c r="N98" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99" s="10">
         <v>41759</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>0.5</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
-      </c>
-      <c r="D99" s="3">
+        <v>72</v>
+      </c>
+      <c r="D99" s="2">
         <v>289</v>
       </c>
       <c r="E99">
@@ -5316,23 +5317,23 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>25</v>
-      </c>
-      <c r="N99" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100" s="10">
         <v>41759</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>0.625</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="3">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2">
         <v>290</v>
       </c>
       <c r="E100">
@@ -5360,23 +5361,23 @@
         <v>71</v>
       </c>
       <c r="M100" t="s">
-        <v>15</v>
-      </c>
-      <c r="N100" s="5" t="s">
-        <v>109</v>
+        <v>11</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101" s="10">
         <v>41759</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101" s="3">
+        <v>63</v>
+      </c>
+      <c r="D101" s="2">
         <v>291</v>
       </c>
       <c r="E101">
@@ -5404,23 +5405,23 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>15</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102" s="10">
         <v>41764</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="3">
+        <v>13</v>
+      </c>
+      <c r="D102" s="2">
         <v>292</v>
       </c>
       <c r="E102">
@@ -5448,23 +5449,23 @@
         <v>90</v>
       </c>
       <c r="M102" t="s">
-        <v>15</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103" s="10">
         <v>41764</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="3">
+        <v>63</v>
+      </c>
+      <c r="D103" s="2">
         <v>293</v>
       </c>
       <c r="E103">
@@ -5492,23 +5493,23 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>15</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104" s="10">
         <v>41764</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>0.62847222222222221</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="3">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2">
         <v>294</v>
       </c>
       <c r="E104">
@@ -5536,23 +5537,23 @@
         <v>56</v>
       </c>
       <c r="M104" t="s">
-        <v>25</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>113</v>
+        <v>21</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="A105" s="10">
         <v>41764</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="3">
+        <v>63</v>
+      </c>
+      <c r="D105" s="2">
         <v>295</v>
       </c>
       <c r="E105">
@@ -5573,30 +5574,30 @@
       <c r="J105">
         <v>3061</v>
       </c>
-      <c r="K105" s="6">
+      <c r="K105" s="5">
         <v>28</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>15</v>
-      </c>
-      <c r="N105" s="5" t="s">
-        <v>114</v>
+        <v>11</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106" s="10">
         <v>41765</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>0.625</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="3">
+        <v>30</v>
+      </c>
+      <c r="D106" s="2">
         <v>296</v>
       </c>
       <c r="E106">
@@ -5624,23 +5625,23 @@
         <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>15</v>
-      </c>
-      <c r="N106" s="5" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="A107" s="10">
         <v>41765</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>0.625</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2">
         <v>297</v>
       </c>
       <c r="E107">
@@ -5668,23 +5669,23 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>25</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>116</v>
+        <v>21</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108" s="10">
         <v>41765</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
-      </c>
-      <c r="D108" s="3">
+        <v>30</v>
+      </c>
+      <c r="D108" s="2">
         <v>298</v>
       </c>
       <c r="E108">
@@ -5712,20 +5713,20 @@
         <v>80</v>
       </c>
       <c r="M108" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109" s="10">
         <v>41765</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>0.76041666666666663</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="3">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2">
         <v>299</v>
       </c>
       <c r="E109">
@@ -5753,20 +5754,20 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>41765</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C110" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>41765</v>
-      </c>
-      <c r="B110" s="2">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C110" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="3">
+      <c r="D110" s="2">
         <v>300</v>
       </c>
       <c r="E110">
@@ -5794,23 +5795,23 @@
         <v>37</v>
       </c>
       <c r="M110" t="s">
-        <v>15</v>
-      </c>
-      <c r="N110" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="10">
         <v>41766</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="3">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2">
         <v>301</v>
       </c>
       <c r="E111">
@@ -5838,23 +5839,23 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>25</v>
-      </c>
-      <c r="N111" s="5" t="s">
-        <v>117</v>
+        <v>21</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112" s="10">
         <v>41766</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>0.46111111111111108</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
-      </c>
-      <c r="D112" s="3">
+        <v>30</v>
+      </c>
+      <c r="D112" s="2">
         <v>302</v>
       </c>
       <c r="E112">
@@ -5882,23 +5883,23 @@
         <v>62</v>
       </c>
       <c r="M112" t="s">
-        <v>23</v>
-      </c>
-      <c r="N112" s="5" t="s">
-        <v>118</v>
+        <v>19</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113" s="10">
         <v>41766</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>0.5</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
-      </c>
-      <c r="D113" s="3">
+        <v>88</v>
+      </c>
+      <c r="D113" s="2">
         <v>303</v>
       </c>
       <c r="E113">
@@ -5925,22 +5926,22 @@
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" s="11"/>
-      <c r="N113" s="5" t="s">
-        <v>119</v>
+      <c r="M113" s="9"/>
+      <c r="N113" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="10">
         <v>41766</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>0.5</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
-      </c>
-      <c r="D114" s="3">
+        <v>72</v>
+      </c>
+      <c r="D114" s="2">
         <v>304</v>
       </c>
       <c r="E114">
@@ -5968,23 +5969,23 @@
         <v>80</v>
       </c>
       <c r="M114" t="s">
-        <v>15</v>
-      </c>
-      <c r="N114" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="10">
         <v>41766</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="3">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2">
         <v>305</v>
       </c>
       <c r="E115">
@@ -6012,23 +6013,23 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>15</v>
-      </c>
-      <c r="N115" s="5" t="s">
-        <v>121</v>
+        <v>11</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="10">
         <v>41766</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
-      </c>
-      <c r="D116" s="3">
+        <v>63</v>
+      </c>
+      <c r="D116" s="2">
         <v>306</v>
       </c>
       <c r="E116">
@@ -6056,23 +6057,23 @@
         <v>95</v>
       </c>
       <c r="M116" t="s">
-        <v>23</v>
-      </c>
-      <c r="N116" s="5" t="s">
-        <v>122</v>
+        <v>19</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117" s="10">
         <v>41766</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>0.625</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="3">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2">
         <v>307</v>
       </c>
       <c r="E117">
@@ -6100,23 +6101,23 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>15</v>
-      </c>
-      <c r="N117" s="5" t="s">
-        <v>123</v>
+        <v>11</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118" s="10">
         <v>41766</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118" s="3">
+        <v>63</v>
+      </c>
+      <c r="D118" s="2">
         <v>308</v>
       </c>
       <c r="E118">
@@ -6144,23 +6145,23 @@
         <v>57</v>
       </c>
       <c r="M118" t="s">
-        <v>23</v>
-      </c>
-      <c r="N118" s="5" t="s">
-        <v>124</v>
+        <v>19</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="12">
+      <c r="A119" s="10">
         <v>41926</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C119" t="s">
-        <v>125</v>
-      </c>
-      <c r="D119" s="3">
+        <v>121</v>
+      </c>
+      <c r="D119" s="2">
         <v>309</v>
       </c>
       <c r="E119">
@@ -6188,20 +6189,20 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="12">
+      <c r="A120" s="10">
         <v>41926</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" s="3">
+        <v>122</v>
+      </c>
+      <c r="D120" s="2">
         <v>310</v>
       </c>
       <c r="E120">
@@ -6229,23 +6230,23 @@
         <v>45</v>
       </c>
       <c r="M120" t="s">
-        <v>15</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>127</v>
+        <v>11</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="12">
+      <c r="A121" s="10">
         <v>41926</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C121" t="s">
-        <v>125</v>
-      </c>
-      <c r="D121" s="3">
+        <v>121</v>
+      </c>
+      <c r="D121" s="2">
         <v>311</v>
       </c>
       <c r="E121">
@@ -6273,20 +6274,20 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="12">
+      <c r="A122" s="10">
         <v>41926</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C122" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" s="3">
+        <v>122</v>
+      </c>
+      <c r="D122" s="2">
         <v>312</v>
       </c>
       <c r="E122">
@@ -6314,23 +6315,23 @@
         <v>59</v>
       </c>
       <c r="M122" t="s">
-        <v>15</v>
-      </c>
-      <c r="N122" s="5" t="s">
-        <v>128</v>
+        <v>11</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="12">
+      <c r="A123" s="10">
         <v>41926</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>0.62986111111111109</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
-      </c>
-      <c r="D123" s="3">
+        <v>121</v>
+      </c>
+      <c r="D123" s="2">
         <v>313</v>
       </c>
       <c r="E123">
@@ -6358,23 +6359,23 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N123" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="12">
+      <c r="A124" s="10">
         <v>41928</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124" s="11">
         <v>0.41666666666666669</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" s="3">
+        <v>72</v>
+      </c>
+      <c r="D124" s="2">
         <v>314</v>
       </c>
       <c r="E124">
@@ -6402,23 +6403,23 @@
         <v>109</v>
       </c>
       <c r="M124" t="s">
-        <v>15</v>
-      </c>
-      <c r="N124" s="5" t="s">
-        <v>130</v>
+        <v>11</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="12">
+      <c r="A125" s="10">
         <v>41928</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>0.46180555555555558</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="3">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2">
         <v>315</v>
       </c>
       <c r="E125">
@@ -6427,30 +6428,30 @@
       <c r="F125">
         <v>3</v>
       </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11" t="s">
-        <v>25</v>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="12">
+      <c r="A126" s="10">
         <v>41933</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>0.4236111111111111</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="3">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2">
         <v>316</v>
       </c>
       <c r="E126">
@@ -6478,23 +6479,23 @@
         <v>138</v>
       </c>
       <c r="M126" t="s">
-        <v>15</v>
-      </c>
-      <c r="N126" s="5" t="s">
-        <v>132</v>
+        <v>11</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="12">
+      <c r="A127" s="10">
         <v>41933</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="3">
+        <v>72</v>
+      </c>
+      <c r="D127" s="2">
         <v>317</v>
       </c>
       <c r="E127">
@@ -6522,23 +6523,23 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N127" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="12">
+      <c r="A128" s="10">
         <v>41933</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
-      </c>
-      <c r="D128" s="3">
+        <v>122</v>
+      </c>
+      <c r="D128" s="2">
         <v>318</v>
       </c>
       <c r="E128">
@@ -6547,30 +6548,30 @@
       <c r="F128">
         <v>2</v>
       </c>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>134</v>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="12">
+      <c r="A129" s="10">
         <v>41933</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
-      </c>
-      <c r="D129" s="3">
+        <v>121</v>
+      </c>
+      <c r="D129" s="2">
         <v>319</v>
       </c>
       <c r="E129">
@@ -6598,29 +6599,29 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N129" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="12">
+      <c r="A130" s="10">
         <v>41933</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C130" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" s="3">
+        <v>122</v>
+      </c>
+      <c r="D130" s="2">
         <v>320</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="2">
         <v>4</v>
       </c>
       <c r="G130">
@@ -6642,370 +6643,370 @@
         <v>167</v>
       </c>
       <c r="M130" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="12">
+      <c r="A131" s="10">
         <v>41933</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>0.625</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
-      </c>
-      <c r="D131" s="3">
+        <v>122</v>
+      </c>
+      <c r="D131" s="2">
         <v>321</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
-      <c r="F131" s="3">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>0</v>
-      </c>
-      <c r="H131" s="3">
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
         <v>379</v>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="2">
         <v>13</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131" s="2">
         <v>577</v>
       </c>
-      <c r="K131" s="3">
+      <c r="K131" s="2">
         <v>233</v>
       </c>
-      <c r="L131" s="3">
+      <c r="L131" s="2">
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>41935</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="2">
+        <v>322</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" s="2">
+        <v>2</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>305</v>
+      </c>
+      <c r="I132" s="2">
+        <v>10</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1123</v>
+      </c>
+      <c r="K132" s="2">
+        <v>80</v>
+      </c>
+      <c r="L132" s="2">
+        <v>48</v>
+      </c>
+      <c r="M132" t="s">
+        <v>11</v>
+      </c>
+      <c r="N132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>41935</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C133" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="2">
+        <v>323</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" s="2">
+        <v>3</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>422</v>
+      </c>
+      <c r="I133" s="2">
+        <v>14</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <v>393</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>19</v>
+      </c>
+      <c r="N133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>41940</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="2">
+        <v>324</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" s="2">
+        <v>4</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>227</v>
+      </c>
+      <c r="I134" s="2">
+        <v>4</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1075</v>
+      </c>
+      <c r="K134" s="2">
+        <v>83</v>
+      </c>
+      <c r="L134" s="2">
+        <v>48</v>
+      </c>
+      <c r="M134" t="s">
+        <v>11</v>
+      </c>
+      <c r="N134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>41940</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2">
+        <v>325</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>516</v>
+      </c>
+      <c r="I135" s="2">
+        <v>18</v>
+      </c>
+      <c r="J135" s="2">
+        <v>2364</v>
+      </c>
+      <c r="K135" s="2">
+        <v>99</v>
+      </c>
+      <c r="L135" s="2">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>11</v>
+      </c>
+      <c r="N135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="12">
-        <v>41935</v>
-      </c>
-      <c r="B132" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C132" t="s">
-        <v>34</v>
-      </c>
-      <c r="D132" s="3">
-        <v>322</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
-      </c>
-      <c r="F132" s="3">
-        <v>2</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3">
-        <v>305</v>
-      </c>
-      <c r="I132" s="3">
-        <v>10</v>
-      </c>
-      <c r="J132" s="3">
-        <v>1123</v>
-      </c>
-      <c r="K132" s="3">
-        <v>80</v>
-      </c>
-      <c r="L132" s="3">
-        <v>48</v>
-      </c>
-      <c r="M132" t="s">
-        <v>15</v>
-      </c>
-      <c r="N132" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>41940</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="2">
+        <v>326</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" s="2">
+        <v>2</v>
+      </c>
+      <c r="G136" s="2">
+        <v>2</v>
+      </c>
+      <c r="H136" s="2">
+        <v>418</v>
+      </c>
+      <c r="I136" s="2">
+        <v>11</v>
+      </c>
+      <c r="J136" s="2">
+        <v>1674</v>
+      </c>
+      <c r="K136" s="2">
+        <v>104</v>
+      </c>
+      <c r="L136" s="2">
+        <v>92</v>
+      </c>
+      <c r="M136" t="s">
+        <v>11</v>
+      </c>
+      <c r="N136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="12">
-        <v>41935</v>
-      </c>
-      <c r="B133" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
-      <c r="D133" s="3">
-        <v>323</v>
-      </c>
-      <c r="E133">
-        <v>4</v>
-      </c>
-      <c r="F133" s="3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>41940</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2">
+        <v>327</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" s="2">
         <v>3</v>
       </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="3">
-        <v>422</v>
-      </c>
-      <c r="I133" s="3">
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>78</v>
+      </c>
+      <c r="I137" s="2">
         <v>14</v>
       </c>
-      <c r="J133" s="3">
-        <v>0</v>
-      </c>
-      <c r="K133" s="3">
-        <v>393</v>
-      </c>
-      <c r="L133" s="3">
-        <v>0</v>
-      </c>
-      <c r="M133" t="s">
-        <v>23</v>
-      </c>
-      <c r="N133" t="s">
+      <c r="J137" s="2">
+        <v>211</v>
+      </c>
+      <c r="K137" s="2">
+        <v>21</v>
+      </c>
+      <c r="L137" s="2">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>11</v>
+      </c>
+      <c r="N137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="12">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C138" t="s">
+        <v>122</v>
+      </c>
+      <c r="D138" s="2">
+        <v>328</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>4</v>
+      </c>
+      <c r="G138" s="2">
+        <v>3</v>
+      </c>
+      <c r="H138" s="2">
+        <v>325</v>
+      </c>
+      <c r="I138" s="2">
+        <v>6</v>
+      </c>
+      <c r="J138" s="2">
+        <v>853</v>
+      </c>
+      <c r="K138" s="2">
+        <v>162</v>
+      </c>
+      <c r="L138" s="2">
+        <v>90</v>
+      </c>
+      <c r="M138" t="s">
+        <v>11</v>
+      </c>
+      <c r="N138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
         <v>41940</v>
       </c>
-      <c r="B134" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
-      <c r="D134" s="3">
-        <v>324</v>
-      </c>
-      <c r="E134">
-        <v>4</v>
-      </c>
-      <c r="F134" s="3">
-        <v>4</v>
-      </c>
-      <c r="G134" s="3">
-        <v>1</v>
-      </c>
-      <c r="H134" s="3">
-        <v>227</v>
-      </c>
-      <c r="I134" s="3">
-        <v>4</v>
-      </c>
-      <c r="J134" s="3">
-        <v>1075</v>
-      </c>
-      <c r="K134" s="3">
-        <v>83</v>
-      </c>
-      <c r="L134" s="3">
-        <v>48</v>
-      </c>
-      <c r="M134" t="s">
-        <v>15</v>
-      </c>
-      <c r="N134" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="12">
-        <v>41940</v>
-      </c>
-      <c r="B135" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C135" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="3">
-        <v>325</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
-      <c r="F135" s="3">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="3">
-        <v>516</v>
-      </c>
-      <c r="I135" s="3">
-        <v>18</v>
-      </c>
-      <c r="J135" s="3">
-        <v>2364</v>
-      </c>
-      <c r="K135" s="3">
-        <v>99</v>
-      </c>
-      <c r="L135" s="3">
-        <v>0</v>
-      </c>
-      <c r="M135" t="s">
-        <v>15</v>
-      </c>
-      <c r="N135" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="12">
-        <v>41940</v>
-      </c>
-      <c r="B136" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C136" t="s">
-        <v>34</v>
-      </c>
-      <c r="D136" s="3">
-        <v>326</v>
-      </c>
-      <c r="E136">
-        <v>4</v>
-      </c>
-      <c r="F136" s="3">
-        <v>2</v>
-      </c>
-      <c r="G136" s="3">
-        <v>2</v>
-      </c>
-      <c r="H136" s="3">
-        <v>418</v>
-      </c>
-      <c r="I136" s="3">
-        <v>11</v>
-      </c>
-      <c r="J136" s="3">
-        <v>1674</v>
-      </c>
-      <c r="K136" s="3">
-        <v>104</v>
-      </c>
-      <c r="L136" s="3">
-        <v>92</v>
-      </c>
-      <c r="M136" t="s">
-        <v>15</v>
-      </c>
-      <c r="N136" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="12">
-        <v>41940</v>
-      </c>
-      <c r="B137" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C137" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="3">
-        <v>327</v>
-      </c>
-      <c r="E137">
-        <v>2</v>
-      </c>
-      <c r="F137" s="3">
-        <v>3</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="3">
-        <v>78</v>
-      </c>
-      <c r="I137" s="3">
-        <v>14</v>
-      </c>
-      <c r="J137" s="3">
-        <v>211</v>
-      </c>
-      <c r="K137" s="3">
-        <v>21</v>
-      </c>
-      <c r="L137" s="3">
-        <v>0</v>
-      </c>
-      <c r="M137" t="s">
-        <v>15</v>
-      </c>
-      <c r="N137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B138" s="2">
+      <c r="B139" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C138" t="s">
-        <v>126</v>
-      </c>
-      <c r="D138" s="3">
-        <v>328</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" s="3">
-        <v>4</v>
-      </c>
-      <c r="G138" s="3">
-        <v>3</v>
-      </c>
-      <c r="H138" s="3">
-        <v>325</v>
-      </c>
-      <c r="I138" s="3">
-        <v>6</v>
-      </c>
-      <c r="J138" s="3">
-        <v>853</v>
-      </c>
-      <c r="K138" s="3">
-        <v>162</v>
-      </c>
-      <c r="L138" s="3">
-        <v>90</v>
-      </c>
-      <c r="M138" t="s">
-        <v>15</v>
-      </c>
-      <c r="N138" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="12">
-        <v>41940</v>
-      </c>
-      <c r="B139" s="2">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="C139" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D139">
         <v>329</v>
@@ -7013,43 +7014,43 @@
       <c r="E139">
         <v>4</v>
       </c>
-      <c r="F139" s="3">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="3">
+      <c r="F139" s="2">
+        <v>1</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
         <v>567</v>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="2">
         <v>19</v>
       </c>
-      <c r="J139" s="3">
+      <c r="J139" s="2">
         <v>243</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="2">
         <v>343</v>
       </c>
-      <c r="L139" s="3">
+      <c r="L139" s="2">
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N139" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="12">
+      <c r="A140" s="10">
         <v>41940</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C140" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D140">
         <v>330</v>
@@ -7057,40 +7058,40 @@
       <c r="E140">
         <v>1</v>
       </c>
-      <c r="F140" s="3">
-        <v>2</v>
-      </c>
-      <c r="G140" s="3">
-        <v>1</v>
-      </c>
-      <c r="H140" s="3">
+      <c r="F140" s="2">
+        <v>2</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2">
         <v>189</v>
       </c>
-      <c r="I140" s="3">
-        <v>4</v>
-      </c>
-      <c r="J140" s="3">
+      <c r="I140" s="2">
+        <v>4</v>
+      </c>
+      <c r="J140" s="2">
         <v>105</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="2">
         <v>68</v>
       </c>
-      <c r="L140" s="3">
+      <c r="L140" s="2">
         <v>53</v>
       </c>
       <c r="M140" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="12">
+      <c r="A141" s="10">
         <v>41940</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C141" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D141">
         <v>331</v>
@@ -7098,40 +7099,40 @@
       <c r="E141">
         <v>4</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="2">
         <v>3</v>
       </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="3">
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
         <v>462</v>
       </c>
-      <c r="I141" s="3">
+      <c r="I141" s="2">
         <v>15</v>
       </c>
-      <c r="J141" s="3">
+      <c r="J141" s="2">
         <v>115</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="2">
         <v>225</v>
       </c>
-      <c r="L141" s="3">
+      <c r="L141" s="2">
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="12">
+      <c r="A142" s="10">
         <v>41940</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>0.625</v>
       </c>
       <c r="C142" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D142">
         <v>332</v>
@@ -7139,41 +7140,41 @@
       <c r="E142">
         <v>1</v>
       </c>
-      <c r="F142" s="3">
-        <v>4</v>
-      </c>
-      <c r="G142" s="3">
+      <c r="F142" s="2">
+        <v>4</v>
+      </c>
+      <c r="G142" s="2">
         <v>3</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="2">
         <v>285</v>
       </c>
-      <c r="I142" s="3">
+      <c r="I142" s="2">
         <v>3</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142" s="2">
         <v>953</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="2">
         <v>93</v>
       </c>
-      <c r="L142" s="3">
+      <c r="L142" s="2">
         <v>99</v>
       </c>
-      <c r="M142" s="11"/>
+      <c r="M142" s="9"/>
       <c r="N142" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="12">
+      <c r="A143" s="10">
         <v>41947</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D143">
         <v>333</v>
@@ -7181,43 +7182,43 @@
       <c r="E143">
         <v>2</v>
       </c>
-      <c r="F143" s="3">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="3">
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
         <v>469</v>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="2">
         <v>16</v>
       </c>
-      <c r="J143" s="3">
+      <c r="J143" s="2">
         <v>627</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="2">
         <v>284</v>
       </c>
-      <c r="L143" s="3">
+      <c r="L143" s="2">
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N143" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="12">
+      <c r="A144" s="10">
         <v>41947</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C144" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D144">
         <v>334</v>
@@ -7225,43 +7226,43 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144" s="3">
-        <v>2</v>
-      </c>
-      <c r="G144" s="3">
+      <c r="F144" s="2">
+        <v>2</v>
+      </c>
+      <c r="G144" s="2">
         <v>5</v>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="2">
         <v>300</v>
       </c>
-      <c r="I144" s="3">
-        <v>4</v>
-      </c>
-      <c r="J144" s="3">
+      <c r="I144" s="2">
+        <v>4</v>
+      </c>
+      <c r="J144" s="2">
         <v>1063</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="2">
         <v>100</v>
       </c>
-      <c r="L144" s="3">
+      <c r="L144" s="2">
         <v>124</v>
       </c>
       <c r="M144" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N144" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="12">
+      <c r="A145" s="10">
         <v>41947</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C145" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D145">
         <v>335</v>
@@ -7269,43 +7270,43 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="2">
         <v>3</v>
       </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="3">
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
         <v>434</v>
       </c>
-      <c r="I145" s="3">
+      <c r="I145" s="2">
         <v>14</v>
       </c>
-      <c r="J145" s="3">
+      <c r="J145" s="2">
         <v>1547</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="2">
         <v>144</v>
       </c>
-      <c r="L145" s="3">
+      <c r="L145" s="2">
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N145" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="12">
+      <c r="A146" s="10">
         <v>41947</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C146" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D146">
         <v>336</v>
@@ -7313,43 +7314,43 @@
       <c r="E146">
         <v>4</v>
       </c>
-      <c r="F146" s="3">
-        <v>4</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="3">
+      <c r="F146" s="2">
+        <v>4</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
         <v>380</v>
       </c>
-      <c r="I146" s="3">
+      <c r="I146" s="2">
         <v>12</v>
       </c>
-      <c r="J146" s="3">
+      <c r="J146" s="2">
         <v>1502</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="2">
         <v>113</v>
       </c>
-      <c r="L146" s="3">
+      <c r="L146" s="2">
         <v>73</v>
       </c>
       <c r="M146" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N146" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="12">
+      <c r="A147" s="10">
         <v>41947</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C147" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D147">
         <v>337</v>
@@ -7357,40 +7358,40 @@
       <c r="E147">
         <v>1</v>
       </c>
-      <c r="F147" s="3">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="3">
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
         <v>338</v>
       </c>
-      <c r="I147" s="3">
+      <c r="I147" s="2">
         <v>17</v>
       </c>
-      <c r="J147" s="3">
+      <c r="J147" s="2">
         <v>629</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="2">
         <v>202</v>
       </c>
-      <c r="L147" s="3">
+      <c r="L147" s="2">
         <v>0</v>
       </c>
       <c r="M147" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="12">
+      <c r="A148" s="10">
         <v>41947</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C148" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D148">
         <v>338</v>
@@ -7398,43 +7399,43 @@
       <c r="E148">
         <v>4</v>
       </c>
-      <c r="F148" s="3">
-        <v>2</v>
-      </c>
-      <c r="G148" s="3">
+      <c r="F148" s="2">
+        <v>2</v>
+      </c>
+      <c r="G148" s="2">
         <v>3</v>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="2">
         <v>363</v>
       </c>
-      <c r="I148" s="3">
+      <c r="I148" s="2">
         <v>6</v>
       </c>
-      <c r="J148" s="3">
+      <c r="J148" s="2">
         <v>1113</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K148" s="2">
         <v>127</v>
       </c>
-      <c r="L148" s="3">
+      <c r="L148" s="2">
         <v>110</v>
       </c>
       <c r="M148" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N148" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="12">
+      <c r="A149" s="10">
         <v>41947</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>0.625</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D149">
         <v>339</v>
@@ -7442,40 +7443,40 @@
       <c r="E149">
         <v>1</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="2">
         <v>3</v>
       </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="3">
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
         <v>443</v>
       </c>
-      <c r="I149" s="3">
+      <c r="I149" s="2">
         <v>17</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149" s="2">
         <v>1443</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="2">
         <v>181</v>
       </c>
-      <c r="L149" s="3">
+      <c r="L149" s="2">
         <v>0</v>
       </c>
       <c r="M149" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="12">
+      <c r="A150" s="10">
         <v>41947</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>0.625</v>
       </c>
       <c r="C150" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D150">
         <v>340</v>
@@ -7483,40 +7484,40 @@
       <c r="E150">
         <v>4</v>
       </c>
-      <c r="F150" s="3">
-        <v>4</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="3">
+      <c r="F150" s="2">
+        <v>4</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
         <v>456</v>
       </c>
-      <c r="I150" s="3">
+      <c r="I150" s="2">
         <v>14</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150" s="2">
         <v>1774</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="2">
         <v>133</v>
       </c>
-      <c r="L150" s="3">
+      <c r="L150" s="2">
         <v>36</v>
       </c>
       <c r="M150" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="12">
+      <c r="A151" s="10">
         <v>41954</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D151">
         <v>341</v>
@@ -7524,40 +7525,40 @@
       <c r="E151">
         <v>1</v>
       </c>
-      <c r="F151" s="3">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="3">
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
         <v>507</v>
       </c>
-      <c r="I151" s="3">
+      <c r="I151" s="2">
         <v>22</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151" s="2">
         <v>1372</v>
       </c>
-      <c r="K151" s="3">
+      <c r="K151" s="2">
         <v>191</v>
       </c>
-      <c r="L151" s="3">
+      <c r="L151" s="2">
         <v>0</v>
       </c>
       <c r="M151" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="12">
+      <c r="A152" s="10">
         <v>41954</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C152" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D152">
         <v>342</v>
@@ -7565,43 +7566,43 @@
       <c r="E152">
         <v>4</v>
       </c>
-      <c r="F152" s="3">
-        <v>2</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="3">
+      <c r="F152" s="2">
+        <v>2</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
         <v>336</v>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="2">
         <v>10</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152" s="2">
         <v>1268</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="2">
         <v>84</v>
       </c>
-      <c r="L152" s="3">
+      <c r="L152" s="2">
         <v>63</v>
       </c>
       <c r="M152" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N152" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="12">
+      <c r="A153" s="10">
         <v>41954</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D153">
         <v>343</v>
@@ -7609,43 +7610,43 @@
       <c r="E153">
         <v>1</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="2">
         <v>3</v>
       </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="3">
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
         <v>526</v>
       </c>
-      <c r="I153" s="3">
+      <c r="I153" s="2">
         <v>17</v>
       </c>
-      <c r="J153" s="3">
+      <c r="J153" s="2">
         <v>1510</v>
       </c>
-      <c r="K153" s="3">
+      <c r="K153" s="2">
         <v>258</v>
       </c>
-      <c r="L153" s="3">
+      <c r="L153" s="2">
         <v>0</v>
       </c>
       <c r="M153" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N153" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="12">
+      <c r="A154" s="10">
         <v>41954</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C154" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D154">
         <v>344</v>
@@ -7653,40 +7654,40 @@
       <c r="E154">
         <v>4</v>
       </c>
-      <c r="F154" s="3">
-        <v>4</v>
-      </c>
-      <c r="G154" s="3">
-        <v>4</v>
-      </c>
-      <c r="H154" s="3">
+      <c r="F154" s="2">
+        <v>4</v>
+      </c>
+      <c r="G154" s="2">
+        <v>4</v>
+      </c>
+      <c r="H154" s="2">
         <v>338</v>
       </c>
-      <c r="I154" s="3">
-        <v>4</v>
-      </c>
-      <c r="J154" s="3">
+      <c r="I154" s="2">
+        <v>4</v>
+      </c>
+      <c r="J154" s="2">
         <v>1239</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K154" s="2">
         <v>68</v>
       </c>
-      <c r="L154" s="3">
+      <c r="L154" s="2">
         <v>105</v>
       </c>
       <c r="M154" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="12">
+      <c r="A155" s="10">
         <v>41954</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C155" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D155">
         <v>345</v>
@@ -7694,40 +7695,40 @@
       <c r="E155">
         <v>1</v>
       </c>
-      <c r="F155" s="3">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3">
-        <v>0</v>
-      </c>
-      <c r="H155" s="3">
+      <c r="F155" s="2">
+        <v>1</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
         <v>525</v>
       </c>
-      <c r="I155" s="3">
+      <c r="I155" s="2">
         <v>16</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J155" s="2">
         <v>575</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K155" s="2">
         <v>263</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L155" s="2">
         <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="12">
+      <c r="A156" s="10">
         <v>41954</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C156" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D156">
         <v>346</v>
@@ -7735,41 +7736,41 @@
       <c r="E156">
         <v>4</v>
       </c>
-      <c r="F156" s="3">
-        <v>2</v>
-      </c>
-      <c r="G156" s="3">
-        <v>0</v>
-      </c>
-      <c r="H156" s="3">
+      <c r="F156" s="2">
+        <v>2</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
         <v>345</v>
       </c>
-      <c r="I156" s="3">
-        <v>11</v>
-      </c>
-      <c r="J156" s="3">
+      <c r="I156" s="2">
+        <v>11</v>
+      </c>
+      <c r="J156" s="2">
         <v>1361</v>
       </c>
-      <c r="K156" s="3">
+      <c r="K156" s="2">
         <v>103</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L156" s="2">
         <v>30</v>
       </c>
-      <c r="M156" s="11"/>
+      <c r="M156" s="9"/>
       <c r="N156" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="12">
+      <c r="A157" s="10">
         <v>41954</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C157" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D157">
         <v>347</v>
@@ -7777,38 +7778,38 @@
       <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="2">
         <v>3</v>
       </c>
-      <c r="G157" s="3">
-        <v>0</v>
-      </c>
-      <c r="H157" s="3">
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
         <v>460</v>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="2">
         <v>16</v>
       </c>
-      <c r="J157" s="3">
-        <v>0</v>
-      </c>
-      <c r="K157" s="3">
+      <c r="J157" s="2">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2">
         <v>457</v>
       </c>
-      <c r="L157" s="3">
-        <v>0</v>
-      </c>
-      <c r="M157" s="11"/>
+      <c r="L157" s="2">
+        <v>0</v>
+      </c>
+      <c r="M157" s="9"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="12">
+      <c r="A158" s="10">
         <v>41957</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>0.625</v>
       </c>
       <c r="C158" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D158">
         <v>348</v>
@@ -7816,43 +7817,43 @@
       <c r="E158">
         <v>4</v>
       </c>
-      <c r="F158" s="3">
-        <v>4</v>
-      </c>
-      <c r="G158" s="3">
+      <c r="F158" s="2">
+        <v>4</v>
+      </c>
+      <c r="G158" s="2">
         <v>3</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="2">
         <v>265</v>
       </c>
-      <c r="I158" s="3">
+      <c r="I158" s="2">
         <v>5</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158" s="2">
         <v>843</v>
       </c>
-      <c r="K158" s="3">
+      <c r="K158" s="2">
         <v>126</v>
       </c>
-      <c r="L158" s="3">
+      <c r="L158" s="2">
         <v>84</v>
       </c>
       <c r="M158" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N158" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="12">
+      <c r="A159" s="10">
         <v>41957</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D159">
         <v>349</v>
@@ -7860,41 +7861,41 @@
       <c r="E159">
         <v>4</v>
       </c>
-      <c r="F159" s="3">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>0</v>
-      </c>
-      <c r="H159" s="3">
+      <c r="F159" s="2">
+        <v>1</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
         <v>401</v>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="2">
         <v>13</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159" s="2">
         <v>1702</v>
       </c>
-      <c r="K159" s="3">
+      <c r="K159" s="2">
         <v>147</v>
       </c>
-      <c r="L159" s="3">
-        <v>0</v>
-      </c>
-      <c r="M159" s="11"/>
+      <c r="L159" s="2">
+        <v>0</v>
+      </c>
+      <c r="M159" s="9"/>
       <c r="N159" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="12">
+      <c r="A160" s="10">
         <v>41957</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>0.625</v>
       </c>
       <c r="C160" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D160">
         <v>350</v>
@@ -7902,43 +7903,43 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160" s="3">
-        <v>2</v>
-      </c>
-      <c r="G160" s="3">
-        <v>1</v>
-      </c>
-      <c r="H160" s="3">
+      <c r="F160" s="2">
+        <v>2</v>
+      </c>
+      <c r="G160" s="2">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2">
         <v>238</v>
       </c>
-      <c r="I160" s="3">
+      <c r="I160" s="2">
         <v>6</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160" s="2">
         <v>366</v>
       </c>
-      <c r="K160" s="3">
+      <c r="K160" s="2">
         <v>100</v>
       </c>
-      <c r="L160" s="3">
+      <c r="L160" s="2">
         <v>88</v>
       </c>
       <c r="M160" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N160" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="12">
+      <c r="A161" s="10">
         <v>41961</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D161">
         <v>351</v>
@@ -7946,40 +7947,40 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="2">
         <v>3</v>
       </c>
-      <c r="G161" s="3">
-        <v>0</v>
-      </c>
-      <c r="H161" s="3">
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
         <v>424</v>
       </c>
-      <c r="I161" s="3">
+      <c r="I161" s="2">
         <v>14</v>
       </c>
-      <c r="J161" s="3">
-        <v>0</v>
-      </c>
-      <c r="K161" s="3">
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
         <v>428</v>
       </c>
-      <c r="L161" s="3">
+      <c r="L161" s="2">
         <v>0</v>
       </c>
       <c r="M161" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="12">
+      <c r="A162" s="10">
         <v>41961</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C162" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D162">
         <v>352</v>
@@ -7987,43 +7988,43 @@
       <c r="E162">
         <v>4</v>
       </c>
-      <c r="F162" s="3">
-        <v>4</v>
-      </c>
-      <c r="G162" s="3">
-        <v>1</v>
-      </c>
-      <c r="H162" s="3">
+      <c r="F162" s="2">
+        <v>4</v>
+      </c>
+      <c r="G162" s="2">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2">
         <v>295</v>
       </c>
-      <c r="I162" s="3">
+      <c r="I162" s="2">
         <v>7</v>
       </c>
-      <c r="J162" s="3">
+      <c r="J162" s="2">
         <v>1427</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K162" s="2">
         <v>77</v>
       </c>
-      <c r="L162" s="3">
+      <c r="L162" s="2">
         <v>70</v>
       </c>
       <c r="M162" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N162" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="12">
+      <c r="A163" s="10">
         <v>41961</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>0.46527777777777773</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D163">
         <v>353</v>
@@ -8031,40 +8032,40 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163" s="3">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="3">
+      <c r="F163" s="2">
+        <v>1</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" s="2">
         <v>427</v>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="2">
         <v>14</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J163" s="2">
         <v>376</v>
       </c>
-      <c r="K163" s="3">
+      <c r="K163" s="2">
         <v>239</v>
       </c>
-      <c r="L163" s="3">
+      <c r="L163" s="2">
         <v>0</v>
       </c>
       <c r="M163" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="12">
+      <c r="A164" s="10">
         <v>41961</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C164" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D164">
         <v>354</v>
@@ -8072,40 +8073,40 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" s="3">
-        <v>2</v>
-      </c>
-      <c r="G164" s="3">
-        <v>4</v>
-      </c>
-      <c r="H164" s="3">
+      <c r="F164" s="2">
+        <v>2</v>
+      </c>
+      <c r="G164" s="2">
+        <v>4</v>
+      </c>
+      <c r="H164" s="2">
         <v>309</v>
       </c>
-      <c r="I164" s="3">
+      <c r="I164" s="2">
         <v>7</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J164" s="2">
         <v>1309</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K164" s="2">
         <v>99</v>
       </c>
-      <c r="L164" s="3">
+      <c r="L164" s="2">
         <v>88</v>
       </c>
       <c r="M164" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="12">
+      <c r="A165" s="10">
         <v>41961</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>0.625</v>
       </c>
       <c r="C165" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D165">
         <v>355</v>
@@ -8113,40 +8114,40 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="2">
         <v>3</v>
       </c>
-      <c r="G165" s="3">
-        <v>0</v>
-      </c>
-      <c r="H165" s="3">
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
         <v>436</v>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="2">
         <v>15</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J165" s="2">
         <v>2241</v>
       </c>
-      <c r="K165" s="3">
+      <c r="K165" s="2">
         <v>43</v>
       </c>
-      <c r="L165" s="3">
+      <c r="L165" s="2">
         <v>0</v>
       </c>
       <c r="M165" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="12">
+      <c r="A166" s="10">
         <v>41961</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="1">
         <v>0.625</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D166">
         <v>356</v>
@@ -8154,43 +8155,43 @@
       <c r="E166">
         <v>4</v>
       </c>
-      <c r="F166" s="3">
-        <v>4</v>
-      </c>
-      <c r="G166" s="3">
+      <c r="F166" s="2">
+        <v>4</v>
+      </c>
+      <c r="G166" s="2">
         <v>5</v>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="2">
         <v>344</v>
       </c>
-      <c r="I166" s="3">
-        <v>4</v>
-      </c>
-      <c r="J166" s="3">
+      <c r="I166" s="2">
+        <v>4</v>
+      </c>
+      <c r="J166" s="2">
         <v>1217</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K166" s="2">
         <v>112</v>
       </c>
-      <c r="L166" s="3">
+      <c r="L166" s="2">
         <v>112</v>
       </c>
       <c r="M166" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N166" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="12">
+      <c r="A167" s="10">
         <v>41961</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>0.625</v>
       </c>
       <c r="C167" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D167">
         <v>357</v>
@@ -8198,43 +8199,43 @@
       <c r="E167">
         <v>1</v>
       </c>
-      <c r="F167" s="3">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3">
-        <v>0</v>
-      </c>
-      <c r="H167" s="3">
+      <c r="F167" s="2">
+        <v>1</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
         <v>177</v>
       </c>
-      <c r="I167" s="3">
+      <c r="I167" s="2">
         <v>6</v>
       </c>
-      <c r="J167" s="3">
-        <v>0</v>
-      </c>
-      <c r="K167" s="3">
+      <c r="J167" s="2">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2">
         <v>154</v>
       </c>
-      <c r="L167" s="3">
+      <c r="L167" s="2">
         <v>0</v>
       </c>
       <c r="M167" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N167" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="12">
+      <c r="A168" s="10">
         <v>41962</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>0.625</v>
       </c>
       <c r="C168" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D168">
         <v>358</v>
@@ -8242,41 +8243,41 @@
       <c r="E168">
         <v>4</v>
       </c>
-      <c r="F168" s="3">
-        <v>2</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="3">
+      <c r="F168" s="2">
+        <v>2</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
         <v>387</v>
       </c>
-      <c r="I168" s="3">
+      <c r="I168" s="2">
         <v>13</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J168" s="2">
         <v>1327</v>
       </c>
-      <c r="K168" s="3">
+      <c r="K168" s="2">
         <v>89</v>
       </c>
-      <c r="L168" s="3">
+      <c r="L168" s="2">
         <v>53</v>
       </c>
-      <c r="M168" s="11"/>
+      <c r="M168" s="9"/>
       <c r="N168" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="12">
+      <c r="A169" s="10">
         <v>41971</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="1">
         <v>0.625</v>
       </c>
       <c r="C169" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D169">
         <v>359</v>
@@ -8284,43 +8285,43 @@
       <c r="E169">
         <v>1</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="2">
         <v>3</v>
       </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="3">
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
         <v>564</v>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="2">
         <v>13</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J169" s="2">
         <v>2411</v>
       </c>
-      <c r="K169" s="3">
+      <c r="K169" s="2">
         <v>132</v>
       </c>
-      <c r="L169" s="3">
+      <c r="L169" s="2">
         <v>0</v>
       </c>
       <c r="M169" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N169" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="12">
+      <c r="A170" s="10">
         <v>41971</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="1">
         <v>0.625</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D170">
         <v>360</v>
@@ -8328,43 +8329,43 @@
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170" s="3">
-        <v>4</v>
-      </c>
-      <c r="G170" s="3">
+      <c r="F170" s="2">
+        <v>4</v>
+      </c>
+      <c r="G170" s="2">
         <v>6</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="2">
         <v>343</v>
       </c>
-      <c r="I170" s="3">
+      <c r="I170" s="2">
         <v>7</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J170" s="2">
         <v>1202</v>
       </c>
-      <c r="K170" s="3">
+      <c r="K170" s="2">
         <v>147</v>
       </c>
-      <c r="L170" s="3">
+      <c r="L170" s="2">
         <v>107</v>
       </c>
       <c r="M170" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N170" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" s="2">
+      <c r="A171" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="1">
         <v>0.625</v>
       </c>
       <c r="C171" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D171">
         <v>361</v>
@@ -8372,40 +8373,40 @@
       <c r="E171">
         <v>4</v>
       </c>
-      <c r="F171" s="3">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="3">
+      <c r="F171" s="2">
+        <v>1</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
         <v>511</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="2">
         <v>17</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J171" s="2">
         <v>993</v>
       </c>
-      <c r="K171" s="3">
+      <c r="K171" s="2">
         <v>228</v>
       </c>
-      <c r="L171" s="3">
+      <c r="L171" s="2">
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="12">
+      <c r="A172" s="10">
         <v>41972</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="1">
         <v>0.625</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D172">
         <v>362</v>
@@ -8413,43 +8414,43 @@
       <c r="E172">
         <v>1</v>
       </c>
-      <c r="F172" s="3">
-        <v>2</v>
-      </c>
-      <c r="G172" s="3">
-        <v>1</v>
-      </c>
-      <c r="H172" s="3">
+      <c r="F172" s="2">
+        <v>2</v>
+      </c>
+      <c r="G172" s="2">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2">
         <v>300</v>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="2">
         <v>7</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J172" s="2">
         <v>1314</v>
       </c>
-      <c r="K172" s="3">
+      <c r="K172" s="2">
         <v>83</v>
       </c>
-      <c r="L172" s="3">
+      <c r="L172" s="2">
         <v>70</v>
       </c>
       <c r="M172" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N172" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="12">
+      <c r="A173" s="10">
         <v>41972</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="1">
         <v>0.67361111111111116</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D173">
         <v>363</v>
@@ -8457,43 +8458,43 @@
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="2">
         <v>3</v>
       </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="3">
+      <c r="G173" s="2">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
         <v>365</v>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="2">
         <v>12</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J173" s="2">
         <v>415</v>
       </c>
-      <c r="K173" s="3">
+      <c r="K173" s="2">
         <v>244</v>
       </c>
-      <c r="L173" s="3">
+      <c r="L173" s="2">
         <v>0</v>
       </c>
       <c r="M173" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N173" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="12">
+      <c r="A174" s="10">
         <v>41975</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C174" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D174">
         <v>364</v>
@@ -8501,43 +8502,43 @@
       <c r="E174">
         <v>4</v>
       </c>
-      <c r="F174" s="3">
-        <v>4</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="3">
+      <c r="F174" s="2">
+        <v>4</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
         <v>298</v>
       </c>
-      <c r="I174" s="3">
+      <c r="I174" s="2">
         <v>10</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J174" s="2">
         <v>847</v>
       </c>
-      <c r="K174" s="3">
+      <c r="K174" s="2">
         <v>150</v>
       </c>
-      <c r="L174" s="3">
+      <c r="L174" s="2">
         <v>65</v>
       </c>
       <c r="M174" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N174" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="12">
+      <c r="A175" s="10">
         <v>41975</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D175">
         <v>365</v>
@@ -8545,40 +8546,40 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="F175" s="3">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="3">
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
         <v>388</v>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="2">
         <v>16</v>
       </c>
-      <c r="J175" s="3">
+      <c r="J175" s="2">
         <v>504</v>
       </c>
-      <c r="K175" s="3">
+      <c r="K175" s="2">
         <v>226</v>
       </c>
-      <c r="L175" s="3">
+      <c r="L175" s="2">
         <v>0</v>
       </c>
       <c r="M175" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="12">
+      <c r="A176" s="10">
         <v>41975</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C176" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D176">
         <v>366</v>
@@ -8586,43 +8587,43 @@
       <c r="E176">
         <v>4</v>
       </c>
-      <c r="F176" s="3">
-        <v>2</v>
-      </c>
-      <c r="G176" s="3">
-        <v>0</v>
-      </c>
-      <c r="H176" s="3">
+      <c r="F176" s="2">
+        <v>2</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
         <v>457</v>
       </c>
-      <c r="I176" s="3">
+      <c r="I176" s="2">
         <v>14</v>
       </c>
-      <c r="J176" s="3">
+      <c r="J176" s="2">
         <v>1813</v>
       </c>
-      <c r="K176" s="3">
+      <c r="K176" s="2">
         <v>130</v>
       </c>
-      <c r="L176" s="3">
+      <c r="L176" s="2">
         <v>60</v>
       </c>
       <c r="M176" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N176" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="12">
+      <c r="A177" s="10">
         <v>41975</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C177" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D177">
         <v>367</v>
@@ -8630,43 +8631,43 @@
       <c r="E177">
         <v>4</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="2">
         <v>3</v>
       </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="3">
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
         <v>368</v>
       </c>
-      <c r="I177" s="3">
+      <c r="I177" s="2">
         <v>22</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J177" s="2">
         <v>1261</v>
       </c>
-      <c r="K177" s="3">
+      <c r="K177" s="2">
         <v>181</v>
       </c>
-      <c r="L177" s="3">
+      <c r="L177" s="2">
         <v>0</v>
       </c>
       <c r="M177" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N177" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="12">
+      <c r="A178" s="10">
         <v>41975</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C178" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D178">
         <v>368</v>
@@ -8674,40 +8675,40 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178" s="3">
-        <v>4</v>
-      </c>
-      <c r="G178" s="3">
+      <c r="F178" s="2">
+        <v>4</v>
+      </c>
+      <c r="G178" s="2">
         <v>3</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="2">
         <v>474</v>
       </c>
-      <c r="I178" s="3">
-        <v>11</v>
-      </c>
-      <c r="J178" s="3">
+      <c r="I178" s="2">
+        <v>11</v>
+      </c>
+      <c r="J178" s="2">
         <v>1531</v>
       </c>
-      <c r="K178" s="3">
+      <c r="K178" s="2">
         <v>139</v>
       </c>
-      <c r="L178" s="3">
+      <c r="L178" s="2">
         <v>110</v>
       </c>
       <c r="M178" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="12">
+      <c r="A179" s="10">
         <v>41975</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C179" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D179">
         <v>369</v>
@@ -8715,41 +8716,41 @@
       <c r="E179">
         <v>4</v>
       </c>
-      <c r="F179" s="3">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="3">
+      <c r="F179" s="2">
+        <v>1</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
         <v>428</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="2">
         <v>15</v>
       </c>
-      <c r="J179" s="3">
-        <v>0</v>
-      </c>
-      <c r="K179" s="3">
+      <c r="J179" s="2">
+        <v>0</v>
+      </c>
+      <c r="K179" s="2">
         <v>363</v>
       </c>
-      <c r="L179" s="3">
-        <v>0</v>
-      </c>
-      <c r="M179" s="11"/>
+      <c r="L179" s="2">
+        <v>0</v>
+      </c>
+      <c r="M179" s="9"/>
       <c r="N179" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="12">
+      <c r="A180" s="10">
         <v>41975</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C180" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D180">
         <v>370</v>
@@ -8757,41 +8758,41 @@
       <c r="E180">
         <v>1</v>
       </c>
-      <c r="F180" s="3">
-        <v>2</v>
-      </c>
-      <c r="G180" s="3">
-        <v>4</v>
-      </c>
-      <c r="H180" s="3">
+      <c r="F180" s="2">
+        <v>2</v>
+      </c>
+      <c r="G180" s="2">
+        <v>4</v>
+      </c>
+      <c r="H180" s="2">
         <v>443</v>
       </c>
-      <c r="I180" s="3">
-        <v>11</v>
-      </c>
-      <c r="J180" s="3">
+      <c r="I180" s="2">
+        <v>11</v>
+      </c>
+      <c r="J180" s="2">
         <v>1473</v>
       </c>
-      <c r="K180" s="3">
+      <c r="K180" s="2">
         <v>154</v>
       </c>
-      <c r="L180" s="3">
+      <c r="L180" s="2">
         <v>116</v>
       </c>
-      <c r="M180" s="11"/>
+      <c r="M180" s="9"/>
       <c r="N180" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="12">
+      <c r="A181" s="10">
         <v>41975</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="1">
         <v>0.625</v>
       </c>
       <c r="C181" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D181">
         <v>371</v>
@@ -8799,40 +8800,40 @@
       <c r="E181">
         <v>4</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="2">
         <v>3</v>
       </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="3">
+      <c r="G181" s="2">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2">
         <v>513</v>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="2">
         <v>18</v>
       </c>
-      <c r="J181" s="3">
+      <c r="J181" s="2">
         <v>1322</v>
       </c>
-      <c r="K181" s="3">
+      <c r="K181" s="2">
         <v>232</v>
       </c>
-      <c r="L181" s="3">
+      <c r="L181" s="2">
         <v>0</v>
       </c>
       <c r="M181" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="12">
+      <c r="A182" s="10">
         <v>41976</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="1">
         <v>0.625</v>
       </c>
       <c r="C182" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D182">
         <v>372</v>
@@ -8840,43 +8841,43 @@
       <c r="E182">
         <v>4</v>
       </c>
-      <c r="F182" s="3">
-        <v>4</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="3">
+      <c r="F182" s="2">
+        <v>4</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2">
         <v>344</v>
       </c>
-      <c r="I182" s="3">
-        <v>11</v>
-      </c>
-      <c r="J182" s="3">
+      <c r="I182" s="2">
+        <v>11</v>
+      </c>
+      <c r="J182" s="2">
         <v>110</v>
       </c>
-      <c r="K182" s="3">
+      <c r="K182" s="2">
         <v>112</v>
       </c>
-      <c r="L182" s="3">
+      <c r="L182" s="2">
         <v>28</v>
       </c>
       <c r="M182" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N182" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="12">
+      <c r="A183" s="10">
         <v>41976</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="1">
         <v>0.625</v>
       </c>
       <c r="C183" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D183">
         <v>373</v>
@@ -8884,43 +8885,43 @@
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="F183" s="3">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="3">
+      <c r="F183" s="2">
+        <v>1</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
         <v>428</v>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="2">
         <v>13</v>
       </c>
-      <c r="J183" s="3">
+      <c r="J183" s="2">
         <v>1265</v>
       </c>
-      <c r="K183" s="3">
+      <c r="K183" s="2">
         <v>135</v>
       </c>
-      <c r="L183" s="3">
+      <c r="L183" s="2">
         <v>0</v>
       </c>
       <c r="M183" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N183" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="12">
+      <c r="A184" s="10">
         <v>41976</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>0.625</v>
       </c>
       <c r="C184" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D184">
         <v>374</v>
@@ -8928,40 +8929,40 @@
       <c r="E184">
         <v>4</v>
       </c>
-      <c r="F184" s="3">
-        <v>2</v>
-      </c>
-      <c r="G184" s="3">
+      <c r="F184" s="2">
+        <v>2</v>
+      </c>
+      <c r="G184" s="2">
         <v>5</v>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="2">
         <v>336</v>
       </c>
-      <c r="I184" s="3">
+      <c r="I184" s="2">
         <v>7</v>
       </c>
-      <c r="J184" s="3">
+      <c r="J184" s="2">
         <v>1447</v>
       </c>
-      <c r="K184" s="3">
+      <c r="K184" s="2">
         <v>99</v>
       </c>
-      <c r="L184" s="3">
+      <c r="L184" s="2">
         <v>99</v>
       </c>
       <c r="M184" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="12">
+      <c r="A185" s="10">
         <v>41976</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="1">
         <v>0.625</v>
       </c>
       <c r="C185" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D185">
         <v>375</v>
@@ -8969,43 +8970,43 @@
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="2">
         <v>3</v>
       </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="3">
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
         <v>565</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="2">
         <v>13</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J185" s="2">
         <v>2111</v>
       </c>
-      <c r="K185" s="3">
+      <c r="K185" s="2">
         <v>168</v>
       </c>
-      <c r="L185" s="3">
+      <c r="L185" s="2">
         <v>0</v>
       </c>
       <c r="M185" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N185" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="12">
+      <c r="A186" s="10">
         <v>74854</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="1">
         <v>0.4236111111111111</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D186">
         <v>376</v>
@@ -9013,40 +9014,40 @@
       <c r="E186">
         <v>1</v>
       </c>
-      <c r="F186" s="3">
-        <v>4</v>
-      </c>
-      <c r="G186" s="3">
-        <v>1</v>
-      </c>
-      <c r="H186" s="3">
+      <c r="F186" s="2">
+        <v>4</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2">
         <v>183</v>
       </c>
-      <c r="I186" s="3">
+      <c r="I186" s="2">
         <v>5</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J186" s="2">
         <v>718</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K186" s="2">
         <v>55</v>
       </c>
-      <c r="L186" s="3">
+      <c r="L186" s="2">
         <v>54</v>
       </c>
       <c r="M186" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="12">
+      <c r="A187" s="10">
         <v>41982</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D187">
         <v>377</v>
@@ -9054,43 +9055,43 @@
       <c r="E187">
         <v>4</v>
       </c>
-      <c r="F187" s="3">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="3">
+      <c r="F187" s="2">
+        <v>1</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2">
         <v>385</v>
       </c>
-      <c r="I187" s="3">
+      <c r="I187" s="2">
         <v>13</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J187" s="2">
         <v>2262</v>
       </c>
-      <c r="K187" s="3">
-        <v>2</v>
-      </c>
-      <c r="L187" s="3">
+      <c r="K187" s="2">
+        <v>2</v>
+      </c>
+      <c r="L187" s="2">
         <v>0</v>
       </c>
       <c r="M187" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N187" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="12">
+      <c r="A188" s="10">
         <v>41983</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="1">
         <v>0.625</v>
       </c>
       <c r="C188" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D188">
         <v>378</v>
@@ -9098,43 +9099,43 @@
       <c r="E188">
         <v>4</v>
       </c>
-      <c r="F188" s="3">
-        <v>2</v>
-      </c>
-      <c r="G188" s="3">
+      <c r="F188" s="2">
+        <v>2</v>
+      </c>
+      <c r="G188" s="2">
         <v>6</v>
       </c>
-      <c r="H188" s="3">
+      <c r="H188" s="2">
         <v>609</v>
       </c>
-      <c r="I188" s="3">
+      <c r="I188" s="2">
         <v>22</v>
       </c>
-      <c r="J188" s="3">
+      <c r="J188" s="2">
         <v>750</v>
       </c>
-      <c r="K188" s="3">
+      <c r="K188" s="2">
         <v>239</v>
       </c>
-      <c r="L188" s="3">
+      <c r="L188" s="2">
         <v>238</v>
       </c>
       <c r="M188" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N188" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="12">
+      <c r="A189" s="10">
         <v>41983</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="1">
         <v>0.625</v>
       </c>
       <c r="C189" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D189">
         <v>379</v>
@@ -9142,43 +9143,43 @@
       <c r="E189">
         <v>1</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="2">
         <v>3</v>
       </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="3">
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
         <v>373</v>
       </c>
-      <c r="I189" s="3">
+      <c r="I189" s="2">
         <v>13</v>
       </c>
-      <c r="J189" s="3">
+      <c r="J189" s="2">
         <v>373</v>
       </c>
-      <c r="K189" s="3">
+      <c r="K189" s="2">
         <v>167</v>
       </c>
-      <c r="L189" s="3">
+      <c r="L189" s="2">
         <v>0</v>
       </c>
       <c r="M189" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N189" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="12">
+      <c r="A190" s="10">
         <v>41983</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="1">
         <v>0.625</v>
       </c>
       <c r="C190" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D190">
         <v>380</v>
@@ -9186,43 +9187,43 @@
       <c r="E190">
         <v>1</v>
       </c>
-      <c r="F190" s="3">
-        <v>4</v>
-      </c>
-      <c r="G190" s="3">
-        <v>1</v>
-      </c>
-      <c r="H190" s="3">
+      <c r="F190" s="2">
+        <v>4</v>
+      </c>
+      <c r="G190" s="2">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2">
         <v>407</v>
       </c>
-      <c r="I190" s="3">
+      <c r="I190" s="2">
         <v>13</v>
       </c>
-      <c r="J190" s="3">
+      <c r="J190" s="2">
         <v>1713</v>
       </c>
-      <c r="K190" s="3">
+      <c r="K190" s="2">
         <v>133</v>
       </c>
-      <c r="L190" s="3">
+      <c r="L190" s="2">
         <v>77</v>
       </c>
       <c r="M190" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N190" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="12">
+      <c r="A191" s="10">
         <v>41983</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="1">
         <v>0.625</v>
       </c>
       <c r="C191" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D191">
         <v>381</v>
@@ -9230,35 +9231,36 @@
       <c r="E191">
         <v>4</v>
       </c>
-      <c r="F191" s="3">
-        <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="3">
+      <c r="F191" s="2">
+        <v>1</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2">
         <v>464</v>
       </c>
-      <c r="I191" s="3">
+      <c r="I191" s="2">
         <v>15</v>
       </c>
-      <c r="J191" s="3">
+      <c r="J191" s="2">
         <v>807</v>
       </c>
-      <c r="K191" s="3">
+      <c r="K191" s="2">
         <v>211</v>
       </c>
-      <c r="L191" s="3">
+      <c r="L191" s="2">
         <v>0</v>
       </c>
       <c r="M191" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N191" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M191"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_TG.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,6 +748,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -795,7 +798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,7 +833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1043,7 +1046,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9260,7 +9263,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M191"/>
+  <autoFilter ref="A1:M191">
+    <sortState ref="A2:M191">
+      <sortCondition ref="D1:D191"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_TG.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>RA</t>
-  </si>
-  <si>
-    <t>Good Session</t>
-  </si>
-  <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 6</t>
   </si>
   <si>
     <t>JC</t>
@@ -609,19 +597,31 @@
     <t>Notes_t</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 5</t>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>goodSession</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,7 +798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,7 +833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,7 +1046,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,28 +1076,28 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
         <v>180</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>181</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>182</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
       <c r="N1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>191</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>192</v>
@@ -1182,10 +1182,10 @@
         <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>193</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>194</v>
@@ -1270,10 +1270,10 @@
         <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>195</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>196</v>
@@ -1358,10 +1358,10 @@
         <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>197</v>
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>198</v>
@@ -1446,10 +1446,10 @@
         <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>199</v>
@@ -1490,10 +1490,10 @@
         <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>0.625</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -1534,10 +1534,10 @@
         <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1545,10 +1545,10 @@
         <v>41702</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>201</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>202</v>
@@ -1619,10 +1619,10 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>203</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>204</v>
@@ -1707,10 +1707,10 @@
         <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>205</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>0.625</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>206</v>
@@ -1795,10 +1795,10 @@
         <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>207</v>
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>209</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>210</v>
@@ -1927,10 +1927,10 @@
         <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>211</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>212</v>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>213</v>
@@ -2059,10 +2059,10 @@
         <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>0.625</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>214</v>
@@ -2103,7 +2103,7 @@
         <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>0.625</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>215</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>216</v>
@@ -2168,10 +2168,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>217</v>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>218</v>
@@ -2256,7 +2256,7 @@
         <v>93</v>
       </c>
       <c r="M28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>219</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>220</v>
@@ -2341,10 +2341,10 @@
         <v>104</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>221</v>
@@ -2383,10 +2383,10 @@
       </c>
       <c r="L31" s="5"/>
       <c r="M31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>222</v>
@@ -2427,7 +2427,7 @@
         <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>223</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>224</v>
@@ -2518,7 +2518,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>225</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>226</v>
@@ -2592,10 +2592,10 @@
         <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>227</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>0.625</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>228</v>
@@ -2680,10 +2680,10 @@
         <v>77</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2694,7 +2694,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>229</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>0.5</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>230</v>
@@ -2768,10 +2768,10 @@
         <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>231</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>232</v>
@@ -2856,10 +2856,10 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>0.625</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>233</v>
@@ -2900,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>0.625</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D44">
         <v>234</v>
@@ -2944,7 +2944,7 @@
         <v>67</v>
       </c>
       <c r="M44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2955,7 +2955,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45">
         <v>235</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>236</v>
@@ -3026,7 +3026,7 @@
         <v>107</v>
       </c>
       <c r="M46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>237</v>
@@ -3067,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>238</v>
@@ -3111,10 +3111,10 @@
         <v>71</v>
       </c>
       <c r="M48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>239</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3169,7 +3169,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>240</v>
@@ -3199,10 +3199,10 @@
         <v>67</v>
       </c>
       <c r="M50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <v>241</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>242</v>
@@ -3287,10 +3287,10 @@
         <v>52</v>
       </c>
       <c r="M52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>243</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N53" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>0.625</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>244</v>
@@ -3375,7 +3375,7 @@
         <v>199</v>
       </c>
       <c r="M54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>0.625</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>245</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>246</v>
@@ -3457,10 +3457,10 @@
         <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>247</v>
@@ -3501,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>248</v>
@@ -3545,10 +3545,10 @@
         <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>249</v>
@@ -3589,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -3633,10 +3633,10 @@
         <v>127</v>
       </c>
       <c r="M60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>251</v>
@@ -3677,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D62">
         <v>252</v>
@@ -3721,7 +3721,7 @@
         <v>87</v>
       </c>
       <c r="M62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>253</v>
@@ -3762,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>254</v>
@@ -3806,10 +3806,10 @@
         <v>58</v>
       </c>
       <c r="M64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>0.5</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D65">
         <v>255</v>
@@ -3850,10 +3850,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3864,7 +3864,7 @@
         <v>0.625</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D66">
         <v>256</v>
@@ -3894,10 +3894,10 @@
         <v>35</v>
       </c>
       <c r="M66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>0.625</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>257</v>
@@ -3938,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>258</v>
@@ -3982,10 +3982,10 @@
         <v>110</v>
       </c>
       <c r="M68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>0.625</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2">
         <v>259</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
         <v>0.625</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2">
         <v>260</v>
@@ -4070,10 +4070,10 @@
         <v>88</v>
       </c>
       <c r="M70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>0.625</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2">
         <v>261</v>
@@ -4114,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
         <v>0.625</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2">
         <v>262</v>
@@ -4158,10 +4158,10 @@
         <v>124</v>
       </c>
       <c r="M72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>0.625</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D73" s="2">
         <v>263</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2">
         <v>264</v>
@@ -4246,10 +4246,10 @@
         <v>96</v>
       </c>
       <c r="M74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2">
         <v>265</v>
@@ -4290,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2">
         <v>266</v>
@@ -4334,10 +4334,10 @@
         <v>79</v>
       </c>
       <c r="M76" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4348,7 +4348,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2">
         <v>267</v>
@@ -4378,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4392,7 +4392,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
         <v>268</v>
@@ -4422,10 +4422,10 @@
         <v>118</v>
       </c>
       <c r="M78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4436,7 +4436,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D79" s="2">
         <v>269</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4477,7 +4477,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D80" s="2">
         <v>270</v>
@@ -4507,10 +4507,10 @@
         <v>107</v>
       </c>
       <c r="M80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4521,7 +4521,7 @@
         <v>0.5</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D81" s="2">
         <v>271</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4565,7 +4565,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D82" s="2">
         <v>272</v>
@@ -4595,10 +4595,10 @@
         <v>76</v>
       </c>
       <c r="M82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4609,7 +4609,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2">
         <v>273</v>
@@ -4639,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4653,7 +4653,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2">
         <v>274</v>
@@ -4683,10 +4683,10 @@
         <v>61</v>
       </c>
       <c r="M84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4697,7 +4697,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2">
         <v>275</v>
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -4741,7 +4741,7 @@
         <v>0.625</v>
       </c>
       <c r="C86" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D86" s="2">
         <v>276</v>
@@ -4771,10 +4771,10 @@
         <v>65</v>
       </c>
       <c r="M86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2">
         <v>277</v>
@@ -4815,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
         <v>0.625</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D88" s="2">
         <v>278</v>
@@ -4859,10 +4859,10 @@
         <v>73</v>
       </c>
       <c r="M88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4873,7 +4873,7 @@
         <v>0.625</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2">
         <v>279</v>
@@ -4903,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -4917,7 +4917,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2">
         <v>280</v>
@@ -4929,10 +4929,10 @@
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -4943,7 +4943,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2">
         <v>281</v>
@@ -4973,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -4987,7 +4987,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D92" s="2">
         <v>282</v>
@@ -5017,7 +5017,7 @@
         <v>58</v>
       </c>
       <c r="M92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5028,7 +5028,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2">
         <v>283</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2">
         <v>284</v>
@@ -5102,10 +5102,10 @@
         <v>36</v>
       </c>
       <c r="M94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2">
         <v>285</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D96" s="2">
         <v>286</v>
@@ -5190,10 +5190,10 @@
         <v>86</v>
       </c>
       <c r="M96" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5204,7 +5204,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D97" s="2">
         <v>287</v>
@@ -5234,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5248,7 +5248,7 @@
         <v>0.5</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2">
         <v>288</v>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5290,7 +5290,7 @@
         <v>0.5</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D99" s="2">
         <v>289</v>
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5334,7 +5334,7 @@
         <v>0.625</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2">
         <v>290</v>
@@ -5364,10 +5364,10 @@
         <v>71</v>
       </c>
       <c r="M100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5378,7 +5378,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D101" s="2">
         <v>291</v>
@@ -5408,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2">
         <v>292</v>
@@ -5452,10 +5452,10 @@
         <v>90</v>
       </c>
       <c r="M102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5466,7 +5466,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D103" s="2">
         <v>293</v>
@@ -5496,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5510,7 +5510,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2">
         <v>294</v>
@@ -5540,10 +5540,10 @@
         <v>56</v>
       </c>
       <c r="M104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5554,7 +5554,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C105" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D105" s="2">
         <v>295</v>
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -5598,7 +5598,7 @@
         <v>0.625</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D106" s="2">
         <v>296</v>
@@ -5628,10 +5628,10 @@
         <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
         <v>0.625</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D107" s="2">
         <v>297</v>
@@ -5672,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -5686,7 +5686,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D108" s="2">
         <v>298</v>
@@ -5716,7 +5716,7 @@
         <v>80</v>
       </c>
       <c r="M108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -5727,7 +5727,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2">
         <v>299</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5768,7 +5768,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2">
         <v>300</v>
@@ -5798,10 +5798,10 @@
         <v>37</v>
       </c>
       <c r="M110" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2">
         <v>301</v>
@@ -5842,10 +5842,10 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>0.46111111111111108</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D112" s="2">
         <v>302</v>
@@ -5886,10 +5886,10 @@
         <v>62</v>
       </c>
       <c r="M112" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -5900,7 +5900,7 @@
         <v>0.5</v>
       </c>
       <c r="C113" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D113" s="2">
         <v>303</v>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
         <v>0.5</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D114" s="2">
         <v>304</v>
@@ -5972,10 +5972,10 @@
         <v>80</v>
       </c>
       <c r="M114" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5986,7 +5986,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2">
         <v>305</v>
@@ -6016,10 +6016,10 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6030,7 +6030,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D116" s="2">
         <v>306</v>
@@ -6060,10 +6060,10 @@
         <v>95</v>
       </c>
       <c r="M116" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -6074,7 +6074,7 @@
         <v>0.625</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2">
         <v>307</v>
@@ -6104,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6118,7 +6118,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C118" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D118" s="2">
         <v>308</v>
@@ -6148,10 +6148,10 @@
         <v>57</v>
       </c>
       <c r="M118" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6162,7 +6162,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D119" s="2">
         <v>309</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6203,7 +6203,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D120" s="2">
         <v>310</v>
@@ -6233,10 +6233,10 @@
         <v>45</v>
       </c>
       <c r="M120" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6247,7 +6247,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D121" s="2">
         <v>311</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6288,7 +6288,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D122" s="2">
         <v>312</v>
@@ -6318,10 +6318,10 @@
         <v>59</v>
       </c>
       <c r="M122" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>0.62986111111111109</v>
       </c>
       <c r="C123" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D123" s="2">
         <v>313</v>
@@ -6362,10 +6362,10 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D124" s="2">
         <v>314</v>
@@ -6406,10 +6406,10 @@
         <v>109</v>
       </c>
       <c r="M124" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6420,7 +6420,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2">
         <v>315</v>
@@ -6438,10 +6438,10 @@
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N125" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2">
         <v>316</v>
@@ -6482,10 +6482,10 @@
         <v>138</v>
       </c>
       <c r="M126" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6496,7 +6496,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C127" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D127" s="2">
         <v>317</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6540,7 +6540,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D128" s="2">
         <v>318</v>
@@ -6558,10 +6558,10 @@
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
       <c r="M128" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C129" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D129" s="2">
         <v>319</v>
@@ -6602,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C130" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D130" s="2">
         <v>320</v>
@@ -6646,7 +6646,7 @@
         <v>167</v>
       </c>
       <c r="M130" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
         <v>0.625</v>
       </c>
       <c r="C131" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D131" s="2">
         <v>321</v>
@@ -6687,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N131" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6701,7 +6701,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D132" s="2">
         <v>322</v>
@@ -6731,10 +6731,10 @@
         <v>48</v>
       </c>
       <c r="M132" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N132" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6745,7 +6745,7 @@
         <v>0.75</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D133" s="2">
         <v>323</v>
@@ -6775,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N133" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6789,7 +6789,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D134" s="2">
         <v>324</v>
@@ -6819,10 +6819,10 @@
         <v>48</v>
       </c>
       <c r="M134" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N134" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6833,7 +6833,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2">
         <v>325</v>
@@ -6863,10 +6863,10 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N135" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -6877,7 +6877,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D136" s="2">
         <v>326</v>
@@ -6907,10 +6907,10 @@
         <v>92</v>
       </c>
       <c r="M136" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N136" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -6921,7 +6921,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2">
         <v>327</v>
@@ -6951,21 +6951,21 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C138" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D138" s="2">
         <v>328</v>
@@ -6995,10 +6995,10 @@
         <v>90</v>
       </c>
       <c r="M138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N138" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C139" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D139">
         <v>329</v>
@@ -7039,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N139" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C140" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D140">
         <v>330</v>
@@ -7083,7 +7083,7 @@
         <v>53</v>
       </c>
       <c r="M140" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7094,7 +7094,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D141">
         <v>331</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -7135,7 +7135,7 @@
         <v>0.625</v>
       </c>
       <c r="C142" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D142">
         <v>332</v>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="M142" s="9"/>
       <c r="N142" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -7177,7 +7177,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143">
         <v>333</v>
@@ -7207,10 +7207,10 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N143" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -7221,7 +7221,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D144">
         <v>334</v>
@@ -7251,10 +7251,10 @@
         <v>124</v>
       </c>
       <c r="M144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N144" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -7265,7 +7265,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D145">
         <v>335</v>
@@ -7295,10 +7295,10 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N145" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -7309,7 +7309,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C146" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D146">
         <v>336</v>
@@ -7339,10 +7339,10 @@
         <v>73</v>
       </c>
       <c r="M146" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N146" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -7353,7 +7353,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C147" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D147">
         <v>337</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -7394,7 +7394,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C148" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D148">
         <v>338</v>
@@ -7424,10 +7424,10 @@
         <v>110</v>
       </c>
       <c r="M148" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N148" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -7438,7 +7438,7 @@
         <v>0.625</v>
       </c>
       <c r="C149" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D149">
         <v>339</v>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>0.625</v>
       </c>
       <c r="C150" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D150">
         <v>340</v>
@@ -7509,7 +7509,7 @@
         <v>36</v>
       </c>
       <c r="M150" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -7520,7 +7520,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151">
         <v>341</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C152" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D152">
         <v>342</v>
@@ -7591,10 +7591,10 @@
         <v>63</v>
       </c>
       <c r="M152" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N152" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -7605,7 +7605,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153">
         <v>343</v>
@@ -7635,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="M153" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N153" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -7649,7 +7649,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C154" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D154">
         <v>344</v>
@@ -7679,7 +7679,7 @@
         <v>105</v>
       </c>
       <c r="M154" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -7690,7 +7690,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D155">
         <v>345</v>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -7731,7 +7731,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C156" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D156">
         <v>346</v>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="M156" s="9"/>
       <c r="N156" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -7773,7 +7773,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C157" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D157">
         <v>347</v>
@@ -7812,7 +7812,7 @@
         <v>0.625</v>
       </c>
       <c r="C158" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D158">
         <v>348</v>
@@ -7842,10 +7842,10 @@
         <v>84</v>
       </c>
       <c r="M158" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N158" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C159" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D159">
         <v>349</v>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="M159" s="9"/>
       <c r="N159" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -7898,7 +7898,7 @@
         <v>0.625</v>
       </c>
       <c r="C160" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D160">
         <v>350</v>
@@ -7928,10 +7928,10 @@
         <v>88</v>
       </c>
       <c r="M160" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N160" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -7942,7 +7942,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161">
         <v>351</v>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -7983,7 +7983,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C162" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D162">
         <v>352</v>
@@ -8013,10 +8013,10 @@
         <v>70</v>
       </c>
       <c r="M162" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N162" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -8027,7 +8027,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163">
         <v>353</v>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -8068,7 +8068,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C164" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D164">
         <v>354</v>
@@ -8098,7 +8098,7 @@
         <v>88</v>
       </c>
       <c r="M164" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -8109,7 +8109,7 @@
         <v>0.625</v>
       </c>
       <c r="C165" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D165">
         <v>355</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="M165" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -8150,7 +8150,7 @@
         <v>0.625</v>
       </c>
       <c r="C166" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D166">
         <v>356</v>
@@ -8180,10 +8180,10 @@
         <v>112</v>
       </c>
       <c r="M166" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N166" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -8194,7 +8194,7 @@
         <v>0.625</v>
       </c>
       <c r="C167" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D167">
         <v>357</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="M167" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N167" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -8238,7 +8238,7 @@
         <v>0.625</v>
       </c>
       <c r="C168" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D168">
         <v>358</v>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="M168" s="9"/>
       <c r="N168" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -8280,7 +8280,7 @@
         <v>0.625</v>
       </c>
       <c r="C169" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D169">
         <v>359</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="M169" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N169" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -8324,7 +8324,7 @@
         <v>0.625</v>
       </c>
       <c r="C170" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D170">
         <v>360</v>
@@ -8354,21 +8354,21 @@
         <v>107</v>
       </c>
       <c r="M170" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N170" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B171" s="1">
         <v>0.625</v>
       </c>
       <c r="C171" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D171">
         <v>361</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -8409,7 +8409,7 @@
         <v>0.625</v>
       </c>
       <c r="C172" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D172">
         <v>362</v>
@@ -8439,10 +8439,10 @@
         <v>70</v>
       </c>
       <c r="M172" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N172" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -8453,7 +8453,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="C173" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D173">
         <v>363</v>
@@ -8483,10 +8483,10 @@
         <v>0</v>
       </c>
       <c r="M173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N173" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -8497,7 +8497,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C174" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D174">
         <v>364</v>
@@ -8527,10 +8527,10 @@
         <v>65</v>
       </c>
       <c r="M174" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N174" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -8541,7 +8541,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>365</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="M175" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -8582,7 +8582,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C176" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D176">
         <v>366</v>
@@ -8612,10 +8612,10 @@
         <v>60</v>
       </c>
       <c r="M176" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N176" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -8626,7 +8626,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C177" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D177">
         <v>367</v>
@@ -8656,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="M177" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N177" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -8670,7 +8670,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C178" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D178">
         <v>368</v>
@@ -8700,7 +8700,7 @@
         <v>110</v>
       </c>
       <c r="M178" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C179" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D179">
         <v>369</v>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="M179" s="9"/>
       <c r="N179" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -8753,7 +8753,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C180" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D180">
         <v>370</v>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="M180" s="9"/>
       <c r="N180" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -8795,7 +8795,7 @@
         <v>0.625</v>
       </c>
       <c r="C181" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D181">
         <v>371</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="M181" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -8836,7 +8836,7 @@
         <v>0.625</v>
       </c>
       <c r="C182" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D182">
         <v>372</v>
@@ -8866,10 +8866,10 @@
         <v>28</v>
       </c>
       <c r="M182" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N182" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -8880,7 +8880,7 @@
         <v>0.625</v>
       </c>
       <c r="C183" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D183">
         <v>373</v>
@@ -8910,10 +8910,10 @@
         <v>0</v>
       </c>
       <c r="M183" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N183" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -8924,7 +8924,7 @@
         <v>0.625</v>
       </c>
       <c r="C184" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D184">
         <v>374</v>
@@ -8954,7 +8954,7 @@
         <v>99</v>
       </c>
       <c r="M184" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -8965,7 +8965,7 @@
         <v>0.625</v>
       </c>
       <c r="C185" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D185">
         <v>375</v>
@@ -8995,10 +8995,10 @@
         <v>0</v>
       </c>
       <c r="M185" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N185" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -9009,7 +9009,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186">
         <v>376</v>
@@ -9039,7 +9039,7 @@
         <v>54</v>
       </c>
       <c r="M186" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -9050,7 +9050,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D187">
         <v>377</v>
@@ -9080,10 +9080,10 @@
         <v>0</v>
       </c>
       <c r="M187" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N187" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -9094,7 +9094,7 @@
         <v>0.625</v>
       </c>
       <c r="C188" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D188">
         <v>378</v>
@@ -9124,10 +9124,10 @@
         <v>238</v>
       </c>
       <c r="M188" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N188" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -9138,7 +9138,7 @@
         <v>0.625</v>
       </c>
       <c r="C189" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D189">
         <v>379</v>
@@ -9168,10 +9168,10 @@
         <v>0</v>
       </c>
       <c r="M189" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N189" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -9182,7 +9182,7 @@
         <v>0.625</v>
       </c>
       <c r="C190" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D190">
         <v>380</v>
@@ -9212,10 +9212,10 @@
         <v>77</v>
       </c>
       <c r="M190" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N190" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -9226,7 +9226,7 @@
         <v>0.625</v>
       </c>
       <c r="C191" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D191">
         <v>381</v>
@@ -9256,10 +9256,10 @@
         <v>0</v>
       </c>
       <c r="M191" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N191" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Note_sheet_TG.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TG.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="170" windowWidth="14810" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="180">
   <si>
     <t>Subject</t>
   </si>
@@ -144,9 +144,6 @@
     <t>When I asked what he thought we were trying to measure he said "Maybe aggression and something to do with essay feedback". Seemed convinced his partner was readl, though</t>
   </si>
   <si>
-    <t>3:00PM</t>
-  </si>
-  <si>
     <t>RP</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>Noth sure if response was from the other participant or if it was faked</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10/28/2014</t>
-  </si>
-  <si>
     <t>Asked about distraction assignment and saud "ha, that's a long time"</t>
   </si>
   <si>
@@ -544,9 +538,6 @@
   </si>
   <si>
     <t>Only one participant, didn’t notice anything strange when asked</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12/1/2014</t>
   </si>
   <si>
     <t>using the distraction- if judgement was harsh, tue judged person would not want nore aggression. Was very butter upon finding out he was tricked, cheerful up to that point</t>
@@ -621,7 +612,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,11 +711,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -735,7 +727,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -798,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,17 +1038,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="131.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="131.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1076,35 +1069,35 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>177</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>178</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>179</v>
       </c>
-      <c r="K1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M1" t="s">
-        <v>182</v>
-      </c>
       <c r="N1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>41695</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C2" t="s">
@@ -1144,11 +1137,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>41695</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C3" t="s">
@@ -1188,11 +1181,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>41695</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C4" t="s">
@@ -1232,11 +1225,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>41695</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C5" t="s">
@@ -1276,11 +1269,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>41695</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C6" t="s">
@@ -1320,11 +1313,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>41696</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" t="s">
@@ -1364,11 +1357,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>41701</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>0.50347222222222221</v>
       </c>
       <c r="C8" t="s">
@@ -1404,15 +1397,15 @@
       <c r="M8" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>41701</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>0.54513888888888895</v>
       </c>
       <c r="C9" t="s">
@@ -1448,15 +1441,15 @@
       <c r="M9" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>41701</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>0.54513888888888895</v>
       </c>
       <c r="C10" t="s">
@@ -1468,7 +1461,7 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10">
@@ -1492,15 +1485,15 @@
       <c r="M10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>41702</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>0.625</v>
       </c>
       <c r="C11" t="s">
@@ -1536,19 +1529,19 @@
       <c r="M11" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>41702</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12">
         <v>201</v>
@@ -1581,11 +1574,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>41702</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C13" t="s">
@@ -1621,15 +1614,15 @@
       <c r="M13" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="N13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>41702</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C14" t="s">
@@ -1665,19 +1658,19 @@
       <c r="M14" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="N14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>41703</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>204</v>
@@ -1710,18 +1703,18 @@
         <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>41709</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="9">
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>205</v>
@@ -1753,15 +1746,15 @@
       <c r="M16" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="N16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>41709</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="9">
         <v>0.625</v>
       </c>
       <c r="C17" t="s">
@@ -1797,15 +1790,15 @@
       <c r="M17" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="N17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>41709</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" t="s">
@@ -1841,15 +1834,15 @@
       <c r="M18" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>41709</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C19" t="s">
@@ -1885,15 +1878,15 @@
       <c r="M19" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="N19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>41709</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C20" t="s">
@@ -1929,19 +1922,19 @@
       <c r="M20" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="N20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>41710</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>211</v>
@@ -1973,15 +1966,15 @@
       <c r="M21" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="N21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>41710</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C22" t="s">
@@ -2017,15 +2010,15 @@
       <c r="M22" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="N22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>41715</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="9">
         <v>0.54861111111111105</v>
       </c>
       <c r="C23" t="s">
@@ -2061,19 +2054,19 @@
       <c r="M23" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="N23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>41716</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <v>0.625</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>214</v>
@@ -2106,15 +2099,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>41716</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <v>0.625</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>215</v>
@@ -2146,17 +2139,17 @@
       <c r="M25" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="N25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>41716</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="9"/>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>216</v>
@@ -2170,15 +2163,15 @@
       <c r="M26" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="N26" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>41716</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C27" t="s">
@@ -2214,15 +2207,15 @@
       <c r="M27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="N27" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
         <v>41716</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C28" t="s">
@@ -2243,7 +2236,7 @@
       <c r="H28">
         <v>460</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="3">
         <v>15</v>
       </c>
       <c r="J28">
@@ -2259,11 +2252,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>41716</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C29" t="s">
@@ -2299,15 +2292,15 @@
       <c r="M29" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="N29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>41716</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C30" t="s">
@@ -2343,15 +2336,15 @@
       <c r="M30" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="N30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>41716</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C31" t="s">
@@ -2381,23 +2374,23 @@
       <c r="K31">
         <v>200</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="3"/>
       <c r="M31" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="N31" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>41717</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32">
         <v>222</v>
@@ -2430,11 +2423,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
         <v>41717</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C33" t="s">
@@ -2470,17 +2463,17 @@
       <c r="M33" t="s">
         <v>7</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="N33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
         <v>41717</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>224</v>
@@ -2510,11 +2503,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>41717</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C35" t="s">
@@ -2550,15 +2543,15 @@
       <c r="M35" t="s">
         <v>7</v>
       </c>
-      <c r="N35" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="N35" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
         <v>41729</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="9">
         <v>0.625</v>
       </c>
       <c r="C36" t="s">
@@ -2595,14 +2588,14 @@
         <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
         <v>41730</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="9">
         <v>0.70833333333333337</v>
       </c>
       <c r="C37" t="s">
@@ -2638,19 +2631,19 @@
       <c r="M37" t="s">
         <v>7</v>
       </c>
-      <c r="N37" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="N37" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
         <v>41730</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="9">
         <v>0.625</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38">
         <v>228</v>
@@ -2683,14 +2676,14 @@
         <v>15</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
         <v>41736</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="9">
         <v>0.50138888888888888</v>
       </c>
       <c r="C39" t="s">
@@ -2726,15 +2719,15 @@
       <c r="M39" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="N39" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
         <v>41736</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="9">
         <v>0.5</v>
       </c>
       <c r="C40" t="s">
@@ -2770,15 +2763,15 @@
       <c r="M40" t="s">
         <v>7</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="N40" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
         <v>41736</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="9">
         <v>0.54861111111111105</v>
       </c>
       <c r="C41" t="s">
@@ -2814,15 +2807,15 @@
       <c r="M41" t="s">
         <v>7</v>
       </c>
-      <c r="N41" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="N41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>41736</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="9">
         <v>0.54861111111111105</v>
       </c>
       <c r="C42" t="s">
@@ -2858,19 +2851,19 @@
       <c r="M42" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="N42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
         <v>41737</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="9">
         <v>0.625</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43">
         <v>233</v>
@@ -2902,19 +2895,19 @@
       <c r="M43" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>41737</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C44" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>41737</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
       </c>
       <c r="D44">
         <v>234</v>
@@ -2947,15 +2940,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
         <v>41737</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45">
         <v>235</v>
@@ -2988,15 +2981,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
         <v>41737</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>236</v>
@@ -3029,11 +3022,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
         <v>41737</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C47" t="s">
@@ -3070,14 +3063,14 @@
         <v>7</v>
       </c>
       <c r="N47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
         <v>41737</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C48" t="s">
@@ -3114,14 +3107,14 @@
         <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
         <v>41737</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C49" t="s">
@@ -3158,14 +3151,14 @@
         <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
         <v>41737</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C50" t="s">
@@ -3202,18 +3195,18 @@
         <v>7</v>
       </c>
       <c r="N50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="8">
         <v>41738</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51">
         <v>241</v>
@@ -3245,19 +3238,19 @@
       <c r="M51" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="N51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
         <v>41738</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52">
         <v>242</v>
@@ -3290,14 +3283,14 @@
         <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
         <v>41743</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="9">
         <v>0.62916666666666665</v>
       </c>
       <c r="C53" t="s">
@@ -3334,18 +3327,18 @@
         <v>7</v>
       </c>
       <c r="N53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
+        <v>41743</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C54" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>41743</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
       </c>
       <c r="D54">
         <v>244</v>
@@ -3378,15 +3371,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
         <v>41744</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="9">
         <v>0.625</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>245</v>
@@ -3419,15 +3412,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
         <v>41744</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56">
         <v>246</v>
@@ -3460,14 +3453,14 @@
         <v>7</v>
       </c>
       <c r="N56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
         <v>41744</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C57" t="s">
@@ -3504,14 +3497,14 @@
         <v>7</v>
       </c>
       <c r="N57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
         <v>41744</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C58" t="s">
@@ -3548,18 +3541,18 @@
         <v>7</v>
       </c>
       <c r="N58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
+        <v>41744</v>
+      </c>
+      <c r="B59" s="9">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C59" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>41744</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C59" t="s">
-        <v>63</v>
       </c>
       <c r="D59">
         <v>249</v>
@@ -3592,14 +3585,14 @@
         <v>7</v>
       </c>
       <c r="N59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
         <v>41744</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C60" t="s">
@@ -3636,14 +3629,14 @@
         <v>7</v>
       </c>
       <c r="N60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
         <v>41745</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C61" t="s">
@@ -3680,18 +3673,18 @@
         <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="8">
         <v>41745</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62">
         <v>252</v>
@@ -3724,11 +3717,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+    <row r="63" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="8">
         <v>41745</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C63" t="s">
@@ -3764,19 +3757,19 @@
       <c r="M63" t="s">
         <v>15</v>
       </c>
-      <c r="N63" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="N63" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
         <v>41745</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64">
         <v>254</v>
@@ -3809,18 +3802,18 @@
         <v>7</v>
       </c>
       <c r="N64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="8">
+        <v>41745</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C65" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>41745</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>68</v>
       </c>
       <c r="D65">
         <v>255</v>
@@ -3852,19 +3845,19 @@
       <c r="M65" t="s">
         <v>7</v>
       </c>
-      <c r="N65" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="N65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="8">
         <v>41745</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="9">
         <v>0.625</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66">
         <v>256</v>
@@ -3897,14 +3890,14 @@
         <v>7</v>
       </c>
       <c r="N66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
         <v>41745</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="9">
         <v>0.625</v>
       </c>
       <c r="C67" t="s">
@@ -3940,15 +3933,15 @@
       <c r="M67" t="s">
         <v>7</v>
       </c>
-      <c r="N67" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="N67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="8">
         <v>41750</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C68" t="s">
@@ -3984,21 +3977,21 @@
       <c r="M68" t="s">
         <v>7</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" s="8">
+        <v>41750</v>
+      </c>
+      <c r="B69" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <v>41750</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>259</v>
       </c>
       <c r="E69">
@@ -4028,21 +4021,21 @@
       <c r="M69" t="s">
         <v>7</v>
       </c>
-      <c r="N69" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="N69" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="8">
         <v>41750</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="9">
         <v>0.625</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>260</v>
       </c>
       <c r="E70">
@@ -4072,21 +4065,21 @@
       <c r="M70" t="s">
         <v>7</v>
       </c>
-      <c r="N70" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="N70" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" s="8">
         <v>41750</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="9">
         <v>0.625</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="2">
+        <v>72</v>
+      </c>
+      <c r="D71" s="1">
         <v>261</v>
       </c>
       <c r="E71">
@@ -4116,21 +4109,21 @@
       <c r="M71" t="s">
         <v>7</v>
       </c>
-      <c r="N71" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="N71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72" s="8">
         <v>41751</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="9">
         <v>0.625</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="2">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1">
         <v>262</v>
       </c>
       <c r="E72">
@@ -4160,21 +4153,21 @@
       <c r="M72" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="N72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" s="8">
         <v>41751</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="9">
         <v>0.625</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>263</v>
       </c>
       <c r="E73">
@@ -4204,21 +4197,21 @@
       <c r="M73" t="s">
         <v>15</v>
       </c>
-      <c r="N73" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="N73" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" s="8">
         <v>41751</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="1">
         <v>264</v>
       </c>
       <c r="E74">
@@ -4248,21 +4241,21 @@
       <c r="M74" t="s">
         <v>15</v>
       </c>
-      <c r="N74" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="N74" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" s="8">
         <v>41751</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>265</v>
       </c>
       <c r="E75">
@@ -4292,21 +4285,21 @@
       <c r="M75" t="s">
         <v>15</v>
       </c>
-      <c r="N75" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="N75" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" s="8">
         <v>41751</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>266</v>
       </c>
       <c r="E76">
@@ -4336,21 +4329,21 @@
       <c r="M76" t="s">
         <v>7</v>
       </c>
-      <c r="N76" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="N76" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" s="8">
         <v>41751</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>267</v>
       </c>
       <c r="E77">
@@ -4380,21 +4373,21 @@
       <c r="M77" t="s">
         <v>17</v>
       </c>
-      <c r="N77" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="N77" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78" s="8">
         <v>41751</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>268</v>
       </c>
       <c r="E78">
@@ -4424,21 +4417,21 @@
       <c r="M78" t="s">
         <v>7</v>
       </c>
-      <c r="N78" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="N78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79" s="8">
         <v>41752</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="9">
         <v>0.4201388888888889</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="2">
+        <v>25</v>
+      </c>
+      <c r="D79" s="1">
         <v>269</v>
       </c>
       <c r="E79">
@@ -4469,17 +4462,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80" s="8">
         <v>41752</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="9">
         <v>0.46180555555555558</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="2">
+        <v>25</v>
+      </c>
+      <c r="D80" s="1">
         <v>270</v>
       </c>
       <c r="E80">
@@ -4509,21 +4502,21 @@
       <c r="M80" t="s">
         <v>17</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="N80" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="8">
+        <v>41752</v>
+      </c>
+      <c r="B81" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>41752</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>271</v>
       </c>
       <c r="E81">
@@ -4553,21 +4546,21 @@
       <c r="M81" t="s">
         <v>15</v>
       </c>
-      <c r="N81" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="N81" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" s="8">
         <v>41752</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="9">
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="2">
+        <v>67</v>
+      </c>
+      <c r="D82" s="1">
         <v>272</v>
       </c>
       <c r="E82">
@@ -4597,21 +4590,21 @@
       <c r="M82" t="s">
         <v>7</v>
       </c>
-      <c r="N82" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="N82" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" s="8">
         <v>41752</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="9">
         <v>0.59027777777777779</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>273</v>
       </c>
       <c r="E83">
@@ -4641,21 +4634,21 @@
       <c r="M83" t="s">
         <v>7</v>
       </c>
-      <c r="N83" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="N83" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="8">
         <v>41752</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="9">
         <v>0.59027777777777779</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>274</v>
       </c>
       <c r="E84">
@@ -4685,21 +4678,21 @@
       <c r="M84" t="s">
         <v>7</v>
       </c>
-      <c r="N84" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="N84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85" s="8">
         <v>41752</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="9">
         <v>0.59027777777777779</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>275</v>
       </c>
       <c r="E85">
@@ -4729,21 +4722,21 @@
       <c r="M85" t="s">
         <v>7</v>
       </c>
-      <c r="N85" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="N85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" s="8">
         <v>41757</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="9">
         <v>0.625</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="2">
+        <v>58</v>
+      </c>
+      <c r="D86" s="1">
         <v>276</v>
       </c>
       <c r="E86">
@@ -4773,21 +4766,21 @@
       <c r="M86" t="s">
         <v>7</v>
       </c>
-      <c r="N86" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="N86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" s="8">
         <v>41757</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="9">
         <v>0.63194444444444442</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>277</v>
       </c>
       <c r="E87">
@@ -4817,21 +4810,21 @@
       <c r="M87" t="s">
         <v>7</v>
       </c>
-      <c r="N87" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+      <c r="N87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" s="8">
         <v>41757</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="9">
         <v>0.625</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88" s="2">
+        <v>58</v>
+      </c>
+      <c r="D88" s="1">
         <v>278</v>
       </c>
       <c r="E88">
@@ -4861,21 +4854,21 @@
       <c r="M88" t="s">
         <v>7</v>
       </c>
-      <c r="N88" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
+      <c r="N88" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" s="8">
         <v>41758</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="9">
         <v>0.625</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="2">
+        <v>25</v>
+      </c>
+      <c r="D89" s="1">
         <v>279</v>
       </c>
       <c r="E89">
@@ -4906,20 +4899,20 @@
         <v>15</v>
       </c>
       <c r="N89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" s="8">
         <v>41758</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="2">
+        <v>25</v>
+      </c>
+      <c r="D90" s="1">
         <v>280</v>
       </c>
       <c r="E90">
@@ -4931,21 +4924,21 @@
       <c r="M90" t="s">
         <v>17</v>
       </c>
-      <c r="N90" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+      <c r="N90" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" s="8">
         <v>41758</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>281</v>
       </c>
       <c r="E91">
@@ -4975,21 +4968,21 @@
       <c r="M91" t="s">
         <v>7</v>
       </c>
-      <c r="N91" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
+      <c r="N91" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" s="8">
         <v>41758</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" s="2">
+        <v>62</v>
+      </c>
+      <c r="D92" s="1">
         <v>282</v>
       </c>
       <c r="E92">
@@ -5020,17 +5013,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" s="8">
         <v>41758</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>283</v>
       </c>
       <c r="E93">
@@ -5060,21 +5053,21 @@
       <c r="M93" t="s">
         <v>7</v>
       </c>
-      <c r="N93" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+      <c r="N93" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A94" s="8">
         <v>41758</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>284</v>
       </c>
       <c r="E94">
@@ -5104,21 +5097,21 @@
       <c r="M94" t="s">
         <v>7</v>
       </c>
-      <c r="N94" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
+      <c r="N94" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" s="8">
         <v>41758</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="9">
         <v>0.80208333333333337</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>285</v>
       </c>
       <c r="E95">
@@ -5148,21 +5141,21 @@
       <c r="M95" t="s">
         <v>7</v>
       </c>
-      <c r="N95" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+      <c r="N95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A96" s="8">
         <v>41759</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" s="2">
+        <v>25</v>
+      </c>
+      <c r="D96" s="1">
         <v>286</v>
       </c>
       <c r="E96">
@@ -5192,21 +5185,21 @@
       <c r="M96" t="s">
         <v>7</v>
       </c>
-      <c r="N96" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+      <c r="N96" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A97" s="8">
         <v>41759</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="2">
+        <v>51</v>
+      </c>
+      <c r="D97" s="1">
         <v>287</v>
       </c>
       <c r="E97">
@@ -5236,21 +5229,21 @@
       <c r="M97" t="s">
         <v>17</v>
       </c>
-      <c r="N97" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
+      <c r="N97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="8">
         <v>41759</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="9">
         <v>0.5</v>
       </c>
       <c r="C98" t="s">
-        <v>84</v>
-      </c>
-      <c r="D98" s="2">
+        <v>83</v>
+      </c>
+      <c r="D98" s="1">
         <v>288</v>
       </c>
       <c r="E98">
@@ -5277,22 +5270,22 @@
       <c r="L98">
         <v>131</v>
       </c>
-      <c r="M98" s="9"/>
-      <c r="N98" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+      <c r="M98" s="7"/>
+      <c r="N98" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="8">
         <v>41759</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="9">
         <v>0.5</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="2">
+        <v>67</v>
+      </c>
+      <c r="D99" s="1">
         <v>289</v>
       </c>
       <c r="E99">
@@ -5322,21 +5315,21 @@
       <c r="M99" t="s">
         <v>17</v>
       </c>
-      <c r="N99" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
+      <c r="N99" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="8">
         <v>41759</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="9">
         <v>0.625</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>290</v>
       </c>
       <c r="E100">
@@ -5366,21 +5359,21 @@
       <c r="M100" t="s">
         <v>7</v>
       </c>
-      <c r="N100" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="N100" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A101" s="8">
         <v>41759</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="2">
+        <v>58</v>
+      </c>
+      <c r="D101" s="1">
         <v>291</v>
       </c>
       <c r="E101">
@@ -5410,21 +5403,21 @@
       <c r="M101" t="s">
         <v>7</v>
       </c>
-      <c r="N101" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
+      <c r="N101" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="8">
         <v>41764</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>292</v>
       </c>
       <c r="E102">
@@ -5454,21 +5447,21 @@
       <c r="M102" t="s">
         <v>7</v>
       </c>
-      <c r="N102" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
+      <c r="N102" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A103" s="8">
         <v>41764</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="2">
+        <v>58</v>
+      </c>
+      <c r="D103" s="1">
         <v>293</v>
       </c>
       <c r="E103">
@@ -5498,21 +5491,21 @@
       <c r="M103" t="s">
         <v>7</v>
       </c>
-      <c r="N103" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
+      <c r="N103" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="8">
         <v>41764</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="9">
         <v>0.62847222222222221</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <v>294</v>
       </c>
       <c r="E104">
@@ -5542,21 +5535,21 @@
       <c r="M104" t="s">
         <v>17</v>
       </c>
-      <c r="N104" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
+      <c r="N104" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A105" s="8">
         <v>41764</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="2">
+        <v>58</v>
+      </c>
+      <c r="D105" s="1">
         <v>295</v>
       </c>
       <c r="E105">
@@ -5577,7 +5570,7 @@
       <c r="J105">
         <v>3061</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105" s="3">
         <v>28</v>
       </c>
       <c r="L105">
@@ -5586,21 +5579,21 @@
       <c r="M105" t="s">
         <v>7</v>
       </c>
-      <c r="N105" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
+      <c r="N105" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A106" s="8">
         <v>41765</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="9">
         <v>0.625</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="2">
+        <v>25</v>
+      </c>
+      <c r="D106" s="1">
         <v>296</v>
       </c>
       <c r="E106">
@@ -5630,21 +5623,21 @@
       <c r="M106" t="s">
         <v>7</v>
       </c>
-      <c r="N106" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
+      <c r="N106" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A107" s="8">
         <v>41765</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="9">
         <v>0.625</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>297</v>
       </c>
       <c r="E107">
@@ -5674,21 +5667,21 @@
       <c r="M107" t="s">
         <v>17</v>
       </c>
-      <c r="N107" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
+      <c r="N107" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A108" s="8">
         <v>41765</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="2">
+        <v>25</v>
+      </c>
+      <c r="D108" s="1">
         <v>298</v>
       </c>
       <c r="E108">
@@ -5719,17 +5712,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A109" s="8">
         <v>41765</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>299</v>
       </c>
       <c r="E109">
@@ -5760,17 +5753,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A110" s="8">
         <v>41765</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>300</v>
       </c>
       <c r="E110">
@@ -5800,21 +5793,21 @@
       <c r="M110" t="s">
         <v>7</v>
       </c>
-      <c r="N110" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+      <c r="N110" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A111" s="8">
         <v>41766</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="1">
         <v>301</v>
       </c>
       <c r="E111">
@@ -5844,21 +5837,21 @@
       <c r="M111" t="s">
         <v>17</v>
       </c>
-      <c r="N111" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
+      <c r="N111" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A112" s="8">
         <v>41766</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="9">
         <v>0.46111111111111108</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="2">
+        <v>25</v>
+      </c>
+      <c r="D112" s="1">
         <v>302</v>
       </c>
       <c r="E112">
@@ -5888,21 +5881,21 @@
       <c r="M112" t="s">
         <v>15</v>
       </c>
-      <c r="N112" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
+      <c r="N112" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A113" s="8">
         <v>41766</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="9">
         <v>0.5</v>
       </c>
       <c r="C113" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="2">
+        <v>83</v>
+      </c>
+      <c r="D113" s="1">
         <v>303</v>
       </c>
       <c r="E113">
@@ -5929,22 +5922,22 @@
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" s="9"/>
-      <c r="N113" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
+      <c r="M113" s="7"/>
+      <c r="N113" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A114" s="8">
         <v>41766</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="9">
         <v>0.5</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="2">
+        <v>67</v>
+      </c>
+      <c r="D114" s="1">
         <v>304</v>
       </c>
       <c r="E114">
@@ -5974,21 +5967,21 @@
       <c r="M114" t="s">
         <v>7</v>
       </c>
-      <c r="N114" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
+      <c r="N114" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A115" s="8">
         <v>41766</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="1">
         <v>305</v>
       </c>
       <c r="E115">
@@ -6018,21 +6011,21 @@
       <c r="M115" t="s">
         <v>7</v>
       </c>
-      <c r="N115" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
+      <c r="N115" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A116" s="8">
         <v>41766</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
-      </c>
-      <c r="D116" s="2">
+        <v>58</v>
+      </c>
+      <c r="D116" s="1">
         <v>306</v>
       </c>
       <c r="E116">
@@ -6062,21 +6055,21 @@
       <c r="M116" t="s">
         <v>15</v>
       </c>
-      <c r="N116" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
+      <c r="N116" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A117" s="8">
         <v>41766</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="9">
         <v>0.625</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="1">
         <v>307</v>
       </c>
       <c r="E117">
@@ -6106,21 +6099,21 @@
       <c r="M117" t="s">
         <v>7</v>
       </c>
-      <c r="N117" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
+      <c r="N117" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A118" s="8">
         <v>41766</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
-      </c>
-      <c r="D118" s="2">
+        <v>58</v>
+      </c>
+      <c r="D118" s="1">
         <v>308</v>
       </c>
       <c r="E118">
@@ -6150,21 +6143,21 @@
       <c r="M118" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="4" t="s">
+      <c r="N118" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A119" s="8">
+        <v>41926</v>
+      </c>
+      <c r="B119" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C119" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
-        <v>41926</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C119" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="2">
+      <c r="D119" s="1">
         <v>309</v>
       </c>
       <c r="E119">
@@ -6195,17 +6188,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A120" s="8">
         <v>41926</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
-      </c>
-      <c r="D120" s="2">
+        <v>117</v>
+      </c>
+      <c r="D120" s="1">
         <v>310</v>
       </c>
       <c r="E120">
@@ -6235,21 +6228,21 @@
       <c r="M120" t="s">
         <v>7</v>
       </c>
-      <c r="N120" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
+      <c r="N120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A121" s="8">
         <v>41926</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C121" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" s="2">
+        <v>116</v>
+      </c>
+      <c r="D121" s="1">
         <v>311</v>
       </c>
       <c r="E121">
@@ -6280,17 +6273,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A122" s="8">
         <v>41926</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
-      </c>
-      <c r="D122" s="2">
+        <v>117</v>
+      </c>
+      <c r="D122" s="1">
         <v>312</v>
       </c>
       <c r="E122">
@@ -6320,21 +6313,21 @@
       <c r="M122" t="s">
         <v>7</v>
       </c>
-      <c r="N122" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
+      <c r="N122" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A123" s="8">
         <v>41926</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="9">
         <v>0.62986111111111109</v>
       </c>
       <c r="C123" t="s">
-        <v>117</v>
-      </c>
-      <c r="D123" s="2">
+        <v>116</v>
+      </c>
+      <c r="D123" s="1">
         <v>313</v>
       </c>
       <c r="E123">
@@ -6365,20 +6358,20 @@
         <v>7</v>
       </c>
       <c r="N123" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A124" s="8">
         <v>41928</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B124" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C124" t="s">
-        <v>68</v>
-      </c>
-      <c r="D124" s="2">
+        <v>67</v>
+      </c>
+      <c r="D124" s="1">
         <v>314</v>
       </c>
       <c r="E124">
@@ -6408,21 +6401,21 @@
       <c r="M124" t="s">
         <v>7</v>
       </c>
-      <c r="N124" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
+      <c r="N124" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A125" s="8">
         <v>41928</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="9">
         <v>0.46180555555555558</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="1">
         <v>315</v>
       </c>
       <c r="E125">
@@ -6431,30 +6424,30 @@
       <c r="F125">
         <v>3</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9" t="s">
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A126" s="8">
         <v>41933</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="9">
         <v>0.4236111111111111</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="1">
         <v>316</v>
       </c>
       <c r="E126">
@@ -6484,21 +6477,21 @@
       <c r="M126" t="s">
         <v>7</v>
       </c>
-      <c r="N126" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
+      <c r="N126" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A127" s="8">
         <v>41933</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C127" t="s">
-        <v>68</v>
-      </c>
-      <c r="D127" s="2">
+        <v>67</v>
+      </c>
+      <c r="D127" s="1">
         <v>317</v>
       </c>
       <c r="E127">
@@ -6529,52 +6522,52 @@
         <v>7</v>
       </c>
       <c r="N127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A128" s="8">
+        <v>41933</v>
+      </c>
+      <c r="B128" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C128" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="1">
+        <v>318</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N128" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A129" s="8">
         <v>41933</v>
       </c>
-      <c r="B128" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D128" s="2">
-        <v>318</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>2</v>
-      </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N128" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
-        <v>41933</v>
-      </c>
-      <c r="B129" s="1">
+      <c r="B129" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" s="2">
+        <v>116</v>
+      </c>
+      <c r="D129" s="1">
         <v>319</v>
       </c>
       <c r="E129">
@@ -6605,26 +6598,26 @@
         <v>7</v>
       </c>
       <c r="N129" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A130" s="8">
         <v>41933</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
-      </c>
-      <c r="D130" s="2">
+        <v>117</v>
+      </c>
+      <c r="D130" s="1">
         <v>320</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130">
@@ -6649,367 +6642,367 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A131" s="8">
         <v>41933</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="9">
         <v>0.625</v>
       </c>
       <c r="C131" t="s">
-        <v>118</v>
-      </c>
-      <c r="D131" s="2">
+        <v>117</v>
+      </c>
+      <c r="D131" s="1">
         <v>321</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
-      <c r="F131" s="2">
-        <v>1</v>
-      </c>
-      <c r="G131" s="2">
-        <v>0</v>
-      </c>
-      <c r="H131" s="2">
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
         <v>379</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="1">
         <v>13</v>
       </c>
-      <c r="J131" s="2">
+      <c r="J131" s="1">
         <v>577</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="1">
         <v>233</v>
       </c>
-      <c r="L131" s="2">
+      <c r="L131" s="1">
         <v>0</v>
       </c>
       <c r="M131" t="s">
         <v>7</v>
       </c>
       <c r="N131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A132" s="8">
+        <v>41935</v>
+      </c>
+      <c r="B132" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="1">
+        <v>322</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>305</v>
+      </c>
+      <c r="I132" s="1">
+        <v>10</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1123</v>
+      </c>
+      <c r="K132" s="1">
+        <v>80</v>
+      </c>
+      <c r="L132" s="1">
+        <v>48</v>
+      </c>
+      <c r="M132" t="s">
+        <v>7</v>
+      </c>
+      <c r="N132" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A133" s="8">
         <v>41935</v>
       </c>
-      <c r="B132" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C132" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="2">
-        <v>322</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
-      </c>
-      <c r="F132" s="2">
-        <v>2</v>
-      </c>
-      <c r="G132" s="2">
-        <v>0</v>
-      </c>
-      <c r="H132" s="2">
-        <v>305</v>
-      </c>
-      <c r="I132" s="2">
-        <v>10</v>
-      </c>
-      <c r="J132" s="2">
-        <v>1123</v>
-      </c>
-      <c r="K132" s="2">
-        <v>80</v>
-      </c>
-      <c r="L132" s="2">
-        <v>48</v>
-      </c>
-      <c r="M132" t="s">
-        <v>7</v>
-      </c>
-      <c r="N132" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
-        <v>41935</v>
-      </c>
-      <c r="B133" s="1">
+      <c r="B133" s="9">
         <v>0.75</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="2">
+        <v>25</v>
+      </c>
+      <c r="D133" s="1">
         <v>323</v>
       </c>
       <c r="E133">
         <v>4</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="1">
         <v>3</v>
       </c>
-      <c r="G133" s="2">
-        <v>0</v>
-      </c>
-      <c r="H133" s="2">
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
         <v>422</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="1">
         <v>14</v>
       </c>
-      <c r="J133" s="2">
-        <v>0</v>
-      </c>
-      <c r="K133" s="2">
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
         <v>393</v>
       </c>
-      <c r="L133" s="2">
+      <c r="L133" s="1">
         <v>0</v>
       </c>
       <c r="M133" t="s">
         <v>15</v>
       </c>
       <c r="N133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A134" s="8">
+        <v>41940</v>
+      </c>
+      <c r="B134" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="1">
+        <v>324</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>4</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>227</v>
+      </c>
+      <c r="I134" s="1">
+        <v>4</v>
+      </c>
+      <c r="J134" s="1">
+        <v>1075</v>
+      </c>
+      <c r="K134" s="1">
+        <v>83</v>
+      </c>
+      <c r="L134" s="1">
+        <v>48</v>
+      </c>
+      <c r="M134" t="s">
+        <v>7</v>
+      </c>
+      <c r="N134" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A135" s="8">
         <v>41940</v>
       </c>
-      <c r="B134" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C134" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="2">
-        <v>324</v>
-      </c>
-      <c r="E134">
-        <v>4</v>
-      </c>
-      <c r="F134" s="2">
-        <v>4</v>
-      </c>
-      <c r="G134" s="2">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2">
-        <v>227</v>
-      </c>
-      <c r="I134" s="2">
-        <v>4</v>
-      </c>
-      <c r="J134" s="2">
-        <v>1075</v>
-      </c>
-      <c r="K134" s="2">
-        <v>83</v>
-      </c>
-      <c r="L134" s="2">
-        <v>48</v>
-      </c>
-      <c r="M134" t="s">
-        <v>7</v>
-      </c>
-      <c r="N134" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
-        <v>41940</v>
-      </c>
-      <c r="B135" s="1">
+      <c r="B135" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="1">
         <v>325</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
-      <c r="F135" s="2">
-        <v>1</v>
-      </c>
-      <c r="G135" s="2">
-        <v>0</v>
-      </c>
-      <c r="H135" s="2">
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
         <v>516</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="1">
         <v>18</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J135" s="1">
         <v>2364</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="1">
         <v>99</v>
       </c>
-      <c r="L135" s="2">
+      <c r="L135" s="1">
         <v>0</v>
       </c>
       <c r="M135" t="s">
         <v>7</v>
       </c>
       <c r="N135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A136" s="8">
+        <v>41940</v>
+      </c>
+      <c r="B136" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="1">
+        <v>326</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2</v>
+      </c>
+      <c r="H136" s="1">
+        <v>418</v>
+      </c>
+      <c r="I136" s="1">
+        <v>11</v>
+      </c>
+      <c r="J136" s="1">
+        <v>1674</v>
+      </c>
+      <c r="K136" s="1">
+        <v>104</v>
+      </c>
+      <c r="L136" s="1">
+        <v>92</v>
+      </c>
+      <c r="M136" t="s">
+        <v>7</v>
+      </c>
+      <c r="N136" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A137" s="8">
         <v>41940</v>
       </c>
-      <c r="B136" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C136" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="2">
-        <v>326</v>
-      </c>
-      <c r="E136">
-        <v>4</v>
-      </c>
-      <c r="F136" s="2">
-        <v>2</v>
-      </c>
-      <c r="G136" s="2">
-        <v>2</v>
-      </c>
-      <c r="H136" s="2">
-        <v>418</v>
-      </c>
-      <c r="I136" s="2">
-        <v>11</v>
-      </c>
-      <c r="J136" s="2">
-        <v>1674</v>
-      </c>
-      <c r="K136" s="2">
-        <v>104</v>
-      </c>
-      <c r="L136" s="2">
-        <v>92</v>
-      </c>
-      <c r="M136" t="s">
-        <v>7</v>
-      </c>
-      <c r="N136" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
-        <v>41940</v>
-      </c>
-      <c r="B137" s="1">
+      <c r="B137" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="1">
         <v>327</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="1">
         <v>3</v>
       </c>
-      <c r="G137" s="2">
-        <v>0</v>
-      </c>
-      <c r="H137" s="2">
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
         <v>78</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="1">
         <v>14</v>
       </c>
-      <c r="J137" s="2">
+      <c r="J137" s="1">
         <v>211</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="1">
         <v>21</v>
       </c>
-      <c r="L137" s="2">
+      <c r="L137" s="1">
         <v>0</v>
       </c>
       <c r="M137" t="s">
         <v>7</v>
       </c>
       <c r="N137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A138" s="8">
+        <v>41940</v>
+      </c>
+      <c r="B138" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" s="1">
+        <v>328</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>4</v>
+      </c>
+      <c r="G138" s="1">
+        <v>3</v>
+      </c>
+      <c r="H138" s="1">
+        <v>325</v>
+      </c>
+      <c r="I138" s="1">
+        <v>6</v>
+      </c>
+      <c r="J138" s="1">
+        <v>853</v>
+      </c>
+      <c r="K138" s="1">
+        <v>162</v>
+      </c>
+      <c r="L138" s="1">
+        <v>90</v>
+      </c>
+      <c r="M138" t="s">
+        <v>7</v>
+      </c>
+      <c r="N138" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" s="1">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A139" s="8">
+        <v>41940</v>
+      </c>
+      <c r="B139" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C138" t="s">
-        <v>118</v>
-      </c>
-      <c r="D138" s="2">
-        <v>328</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" s="2">
-        <v>4</v>
-      </c>
-      <c r="G138" s="2">
-        <v>3</v>
-      </c>
-      <c r="H138" s="2">
-        <v>325</v>
-      </c>
-      <c r="I138" s="2">
-        <v>6</v>
-      </c>
-      <c r="J138" s="2">
-        <v>853</v>
-      </c>
-      <c r="K138" s="2">
-        <v>162</v>
-      </c>
-      <c r="L138" s="2">
-        <v>90</v>
-      </c>
-      <c r="M138" t="s">
-        <v>7</v>
-      </c>
-      <c r="N138" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
-        <v>41940</v>
-      </c>
-      <c r="B139" s="1">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="C139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D139">
         <v>329</v>
@@ -7017,43 +7010,43 @@
       <c r="E139">
         <v>4</v>
       </c>
-      <c r="F139" s="2">
-        <v>1</v>
-      </c>
-      <c r="G139" s="2">
-        <v>0</v>
-      </c>
-      <c r="H139" s="2">
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1">
         <v>567</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="1">
         <v>19</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J139" s="1">
         <v>243</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="1">
         <v>343</v>
       </c>
-      <c r="L139" s="2">
+      <c r="L139" s="1">
         <v>0</v>
       </c>
       <c r="M139" t="s">
         <v>7</v>
       </c>
       <c r="N139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A140" s="8">
         <v>41940</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140">
         <v>330</v>
@@ -7061,40 +7054,40 @@
       <c r="E140">
         <v>1</v>
       </c>
-      <c r="F140" s="2">
-        <v>2</v>
-      </c>
-      <c r="G140" s="2">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2">
+      <c r="F140" s="1">
+        <v>2</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1">
         <v>189</v>
       </c>
-      <c r="I140" s="2">
-        <v>4</v>
-      </c>
-      <c r="J140" s="2">
+      <c r="I140" s="1">
+        <v>4</v>
+      </c>
+      <c r="J140" s="1">
         <v>105</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="1">
         <v>68</v>
       </c>
-      <c r="L140" s="2">
+      <c r="L140" s="1">
         <v>53</v>
       </c>
       <c r="M140" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A141" s="8">
         <v>41940</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D141">
         <v>331</v>
@@ -7102,40 +7095,40 @@
       <c r="E141">
         <v>4</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="1">
         <v>3</v>
       </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-      <c r="H141" s="2">
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
         <v>462</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="1">
         <v>15</v>
       </c>
-      <c r="J141" s="2">
+      <c r="J141" s="1">
         <v>115</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="1">
         <v>225</v>
       </c>
-      <c r="L141" s="2">
+      <c r="L141" s="1">
         <v>0</v>
       </c>
       <c r="M141" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A142" s="8">
         <v>41940</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="9">
         <v>0.625</v>
       </c>
       <c r="C142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D142">
         <v>332</v>
@@ -7143,37 +7136,37 @@
       <c r="E142">
         <v>1</v>
       </c>
-      <c r="F142" s="2">
-        <v>4</v>
-      </c>
-      <c r="G142" s="2">
+      <c r="F142" s="1">
+        <v>4</v>
+      </c>
+      <c r="G142" s="1">
         <v>3</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="1">
         <v>285</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="1">
         <v>3</v>
       </c>
-      <c r="J142" s="2">
+      <c r="J142" s="1">
         <v>953</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="1">
         <v>93</v>
       </c>
-      <c r="L142" s="2">
+      <c r="L142" s="1">
         <v>99</v>
       </c>
-      <c r="M142" s="9"/>
+      <c r="M142" s="7"/>
       <c r="N142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A143" s="8">
         <v>41947</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C143" t="s">
@@ -7185,43 +7178,43 @@
       <c r="E143">
         <v>2</v>
       </c>
-      <c r="F143" s="2">
-        <v>1</v>
-      </c>
-      <c r="G143" s="2">
-        <v>0</v>
-      </c>
-      <c r="H143" s="2">
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1">
         <v>469</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="1">
         <v>16</v>
       </c>
-      <c r="J143" s="2">
+      <c r="J143" s="1">
         <v>627</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="1">
         <v>284</v>
       </c>
-      <c r="L143" s="2">
+      <c r="L143" s="1">
         <v>0</v>
       </c>
       <c r="M143" t="s">
         <v>7</v>
       </c>
       <c r="N143" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A144" s="8">
         <v>41947</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D144">
         <v>334</v>
@@ -7229,43 +7222,43 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144" s="2">
-        <v>2</v>
-      </c>
-      <c r="G144" s="2">
+      <c r="F144" s="1">
+        <v>2</v>
+      </c>
+      <c r="G144" s="1">
         <v>5</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144" s="1">
         <v>300</v>
       </c>
-      <c r="I144" s="2">
-        <v>4</v>
-      </c>
-      <c r="J144" s="2">
+      <c r="I144" s="1">
+        <v>4</v>
+      </c>
+      <c r="J144" s="1">
         <v>1063</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="1">
         <v>100</v>
       </c>
-      <c r="L144" s="2">
+      <c r="L144" s="1">
         <v>124</v>
       </c>
       <c r="M144" t="s">
         <v>7</v>
       </c>
       <c r="N144" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A145" s="8">
         <v>41947</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D145">
         <v>335</v>
@@ -7273,43 +7266,43 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="1">
         <v>3</v>
       </c>
-      <c r="G145" s="2">
-        <v>0</v>
-      </c>
-      <c r="H145" s="2">
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
         <v>434</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="1">
         <v>14</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J145" s="1">
         <v>1547</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="1">
         <v>144</v>
       </c>
-      <c r="L145" s="2">
+      <c r="L145" s="1">
         <v>0</v>
       </c>
       <c r="M145" t="s">
         <v>7</v>
       </c>
       <c r="N145" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A146" s="8">
         <v>41947</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D146">
         <v>336</v>
@@ -7317,43 +7310,43 @@
       <c r="E146">
         <v>4</v>
       </c>
-      <c r="F146" s="2">
-        <v>4</v>
-      </c>
-      <c r="G146" s="2">
-        <v>0</v>
-      </c>
-      <c r="H146" s="2">
+      <c r="F146" s="1">
+        <v>4</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
         <v>380</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="1">
         <v>12</v>
       </c>
-      <c r="J146" s="2">
+      <c r="J146" s="1">
         <v>1502</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="1">
         <v>113</v>
       </c>
-      <c r="L146" s="2">
+      <c r="L146" s="1">
         <v>73</v>
       </c>
       <c r="M146" t="s">
         <v>7</v>
       </c>
       <c r="N146" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A147" s="8">
         <v>41947</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D147">
         <v>337</v>
@@ -7361,40 +7354,40 @@
       <c r="E147">
         <v>1</v>
       </c>
-      <c r="F147" s="2">
-        <v>1</v>
-      </c>
-      <c r="G147" s="2">
-        <v>0</v>
-      </c>
-      <c r="H147" s="2">
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
         <v>338</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="1">
         <v>17</v>
       </c>
-      <c r="J147" s="2">
+      <c r="J147" s="1">
         <v>629</v>
       </c>
-      <c r="K147" s="2">
+      <c r="K147" s="1">
         <v>202</v>
       </c>
-      <c r="L147" s="2">
+      <c r="L147" s="1">
         <v>0</v>
       </c>
       <c r="M147" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A148" s="8">
         <v>41947</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D148">
         <v>338</v>
@@ -7402,43 +7395,43 @@
       <c r="E148">
         <v>4</v>
       </c>
-      <c r="F148" s="2">
-        <v>2</v>
-      </c>
-      <c r="G148" s="2">
+      <c r="F148" s="1">
+        <v>2</v>
+      </c>
+      <c r="G148" s="1">
         <v>3</v>
       </c>
-      <c r="H148" s="2">
+      <c r="H148" s="1">
         <v>363</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="1">
         <v>6</v>
       </c>
-      <c r="J148" s="2">
+      <c r="J148" s="1">
         <v>1113</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="1">
         <v>127</v>
       </c>
-      <c r="L148" s="2">
+      <c r="L148" s="1">
         <v>110</v>
       </c>
       <c r="M148" t="s">
         <v>7</v>
       </c>
       <c r="N148" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" s="8">
         <v>41947</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="9">
         <v>0.625</v>
       </c>
       <c r="C149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D149">
         <v>339</v>
@@ -7446,40 +7439,40 @@
       <c r="E149">
         <v>1</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="1">
         <v>3</v>
       </c>
-      <c r="G149" s="2">
-        <v>0</v>
-      </c>
-      <c r="H149" s="2">
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1">
         <v>443</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="1">
         <v>17</v>
       </c>
-      <c r="J149" s="2">
+      <c r="J149" s="1">
         <v>1443</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="1">
         <v>181</v>
       </c>
-      <c r="L149" s="2">
+      <c r="L149" s="1">
         <v>0</v>
       </c>
       <c r="M149" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A150" s="8">
         <v>41947</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="9">
         <v>0.625</v>
       </c>
       <c r="C150" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D150">
         <v>340</v>
@@ -7487,36 +7480,36 @@
       <c r="E150">
         <v>4</v>
       </c>
-      <c r="F150" s="2">
-        <v>4</v>
-      </c>
-      <c r="G150" s="2">
-        <v>0</v>
-      </c>
-      <c r="H150" s="2">
+      <c r="F150" s="1">
+        <v>4</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1">
         <v>456</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="1">
         <v>14</v>
       </c>
-      <c r="J150" s="2">
+      <c r="J150" s="1">
         <v>1774</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="1">
         <v>133</v>
       </c>
-      <c r="L150" s="2">
+      <c r="L150" s="1">
         <v>36</v>
       </c>
       <c r="M150" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A151" s="8">
         <v>41954</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C151" t="s">
@@ -7528,40 +7521,40 @@
       <c r="E151">
         <v>1</v>
       </c>
-      <c r="F151" s="2">
-        <v>1</v>
-      </c>
-      <c r="G151" s="2">
-        <v>0</v>
-      </c>
-      <c r="H151" s="2">
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1">
         <v>507</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="1">
         <v>22</v>
       </c>
-      <c r="J151" s="2">
+      <c r="J151" s="1">
         <v>1372</v>
       </c>
-      <c r="K151" s="2">
+      <c r="K151" s="1">
         <v>191</v>
       </c>
-      <c r="L151" s="2">
+      <c r="L151" s="1">
         <v>0</v>
       </c>
       <c r="M151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A152" s="8">
         <v>41954</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C152" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D152">
         <v>342</v>
@@ -7569,39 +7562,39 @@
       <c r="E152">
         <v>4</v>
       </c>
-      <c r="F152" s="2">
-        <v>2</v>
-      </c>
-      <c r="G152" s="2">
-        <v>0</v>
-      </c>
-      <c r="H152" s="2">
+      <c r="F152" s="1">
+        <v>2</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1">
         <v>336</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I152" s="1">
         <v>10</v>
       </c>
-      <c r="J152" s="2">
+      <c r="J152" s="1">
         <v>1268</v>
       </c>
-      <c r="K152" s="2">
+      <c r="K152" s="1">
         <v>84</v>
       </c>
-      <c r="L152" s="2">
+      <c r="L152" s="1">
         <v>63</v>
       </c>
       <c r="M152" t="s">
         <v>15</v>
       </c>
       <c r="N152" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A153" s="8">
         <v>41954</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C153" t="s">
@@ -7613,43 +7606,43 @@
       <c r="E153">
         <v>1</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="1">
         <v>3</v>
       </c>
-      <c r="G153" s="2">
-        <v>0</v>
-      </c>
-      <c r="H153" s="2">
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+      <c r="H153" s="1">
         <v>526</v>
       </c>
-      <c r="I153" s="2">
+      <c r="I153" s="1">
         <v>17</v>
       </c>
-      <c r="J153" s="2">
+      <c r="J153" s="1">
         <v>1510</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="1">
         <v>258</v>
       </c>
-      <c r="L153" s="2">
+      <c r="L153" s="1">
         <v>0</v>
       </c>
       <c r="M153" t="s">
         <v>15</v>
       </c>
       <c r="N153" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A154" s="8">
         <v>41954</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D154">
         <v>344</v>
@@ -7657,40 +7650,40 @@
       <c r="E154">
         <v>4</v>
       </c>
-      <c r="F154" s="2">
-        <v>4</v>
-      </c>
-      <c r="G154" s="2">
-        <v>4</v>
-      </c>
-      <c r="H154" s="2">
+      <c r="F154" s="1">
+        <v>4</v>
+      </c>
+      <c r="G154" s="1">
+        <v>4</v>
+      </c>
+      <c r="H154" s="1">
         <v>338</v>
       </c>
-      <c r="I154" s="2">
-        <v>4</v>
-      </c>
-      <c r="J154" s="2">
+      <c r="I154" s="1">
+        <v>4</v>
+      </c>
+      <c r="J154" s="1">
         <v>1239</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154" s="1">
         <v>68</v>
       </c>
-      <c r="L154" s="2">
+      <c r="L154" s="1">
         <v>105</v>
       </c>
       <c r="M154" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A155" s="8">
         <v>41954</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D155">
         <v>345</v>
@@ -7698,40 +7691,40 @@
       <c r="E155">
         <v>1</v>
       </c>
-      <c r="F155" s="2">
-        <v>1</v>
-      </c>
-      <c r="G155" s="2">
-        <v>0</v>
-      </c>
-      <c r="H155" s="2">
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
         <v>525</v>
       </c>
-      <c r="I155" s="2">
+      <c r="I155" s="1">
         <v>16</v>
       </c>
-      <c r="J155" s="2">
+      <c r="J155" s="1">
         <v>575</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="1">
         <v>263</v>
       </c>
-      <c r="L155" s="2">
+      <c r="L155" s="1">
         <v>0</v>
       </c>
       <c r="M155" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="10">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A156" s="8">
         <v>41954</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D156">
         <v>346</v>
@@ -7739,41 +7732,41 @@
       <c r="E156">
         <v>4</v>
       </c>
-      <c r="F156" s="2">
-        <v>2</v>
-      </c>
-      <c r="G156" s="2">
-        <v>0</v>
-      </c>
-      <c r="H156" s="2">
+      <c r="F156" s="1">
+        <v>2</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
         <v>345</v>
       </c>
-      <c r="I156" s="2">
+      <c r="I156" s="1">
         <v>11</v>
       </c>
-      <c r="J156" s="2">
+      <c r="J156" s="1">
         <v>1361</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="1">
         <v>103</v>
       </c>
-      <c r="L156" s="2">
+      <c r="L156" s="1">
         <v>30</v>
       </c>
-      <c r="M156" s="9"/>
+      <c r="M156" s="7"/>
       <c r="N156" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A157" s="8">
         <v>41954</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C157" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D157">
         <v>347</v>
@@ -7781,38 +7774,38 @@
       <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="1">
         <v>3</v>
       </c>
-      <c r="G157" s="2">
-        <v>0</v>
-      </c>
-      <c r="H157" s="2">
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
         <v>460</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="1">
         <v>16</v>
       </c>
-      <c r="J157" s="2">
-        <v>0</v>
-      </c>
-      <c r="K157" s="2">
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+      <c r="K157" s="1">
         <v>457</v>
       </c>
-      <c r="L157" s="2">
-        <v>0</v>
-      </c>
-      <c r="M157" s="9"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="10">
+      <c r="L157" s="1">
+        <v>0</v>
+      </c>
+      <c r="M157" s="7"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A158" s="8">
         <v>41957</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="9">
         <v>0.625</v>
       </c>
       <c r="C158" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D158">
         <v>348</v>
@@ -7820,43 +7813,43 @@
       <c r="E158">
         <v>4</v>
       </c>
-      <c r="F158" s="2">
-        <v>4</v>
-      </c>
-      <c r="G158" s="2">
+      <c r="F158" s="1">
+        <v>4</v>
+      </c>
+      <c r="G158" s="1">
         <v>3</v>
       </c>
-      <c r="H158" s="2">
+      <c r="H158" s="1">
         <v>265</v>
       </c>
-      <c r="I158" s="2">
+      <c r="I158" s="1">
         <v>5</v>
       </c>
-      <c r="J158" s="2">
+      <c r="J158" s="1">
         <v>843</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="1">
         <v>126</v>
       </c>
-      <c r="L158" s="2">
+      <c r="L158" s="1">
         <v>84</v>
       </c>
       <c r="M158" t="s">
         <v>17</v>
       </c>
       <c r="N158" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A159" s="8">
         <v>41957</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D159">
         <v>349</v>
@@ -7864,41 +7857,41 @@
       <c r="E159">
         <v>4</v>
       </c>
-      <c r="F159" s="2">
-        <v>1</v>
-      </c>
-      <c r="G159" s="2">
-        <v>0</v>
-      </c>
-      <c r="H159" s="2">
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
         <v>401</v>
       </c>
-      <c r="I159" s="2">
+      <c r="I159" s="1">
         <v>13</v>
       </c>
-      <c r="J159" s="2">
+      <c r="J159" s="1">
         <v>1702</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="1">
         <v>147</v>
       </c>
-      <c r="L159" s="2">
-        <v>0</v>
-      </c>
-      <c r="M159" s="9"/>
+      <c r="L159" s="1">
+        <v>0</v>
+      </c>
+      <c r="M159" s="7"/>
       <c r="N159" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A160" s="8">
         <v>41957</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="9">
         <v>0.625</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D160">
         <v>350</v>
@@ -7906,39 +7899,39 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160" s="2">
-        <v>2</v>
-      </c>
-      <c r="G160" s="2">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2">
+      <c r="F160" s="1">
+        <v>2</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+      <c r="H160" s="1">
         <v>238</v>
       </c>
-      <c r="I160" s="2">
+      <c r="I160" s="1">
         <v>6</v>
       </c>
-      <c r="J160" s="2">
+      <c r="J160" s="1">
         <v>366</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="1">
         <v>100</v>
       </c>
-      <c r="L160" s="2">
+      <c r="L160" s="1">
         <v>88</v>
       </c>
       <c r="M160" t="s">
         <v>7</v>
       </c>
       <c r="N160" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A161" s="8">
         <v>41961</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C161" t="s">
@@ -7950,40 +7943,40 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="1">
         <v>3</v>
       </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-      <c r="H161" s="2">
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="1">
         <v>424</v>
       </c>
-      <c r="I161" s="2">
+      <c r="I161" s="1">
         <v>14</v>
       </c>
-      <c r="J161" s="2">
-        <v>0</v>
-      </c>
-      <c r="K161" s="2">
+      <c r="J161" s="1">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1">
         <v>428</v>
       </c>
-      <c r="L161" s="2">
+      <c r="L161" s="1">
         <v>0</v>
       </c>
       <c r="M161" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A162" s="8">
         <v>41961</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C162" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D162">
         <v>352</v>
@@ -7991,39 +7984,39 @@
       <c r="E162">
         <v>4</v>
       </c>
-      <c r="F162" s="2">
-        <v>4</v>
-      </c>
-      <c r="G162" s="2">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2">
+      <c r="F162" s="1">
+        <v>4</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1</v>
+      </c>
+      <c r="H162" s="1">
         <v>295</v>
       </c>
-      <c r="I162" s="2">
-        <v>7</v>
-      </c>
-      <c r="J162" s="2">
+      <c r="I162" s="1">
+        <v>7</v>
+      </c>
+      <c r="J162" s="1">
         <v>1427</v>
       </c>
-      <c r="K162" s="2">
+      <c r="K162" s="1">
         <v>77</v>
       </c>
-      <c r="L162" s="2">
+      <c r="L162" s="1">
         <v>70</v>
       </c>
       <c r="M162" t="s">
         <v>7</v>
       </c>
       <c r="N162" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A163" s="8">
         <v>41961</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="9">
         <v>0.46527777777777773</v>
       </c>
       <c r="C163" t="s">
@@ -8035,40 +8028,40 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163" s="2">
-        <v>1</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0</v>
-      </c>
-      <c r="H163" s="2">
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
         <v>427</v>
       </c>
-      <c r="I163" s="2">
+      <c r="I163" s="1">
         <v>14</v>
       </c>
-      <c r="J163" s="2">
+      <c r="J163" s="1">
         <v>376</v>
       </c>
-      <c r="K163" s="2">
+      <c r="K163" s="1">
         <v>239</v>
       </c>
-      <c r="L163" s="2">
+      <c r="L163" s="1">
         <v>0</v>
       </c>
       <c r="M163" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A164" s="8">
         <v>41961</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C164" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D164">
         <v>354</v>
@@ -8076,40 +8069,40 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" s="2">
-        <v>2</v>
-      </c>
-      <c r="G164" s="2">
-        <v>4</v>
-      </c>
-      <c r="H164" s="2">
+      <c r="F164" s="1">
+        <v>2</v>
+      </c>
+      <c r="G164" s="1">
+        <v>4</v>
+      </c>
+      <c r="H164" s="1">
         <v>309</v>
       </c>
-      <c r="I164" s="2">
-        <v>7</v>
-      </c>
-      <c r="J164" s="2">
+      <c r="I164" s="1">
+        <v>7</v>
+      </c>
+      <c r="J164" s="1">
         <v>1309</v>
       </c>
-      <c r="K164" s="2">
+      <c r="K164" s="1">
         <v>99</v>
       </c>
-      <c r="L164" s="2">
+      <c r="L164" s="1">
         <v>88</v>
       </c>
       <c r="M164" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="10">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A165" s="8">
         <v>41961</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="9">
         <v>0.625</v>
       </c>
       <c r="C165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D165">
         <v>355</v>
@@ -8117,40 +8110,40 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="1">
         <v>3</v>
       </c>
-      <c r="G165" s="2">
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
         <v>436</v>
       </c>
-      <c r="I165" s="2">
+      <c r="I165" s="1">
         <v>15</v>
       </c>
-      <c r="J165" s="2">
+      <c r="J165" s="1">
         <v>2241</v>
       </c>
-      <c r="K165" s="2">
+      <c r="K165" s="1">
         <v>43</v>
       </c>
-      <c r="L165" s="2">
+      <c r="L165" s="1">
         <v>0</v>
       </c>
       <c r="M165" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A166" s="8">
         <v>41961</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="9">
         <v>0.625</v>
       </c>
       <c r="C166" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D166">
         <v>356</v>
@@ -8158,43 +8151,43 @@
       <c r="E166">
         <v>4</v>
       </c>
-      <c r="F166" s="2">
-        <v>4</v>
-      </c>
-      <c r="G166" s="2">
+      <c r="F166" s="1">
+        <v>4</v>
+      </c>
+      <c r="G166" s="1">
         <v>5</v>
       </c>
-      <c r="H166" s="2">
+      <c r="H166" s="1">
         <v>344</v>
       </c>
-      <c r="I166" s="2">
-        <v>4</v>
-      </c>
-      <c r="J166" s="2">
+      <c r="I166" s="1">
+        <v>4</v>
+      </c>
+      <c r="J166" s="1">
         <v>1217</v>
       </c>
-      <c r="K166" s="2">
+      <c r="K166" s="1">
         <v>112</v>
       </c>
-      <c r="L166" s="2">
+      <c r="L166" s="1">
         <v>112</v>
       </c>
       <c r="M166" t="s">
         <v>7</v>
       </c>
       <c r="N166" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="10">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" s="8">
         <v>41961</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="9">
         <v>0.625</v>
       </c>
       <c r="C167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D167">
         <v>357</v>
@@ -8202,43 +8195,43 @@
       <c r="E167">
         <v>1</v>
       </c>
-      <c r="F167" s="2">
-        <v>1</v>
-      </c>
-      <c r="G167" s="2">
-        <v>0</v>
-      </c>
-      <c r="H167" s="2">
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
         <v>177</v>
       </c>
-      <c r="I167" s="2">
+      <c r="I167" s="1">
         <v>6</v>
       </c>
-      <c r="J167" s="2">
-        <v>0</v>
-      </c>
-      <c r="K167" s="2">
+      <c r="J167" s="1">
+        <v>0</v>
+      </c>
+      <c r="K167" s="1">
         <v>154</v>
       </c>
-      <c r="L167" s="2">
+      <c r="L167" s="1">
         <v>0</v>
       </c>
       <c r="M167" t="s">
         <v>17</v>
       </c>
       <c r="N167" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" s="8">
         <v>41962</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="9">
         <v>0.625</v>
       </c>
       <c r="C168" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D168">
         <v>358</v>
@@ -8246,41 +8239,41 @@
       <c r="E168">
         <v>4</v>
       </c>
-      <c r="F168" s="2">
-        <v>2</v>
-      </c>
-      <c r="G168" s="2">
-        <v>0</v>
-      </c>
-      <c r="H168" s="2">
+      <c r="F168" s="1">
+        <v>2</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
         <v>387</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="1">
         <v>13</v>
       </c>
-      <c r="J168" s="2">
+      <c r="J168" s="1">
         <v>1327</v>
       </c>
-      <c r="K168" s="2">
+      <c r="K168" s="1">
         <v>89</v>
       </c>
-      <c r="L168" s="2">
+      <c r="L168" s="1">
         <v>53</v>
       </c>
-      <c r="M168" s="9"/>
+      <c r="M168" s="7"/>
       <c r="N168" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" s="8">
         <v>41971</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="9">
         <v>0.625</v>
       </c>
       <c r="C169" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D169">
         <v>359</v>
@@ -8288,43 +8281,43 @@
       <c r="E169">
         <v>1</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="1">
         <v>3</v>
       </c>
-      <c r="G169" s="2">
-        <v>0</v>
-      </c>
-      <c r="H169" s="2">
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1">
         <v>564</v>
       </c>
-      <c r="I169" s="2">
+      <c r="I169" s="1">
         <v>13</v>
       </c>
-      <c r="J169" s="2">
+      <c r="J169" s="1">
         <v>2411</v>
       </c>
-      <c r="K169" s="2">
+      <c r="K169" s="1">
         <v>132</v>
       </c>
-      <c r="L169" s="2">
+      <c r="L169" s="1">
         <v>0</v>
       </c>
       <c r="M169" t="s">
         <v>7</v>
       </c>
       <c r="N169" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" s="8">
         <v>41971</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="9">
         <v>0.625</v>
       </c>
       <c r="C170" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D170">
         <v>360</v>
@@ -8332,43 +8325,43 @@
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170" s="2">
-        <v>4</v>
-      </c>
-      <c r="G170" s="2">
+      <c r="F170" s="1">
+        <v>4</v>
+      </c>
+      <c r="G170" s="1">
         <v>6</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170" s="1">
         <v>343</v>
       </c>
-      <c r="I170" s="2">
-        <v>7</v>
-      </c>
-      <c r="J170" s="2">
+      <c r="I170" s="1">
+        <v>7</v>
+      </c>
+      <c r="J170" s="1">
         <v>1202</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170" s="1">
         <v>147</v>
       </c>
-      <c r="L170" s="2">
+      <c r="L170" s="1">
         <v>107</v>
       </c>
       <c r="M170" t="s">
         <v>7</v>
       </c>
       <c r="N170" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B171" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" s="8">
+        <v>41974</v>
+      </c>
+      <c r="B171" s="9">
         <v>0.625</v>
       </c>
       <c r="C171" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D171">
         <v>361</v>
@@ -8376,40 +8369,40 @@
       <c r="E171">
         <v>4</v>
       </c>
-      <c r="F171" s="2">
-        <v>1</v>
-      </c>
-      <c r="G171" s="2">
-        <v>0</v>
-      </c>
-      <c r="H171" s="2">
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+      <c r="H171" s="1">
         <v>511</v>
       </c>
-      <c r="I171" s="2">
+      <c r="I171" s="1">
         <v>17</v>
       </c>
-      <c r="J171" s="2">
+      <c r="J171" s="1">
         <v>993</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171" s="1">
         <v>228</v>
       </c>
-      <c r="L171" s="2">
+      <c r="L171" s="1">
         <v>0</v>
       </c>
       <c r="M171" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" s="8">
         <v>41972</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="9">
         <v>0.625</v>
       </c>
       <c r="C172" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D172">
         <v>362</v>
@@ -8417,43 +8410,43 @@
       <c r="E172">
         <v>1</v>
       </c>
-      <c r="F172" s="2">
-        <v>2</v>
-      </c>
-      <c r="G172" s="2">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2">
+      <c r="F172" s="1">
+        <v>2</v>
+      </c>
+      <c r="G172" s="1">
+        <v>1</v>
+      </c>
+      <c r="H172" s="1">
         <v>300</v>
       </c>
-      <c r="I172" s="2">
-        <v>7</v>
-      </c>
-      <c r="J172" s="2">
+      <c r="I172" s="1">
+        <v>7</v>
+      </c>
+      <c r="J172" s="1">
         <v>1314</v>
       </c>
-      <c r="K172" s="2">
+      <c r="K172" s="1">
         <v>83</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172" s="1">
         <v>70</v>
       </c>
       <c r="M172" t="s">
         <v>7</v>
       </c>
       <c r="N172" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A173" s="8">
         <v>41972</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="9">
         <v>0.67361111111111116</v>
       </c>
       <c r="C173" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D173">
         <v>363</v>
@@ -8461,43 +8454,43 @@
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="1">
         <v>3</v>
       </c>
-      <c r="G173" s="2">
-        <v>0</v>
-      </c>
-      <c r="H173" s="2">
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
         <v>365</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173" s="1">
         <v>12</v>
       </c>
-      <c r="J173" s="2">
+      <c r="J173" s="1">
         <v>415</v>
       </c>
-      <c r="K173" s="2">
+      <c r="K173" s="1">
         <v>244</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173" s="1">
         <v>0</v>
       </c>
       <c r="M173" t="s">
         <v>7</v>
       </c>
       <c r="N173" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A174" s="8">
         <v>41975</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D174">
         <v>364</v>
@@ -8505,39 +8498,39 @@
       <c r="E174">
         <v>4</v>
       </c>
-      <c r="F174" s="2">
-        <v>4</v>
-      </c>
-      <c r="G174" s="2">
-        <v>0</v>
-      </c>
-      <c r="H174" s="2">
+      <c r="F174" s="1">
+        <v>4</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0</v>
+      </c>
+      <c r="H174" s="1">
         <v>298</v>
       </c>
-      <c r="I174" s="2">
+      <c r="I174" s="1">
         <v>10</v>
       </c>
-      <c r="J174" s="2">
+      <c r="J174" s="1">
         <v>847</v>
       </c>
-      <c r="K174" s="2">
+      <c r="K174" s="1">
         <v>150</v>
       </c>
-      <c r="L174" s="2">
+      <c r="L174" s="1">
         <v>65</v>
       </c>
       <c r="M174" t="s">
         <v>7</v>
       </c>
       <c r="N174" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A175" s="8">
         <v>41975</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="9">
         <v>0.45833333333333331</v>
       </c>
       <c r="C175" t="s">
@@ -8549,40 +8542,40 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="F175" s="2">
-        <v>1</v>
-      </c>
-      <c r="G175" s="2">
-        <v>0</v>
-      </c>
-      <c r="H175" s="2">
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
+      <c r="H175" s="1">
         <v>388</v>
       </c>
-      <c r="I175" s="2">
+      <c r="I175" s="1">
         <v>16</v>
       </c>
-      <c r="J175" s="2">
+      <c r="J175" s="1">
         <v>504</v>
       </c>
-      <c r="K175" s="2">
+      <c r="K175" s="1">
         <v>226</v>
       </c>
-      <c r="L175" s="2">
+      <c r="L175" s="1">
         <v>0</v>
       </c>
       <c r="M175" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A176" s="8">
         <v>41975</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="C176" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D176">
         <v>366</v>
@@ -8590,43 +8583,43 @@
       <c r="E176">
         <v>4</v>
       </c>
-      <c r="F176" s="2">
-        <v>2</v>
-      </c>
-      <c r="G176" s="2">
-        <v>0</v>
-      </c>
-      <c r="H176" s="2">
+      <c r="F176" s="1">
+        <v>2</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+      <c r="H176" s="1">
         <v>457</v>
       </c>
-      <c r="I176" s="2">
+      <c r="I176" s="1">
         <v>14</v>
       </c>
-      <c r="J176" s="2">
+      <c r="J176" s="1">
         <v>1813</v>
       </c>
-      <c r="K176" s="2">
+      <c r="K176" s="1">
         <v>130</v>
       </c>
-      <c r="L176" s="2">
+      <c r="L176" s="1">
         <v>60</v>
       </c>
       <c r="M176" t="s">
         <v>7</v>
       </c>
       <c r="N176" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A177" s="8">
         <v>41975</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C177" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D177">
         <v>367</v>
@@ -8634,43 +8627,43 @@
       <c r="E177">
         <v>4</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="1">
         <v>3</v>
       </c>
-      <c r="G177" s="2">
-        <v>0</v>
-      </c>
-      <c r="H177" s="2">
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H177" s="1">
         <v>368</v>
       </c>
-      <c r="I177" s="2">
+      <c r="I177" s="1">
         <v>22</v>
       </c>
-      <c r="J177" s="2">
+      <c r="J177" s="1">
         <v>1261</v>
       </c>
-      <c r="K177" s="2">
+      <c r="K177" s="1">
         <v>181</v>
       </c>
-      <c r="L177" s="2">
+      <c r="L177" s="1">
         <v>0</v>
       </c>
       <c r="M177" t="s">
         <v>15</v>
       </c>
       <c r="N177" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A178" s="8">
         <v>41975</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D178">
         <v>368</v>
@@ -8678,40 +8671,40 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178" s="2">
-        <v>4</v>
-      </c>
-      <c r="G178" s="2">
+      <c r="F178" s="1">
+        <v>4</v>
+      </c>
+      <c r="G178" s="1">
         <v>3</v>
       </c>
-      <c r="H178" s="2">
+      <c r="H178" s="1">
         <v>474</v>
       </c>
-      <c r="I178" s="2">
+      <c r="I178" s="1">
         <v>11</v>
       </c>
-      <c r="J178" s="2">
+      <c r="J178" s="1">
         <v>1531</v>
       </c>
-      <c r="K178" s="2">
+      <c r="K178" s="1">
         <v>139</v>
       </c>
-      <c r="L178" s="2">
+      <c r="L178" s="1">
         <v>110</v>
       </c>
       <c r="M178" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A179" s="8">
         <v>41975</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="C179" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D179">
         <v>369</v>
@@ -8719,41 +8712,41 @@
       <c r="E179">
         <v>4</v>
       </c>
-      <c r="F179" s="2">
-        <v>1</v>
-      </c>
-      <c r="G179" s="2">
-        <v>0</v>
-      </c>
-      <c r="H179" s="2">
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
+      <c r="H179" s="1">
         <v>428</v>
       </c>
-      <c r="I179" s="2">
+      <c r="I179" s="1">
         <v>15</v>
       </c>
-      <c r="J179" s="2">
-        <v>0</v>
-      </c>
-      <c r="K179" s="2">
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1">
         <v>363</v>
       </c>
-      <c r="L179" s="2">
-        <v>0</v>
-      </c>
-      <c r="M179" s="9"/>
+      <c r="L179" s="1">
+        <v>0</v>
+      </c>
+      <c r="M179" s="7"/>
       <c r="N179" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A180" s="8">
         <v>41975</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D180">
         <v>370</v>
@@ -8761,41 +8754,41 @@
       <c r="E180">
         <v>1</v>
       </c>
-      <c r="F180" s="2">
-        <v>2</v>
-      </c>
-      <c r="G180" s="2">
-        <v>4</v>
-      </c>
-      <c r="H180" s="2">
+      <c r="F180" s="1">
+        <v>2</v>
+      </c>
+      <c r="G180" s="1">
+        <v>4</v>
+      </c>
+      <c r="H180" s="1">
         <v>443</v>
       </c>
-      <c r="I180" s="2">
+      <c r="I180" s="1">
         <v>11</v>
       </c>
-      <c r="J180" s="2">
+      <c r="J180" s="1">
         <v>1473</v>
       </c>
-      <c r="K180" s="2">
+      <c r="K180" s="1">
         <v>154</v>
       </c>
-      <c r="L180" s="2">
+      <c r="L180" s="1">
         <v>116</v>
       </c>
-      <c r="M180" s="9"/>
+      <c r="M180" s="7"/>
       <c r="N180" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A181" s="8">
         <v>41975</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="9">
         <v>0.625</v>
       </c>
       <c r="C181" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D181">
         <v>371</v>
@@ -8803,40 +8796,40 @@
       <c r="E181">
         <v>4</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="1">
         <v>3</v>
       </c>
-      <c r="G181" s="2">
-        <v>0</v>
-      </c>
-      <c r="H181" s="2">
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
+      <c r="H181" s="1">
         <v>513</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I181" s="1">
         <v>18</v>
       </c>
-      <c r="J181" s="2">
+      <c r="J181" s="1">
         <v>1322</v>
       </c>
-      <c r="K181" s="2">
+      <c r="K181" s="1">
         <v>232</v>
       </c>
-      <c r="L181" s="2">
+      <c r="L181" s="1">
         <v>0</v>
       </c>
       <c r="M181" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="10">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A182" s="8">
         <v>41976</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="9">
         <v>0.625</v>
       </c>
       <c r="C182" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D182">
         <v>372</v>
@@ -8844,43 +8837,43 @@
       <c r="E182">
         <v>4</v>
       </c>
-      <c r="F182" s="2">
-        <v>4</v>
-      </c>
-      <c r="G182" s="2">
-        <v>0</v>
-      </c>
-      <c r="H182" s="2">
+      <c r="F182" s="1">
+        <v>4</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+      <c r="H182" s="1">
         <v>344</v>
       </c>
-      <c r="I182" s="2">
+      <c r="I182" s="1">
         <v>11</v>
       </c>
-      <c r="J182" s="2">
+      <c r="J182" s="1">
         <v>110</v>
       </c>
-      <c r="K182" s="2">
+      <c r="K182" s="1">
         <v>112</v>
       </c>
-      <c r="L182" s="2">
+      <c r="L182" s="1">
         <v>28</v>
       </c>
       <c r="M182" t="s">
         <v>7</v>
       </c>
       <c r="N182" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A183" s="8">
         <v>41976</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="9">
         <v>0.625</v>
       </c>
       <c r="C183" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D183">
         <v>373</v>
@@ -8888,43 +8881,43 @@
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="F183" s="2">
-        <v>1</v>
-      </c>
-      <c r="G183" s="2">
-        <v>0</v>
-      </c>
-      <c r="H183" s="2">
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
+      <c r="H183" s="1">
         <v>428</v>
       </c>
-      <c r="I183" s="2">
+      <c r="I183" s="1">
         <v>13</v>
       </c>
-      <c r="J183" s="2">
+      <c r="J183" s="1">
         <v>1265</v>
       </c>
-      <c r="K183" s="2">
+      <c r="K183" s="1">
         <v>135</v>
       </c>
-      <c r="L183" s="2">
+      <c r="L183" s="1">
         <v>0</v>
       </c>
       <c r="M183" t="s">
         <v>7</v>
       </c>
       <c r="N183" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A184" s="8">
         <v>41976</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="9">
         <v>0.625</v>
       </c>
       <c r="C184" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D184">
         <v>374</v>
@@ -8932,40 +8925,40 @@
       <c r="E184">
         <v>4</v>
       </c>
-      <c r="F184" s="2">
-        <v>2</v>
-      </c>
-      <c r="G184" s="2">
+      <c r="F184" s="1">
+        <v>2</v>
+      </c>
+      <c r="G184" s="1">
         <v>5</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="1">
         <v>336</v>
       </c>
-      <c r="I184" s="2">
-        <v>7</v>
-      </c>
-      <c r="J184" s="2">
+      <c r="I184" s="1">
+        <v>7</v>
+      </c>
+      <c r="J184" s="1">
         <v>1447</v>
       </c>
-      <c r="K184" s="2">
+      <c r="K184" s="1">
         <v>99</v>
       </c>
-      <c r="L184" s="2">
+      <c r="L184" s="1">
         <v>99</v>
       </c>
       <c r="M184" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="10">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A185" s="8">
         <v>41976</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="9">
         <v>0.625</v>
       </c>
       <c r="C185" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D185">
         <v>375</v>
@@ -8973,39 +8966,39 @@
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="1">
         <v>3</v>
       </c>
-      <c r="G185" s="2">
-        <v>0</v>
-      </c>
-      <c r="H185" s="2">
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
+      <c r="H185" s="1">
         <v>565</v>
       </c>
-      <c r="I185" s="2">
+      <c r="I185" s="1">
         <v>13</v>
       </c>
-      <c r="J185" s="2">
+      <c r="J185" s="1">
         <v>2111</v>
       </c>
-      <c r="K185" s="2">
+      <c r="K185" s="1">
         <v>168</v>
       </c>
-      <c r="L185" s="2">
+      <c r="L185" s="1">
         <v>0</v>
       </c>
       <c r="M185" t="s">
         <v>7</v>
       </c>
       <c r="N185" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="8">
         <v>74854</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="9">
         <v>0.4236111111111111</v>
       </c>
       <c r="C186" t="s">
@@ -9017,40 +9010,40 @@
       <c r="E186">
         <v>1</v>
       </c>
-      <c r="F186" s="2">
-        <v>4</v>
-      </c>
-      <c r="G186" s="2">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2">
+      <c r="F186" s="1">
+        <v>4</v>
+      </c>
+      <c r="G186" s="1">
+        <v>1</v>
+      </c>
+      <c r="H186" s="1">
         <v>183</v>
       </c>
-      <c r="I186" s="2">
+      <c r="I186" s="1">
         <v>5</v>
       </c>
-      <c r="J186" s="2">
+      <c r="J186" s="1">
         <v>718</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K186" s="1">
         <v>55</v>
       </c>
-      <c r="L186" s="2">
+      <c r="L186" s="1">
         <v>54</v>
       </c>
       <c r="M186" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="10">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A187" s="8">
         <v>41982</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="C187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D187">
         <v>377</v>
@@ -9058,43 +9051,43 @@
       <c r="E187">
         <v>4</v>
       </c>
-      <c r="F187" s="2">
-        <v>1</v>
-      </c>
-      <c r="G187" s="2">
-        <v>0</v>
-      </c>
-      <c r="H187" s="2">
+      <c r="F187" s="1">
+        <v>1</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="1">
         <v>385</v>
       </c>
-      <c r="I187" s="2">
+      <c r="I187" s="1">
         <v>13</v>
       </c>
-      <c r="J187" s="2">
+      <c r="J187" s="1">
         <v>2262</v>
       </c>
-      <c r="K187" s="2">
-        <v>2</v>
-      </c>
-      <c r="L187" s="2">
+      <c r="K187" s="1">
+        <v>2</v>
+      </c>
+      <c r="L187" s="1">
         <v>0</v>
       </c>
       <c r="M187" t="s">
         <v>7</v>
       </c>
       <c r="N187" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A188" s="8">
         <v>41983</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="9">
         <v>0.625</v>
       </c>
       <c r="C188" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D188">
         <v>378</v>
@@ -9102,43 +9095,43 @@
       <c r="E188">
         <v>4</v>
       </c>
-      <c r="F188" s="2">
-        <v>2</v>
-      </c>
-      <c r="G188" s="2">
+      <c r="F188" s="1">
+        <v>2</v>
+      </c>
+      <c r="G188" s="1">
         <v>6</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="1">
         <v>609</v>
       </c>
-      <c r="I188" s="2">
+      <c r="I188" s="1">
         <v>22</v>
       </c>
-      <c r="J188" s="2">
+      <c r="J188" s="1">
         <v>750</v>
       </c>
-      <c r="K188" s="2">
+      <c r="K188" s="1">
         <v>239</v>
       </c>
-      <c r="L188" s="2">
+      <c r="L188" s="1">
         <v>238</v>
       </c>
       <c r="M188" t="s">
         <v>17</v>
       </c>
       <c r="N188" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A189" s="8">
         <v>41983</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="9">
         <v>0.625</v>
       </c>
       <c r="C189" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D189">
         <v>379</v>
@@ -9146,43 +9139,43 @@
       <c r="E189">
         <v>1</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="1">
         <v>3</v>
       </c>
-      <c r="G189" s="2">
-        <v>0</v>
-      </c>
-      <c r="H189" s="2">
+      <c r="G189" s="1">
+        <v>0</v>
+      </c>
+      <c r="H189" s="1">
         <v>373</v>
       </c>
-      <c r="I189" s="2">
+      <c r="I189" s="1">
         <v>13</v>
       </c>
-      <c r="J189" s="2">
+      <c r="J189" s="1">
         <v>373</v>
       </c>
-      <c r="K189" s="2">
+      <c r="K189" s="1">
         <v>167</v>
       </c>
-      <c r="L189" s="2">
+      <c r="L189" s="1">
         <v>0</v>
       </c>
       <c r="M189" t="s">
         <v>7</v>
       </c>
       <c r="N189" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A190" s="8">
         <v>41983</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="9">
         <v>0.625</v>
       </c>
       <c r="C190" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D190">
         <v>380</v>
@@ -9190,43 +9183,43 @@
       <c r="E190">
         <v>1</v>
       </c>
-      <c r="F190" s="2">
-        <v>4</v>
-      </c>
-      <c r="G190" s="2">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2">
+      <c r="F190" s="1">
+        <v>4</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1</v>
+      </c>
+      <c r="H190" s="1">
         <v>407</v>
       </c>
-      <c r="I190" s="2">
+      <c r="I190" s="1">
         <v>13</v>
       </c>
-      <c r="J190" s="2">
+      <c r="J190" s="1">
         <v>1713</v>
       </c>
-      <c r="K190" s="2">
+      <c r="K190" s="1">
         <v>133</v>
       </c>
-      <c r="L190" s="2">
+      <c r="L190" s="1">
         <v>77</v>
       </c>
       <c r="M190" t="s">
         <v>7</v>
       </c>
       <c r="N190" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A191" s="8">
         <v>41983</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="9">
         <v>0.625</v>
       </c>
       <c r="C191" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D191">
         <v>381</v>
@@ -9234,32 +9227,32 @@
       <c r="E191">
         <v>4</v>
       </c>
-      <c r="F191" s="2">
-        <v>1</v>
-      </c>
-      <c r="G191" s="2">
-        <v>0</v>
-      </c>
-      <c r="H191" s="2">
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0</v>
+      </c>
+      <c r="H191" s="1">
         <v>464</v>
       </c>
-      <c r="I191" s="2">
+      <c r="I191" s="1">
         <v>15</v>
       </c>
-      <c r="J191" s="2">
+      <c r="J191" s="1">
         <v>807</v>
       </c>
-      <c r="K191" s="2">
+      <c r="K191" s="1">
         <v>211</v>
       </c>
-      <c r="L191" s="2">
+      <c r="L191" s="1">
         <v>0</v>
       </c>
       <c r="M191" t="s">
         <v>7</v>
       </c>
       <c r="N191" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9279,7 +9272,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9291,7 +9284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
